--- a/results/BINARY/Pretomanid.xlsx
+++ b/results/BINARY/Pretomanid.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="249">
   <si>
     <t>mutation</t>
   </si>
@@ -88,12 +88,12 @@
     <t>fbiC_lof</t>
   </si>
   <si>
+    <t>fbiC_p.Thr510Ser</t>
+  </si>
+  <si>
     <t>fbiC_p.Ser782Ala</t>
   </si>
   <si>
-    <t>fbiC_p.Thr510Ser</t>
-  </si>
-  <si>
     <t>fgd1_p.Gly168Arg</t>
   </si>
   <si>
@@ -250,12 +250,12 @@
     <t>3339259</t>
   </si>
   <si>
+    <t>1304458;1304459</t>
+  </si>
+  <si>
     <t>1305274</t>
   </si>
   <si>
-    <t>1304458;1304459</t>
-  </si>
-  <si>
     <t>491284</t>
   </si>
   <si>
@@ -388,9 +388,6 @@
     <t>LRT_BH_pval</t>
   </si>
   <si>
-    <t>AUC_diff</t>
-  </si>
-  <si>
     <t>AUC_pval</t>
   </si>
   <si>
@@ -469,7 +466,10 @@
     <t>LR-_UB</t>
   </si>
   <si>
-    <t>Significance_Group</t>
+    <t>regression_confidence</t>
+  </si>
+  <si>
+    <t>High_Predictive_Value</t>
   </si>
   <si>
     <t>ddn_deletion</t>
@@ -529,7 +529,10 @@
     <t>inf</t>
   </si>
   <si>
-    <t>3) Uncertain significance</t>
+    <t>Assoc w R</t>
+  </si>
+  <si>
+    <t>Evidence against Assoc</t>
   </si>
   <si>
     <t>unpooled</t>
@@ -538,12 +541,12 @@
     <t>fgd1_c.960T&gt;C</t>
   </si>
   <si>
+    <t>Rv2983_c.300A&gt;G</t>
+  </si>
+  <si>
     <t>fbiA_c.15T&gt;C</t>
   </si>
   <si>
-    <t>Rv2983_c.300A&gt;G</t>
-  </si>
-  <si>
     <t>ddn_c.225C&gt;T</t>
   </si>
   <si>
@@ -553,42 +556,42 @@
     <t>fbiA_c.363C&gt;T</t>
   </si>
   <si>
+    <t>fbiB_c.306T&gt;C</t>
+  </si>
+  <si>
+    <t>fbiC_c.1668C&gt;T</t>
+  </si>
+  <si>
+    <t>Rv2983_c.285C&gt;T</t>
+  </si>
+  <si>
+    <t>fgd1_c.399T&gt;C</t>
+  </si>
+  <si>
+    <t>ddn_c.67C&gt;A</t>
+  </si>
+  <si>
+    <t>fgd1_c.414A&gt;G</t>
+  </si>
+  <si>
+    <t>fbiB_c.933T&gt;C</t>
+  </si>
+  <si>
+    <t>fbiC_c.765T&gt;C</t>
+  </si>
+  <si>
     <t>fbiB_c.720G&gt;A</t>
   </si>
   <si>
     <t>Rv2983_c.451C&gt;T</t>
   </si>
   <si>
+    <t>ddn_c.207C&gt;T</t>
+  </si>
+  <si>
     <t>ddn_c.444T&gt;C</t>
   </si>
   <si>
-    <t>fbiC_c.765T&gt;C</t>
-  </si>
-  <si>
-    <t>fbiB_c.933T&gt;C</t>
-  </si>
-  <si>
-    <t>fbiC_c.1668C&gt;T</t>
-  </si>
-  <si>
-    <t>fgd1_c.414A&gt;G</t>
-  </si>
-  <si>
-    <t>ddn_c.67C&gt;A</t>
-  </si>
-  <si>
-    <t>fgd1_c.399T&gt;C</t>
-  </si>
-  <si>
-    <t>ddn_c.207C&gt;T</t>
-  </si>
-  <si>
-    <t>Rv2983_c.285C&gt;T</t>
-  </si>
-  <si>
-    <t>fbiB_c.306T&gt;C</t>
-  </si>
-  <si>
     <t>fgd1_c.528C&gt;T</t>
   </si>
   <si>
@@ -655,12 +658,12 @@
     <t>491736;491742;491739</t>
   </si>
   <si>
+    <t>3339417</t>
+  </si>
+  <si>
     <t>3640557</t>
   </si>
   <si>
-    <t>3339417</t>
-  </si>
-  <si>
     <t>3987068</t>
   </si>
   <si>
@@ -670,37 +673,37 @@
     <t>3640905</t>
   </si>
   <si>
+    <t>3641840</t>
+  </si>
+  <si>
+    <t>1304598</t>
+  </si>
+  <si>
+    <t>3339402</t>
+  </si>
+  <si>
+    <t>491181;491178;491175</t>
+  </si>
+  <si>
+    <t>491196</t>
+  </si>
+  <si>
+    <t>3642467;3642464</t>
+  </si>
+  <si>
+    <t>1303695;1303692;1303689</t>
+  </si>
+  <si>
     <t>3642254</t>
   </si>
   <si>
     <t>3339568</t>
   </si>
   <si>
+    <t>3987050</t>
+  </si>
+  <si>
     <t>3987287</t>
-  </si>
-  <si>
-    <t>1303695;1303692;1303689</t>
-  </si>
-  <si>
-    <t>3642467;3642464</t>
-  </si>
-  <si>
-    <t>1304598</t>
-  </si>
-  <si>
-    <t>491196</t>
-  </si>
-  <si>
-    <t>491181;491178;491175</t>
-  </si>
-  <si>
-    <t>3987050</t>
-  </si>
-  <si>
-    <t>3339402</t>
-  </si>
-  <si>
-    <t>3641840</t>
   </si>
   <si>
     <t>491310;491307</t>
@@ -4988,91 +4991,91 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0511101801424382</v>
+        <v>0.01</v>
       </c>
       <c r="N2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="O2">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="P2">
+        <v>696</v>
+      </c>
+      <c r="Q2">
         <v>2</v>
       </c>
-      <c r="Q2">
-        <v>696</v>
-      </c>
       <c r="R2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="T2">
-        <v>682</v>
+        <v>12</v>
       </c>
       <c r="U2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.9827089337175792</v>
       </c>
       <c r="W2">
-        <v>0.9827089337175792</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="X2">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
         <v>169</v>
       </c>
+      <c r="Z2">
+        <v>0.8571428571428572</v>
+      </c>
       <c r="AA2">
-        <v>0.8571428571428572</v>
+        <v>0.158113883008393</v>
       </c>
       <c r="AB2">
-        <v>0.158113883008393</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9699909422921412</v>
       </c>
       <c r="AD2">
-        <v>0.9699909422921412</v>
+        <v>0.9910343472998786</v>
       </c>
       <c r="AE2">
-        <v>0.9910343472998786</v>
+        <v>0.0177945154831915</v>
       </c>
       <c r="AF2">
-        <v>0.0177945154831915</v>
+        <v>0.428129160909699</v>
       </c>
       <c r="AG2">
-        <v>0.428129160909699</v>
+        <v>0.9946056876820208</v>
       </c>
       <c r="AH2">
-        <v>0.9946056876820208</v>
-      </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>169</v>
       </c>
+      <c r="AK2">
+        <v>0.6921169860620525</v>
+      </c>
       <c r="AL2">
-        <v>0.6921169860620525</v>
-      </c>
-      <c r="AM2">
         <v>1.06151690009982</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AM2" t="s">
         <v>170</v>
       </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
       <c r="AO2" t="s">
         <v>113</v>
       </c>
       <c r="AP2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -5113,91 +5116,91 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0025136154168412</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N3">
-        <v>0.07000000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="O3">
-        <v>0.08400000000000001</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q3">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="T3">
-        <v>682</v>
+        <v>13</v>
       </c>
       <c r="U3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.981294964028777</v>
       </c>
       <c r="W3">
-        <v>0.981294964028777</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="X3">
-        <v>0.0714285714285714</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
         <v>169</v>
       </c>
+      <c r="Z3">
+        <v>0.9285714285714286</v>
+      </c>
       <c r="AA3">
-        <v>0.9285714285714286</v>
+        <v>0.025</v>
       </c>
       <c r="AB3">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.96822621051664</v>
       </c>
       <c r="AD3">
-        <v>0.96822621051664</v>
+        <v>0.9900037019076768</v>
       </c>
       <c r="AE3">
-        <v>0.9900037019076768</v>
+        <v>0.0018067806591276</v>
       </c>
       <c r="AF3">
-        <v>0.0018067806591276</v>
+        <v>0.3386844899318212</v>
       </c>
       <c r="AG3">
-        <v>0.3386844899318212</v>
+        <v>0.9946056876820208</v>
       </c>
       <c r="AH3">
-        <v>0.9946056876820208</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AK3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>169</v>
       </c>
+      <c r="AK3">
+        <v>0.8030083484004436</v>
+      </c>
       <c r="AL3">
-        <v>0.8030083484004436</v>
-      </c>
-      <c r="AM3">
         <v>1.073768286066685</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AM3" t="s">
         <v>170</v>
       </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
       <c r="AO3" t="s">
         <v>113</v>
       </c>
       <c r="AP3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -5237,89 +5240,86 @@
       <c r="L4">
         <v>1.391575743525664E-11</v>
       </c>
-      <c r="M4">
-        <v>0.0383326351068287</v>
-      </c>
-      <c r="N4">
-        <v>0.01</v>
-      </c>
       <c r="O4">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q4">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="T4">
-        <v>682</v>
+        <v>13</v>
       </c>
       <c r="U4">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.981294964028777</v>
       </c>
       <c r="W4">
-        <v>0.981294964028777</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="X4">
-        <v>0.0714285714285714</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="s">
         <v>169</v>
       </c>
+      <c r="Z4">
+        <v>0.9285714285714286</v>
+      </c>
       <c r="AA4">
-        <v>0.9285714285714286</v>
+        <v>0.025</v>
       </c>
       <c r="AB4">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.96822621051664</v>
       </c>
       <c r="AD4">
-        <v>0.96822621051664</v>
+        <v>0.9900037019076768</v>
       </c>
       <c r="AE4">
-        <v>0.9900037019076768</v>
+        <v>0.0018067806591276</v>
       </c>
       <c r="AF4">
-        <v>0.0018067806591276</v>
+        <v>0.3386844899318212</v>
       </c>
       <c r="AG4">
-        <v>0.3386844899318212</v>
+        <v>0.9946056876820208</v>
       </c>
       <c r="AH4">
-        <v>0.9946056876820208</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AK4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>169</v>
       </c>
+      <c r="AK4">
+        <v>0.8030083484004436</v>
+      </c>
       <c r="AL4">
-        <v>0.8030083484004436</v>
-      </c>
-      <c r="AM4">
         <v>1.073768286066685</v>
       </c>
+      <c r="AM4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
       <c r="AO4" t="s">
         <v>113</v>
       </c>
       <c r="AP4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -5359,89 +5359,86 @@
       <c r="L5">
         <v>8.604409851287186E-10</v>
       </c>
-      <c r="M5">
-        <v>0.0139296187683284</v>
-      </c>
-      <c r="N5">
-        <v>0.01</v>
-      </c>
       <c r="O5">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q5">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="T5">
-        <v>682</v>
+        <v>13</v>
       </c>
       <c r="U5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.981294964028777</v>
       </c>
       <c r="W5">
-        <v>0.981294964028777</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="X5">
-        <v>0.0714285714285714</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="s">
         <v>169</v>
       </c>
+      <c r="Z5">
+        <v>0.9285714285714286</v>
+      </c>
       <c r="AA5">
-        <v>0.9285714285714286</v>
+        <v>0.025</v>
       </c>
       <c r="AB5">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.96822621051664</v>
       </c>
       <c r="AD5">
-        <v>0.96822621051664</v>
+        <v>0.9900037019076768</v>
       </c>
       <c r="AE5">
-        <v>0.9900037019076768</v>
+        <v>0.0018067806591276</v>
       </c>
       <c r="AF5">
-        <v>0.0018067806591276</v>
+        <v>0.3386844899318212</v>
       </c>
       <c r="AG5">
-        <v>0.3386844899318212</v>
+        <v>0.9946056876820208</v>
       </c>
       <c r="AH5">
-        <v>0.9946056876820208</v>
-      </c>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-      <c r="AK5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>169</v>
       </c>
+      <c r="AK5">
+        <v>0.8030083484004436</v>
+      </c>
       <c r="AL5">
-        <v>0.8030083484004436</v>
-      </c>
-      <c r="AM5">
         <v>1.073768286066685</v>
       </c>
+      <c r="AM5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
       <c r="AO5" t="s">
         <v>113</v>
       </c>
       <c r="AP5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -5481,89 +5478,86 @@
       <c r="L6">
         <v>8.604409851287186E-10</v>
       </c>
-      <c r="M6">
-        <v>0.0126728110599078</v>
-      </c>
-      <c r="N6">
-        <v>0.03</v>
-      </c>
       <c r="O6">
-        <v>0.045</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q6">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="T6">
-        <v>682</v>
+        <v>13</v>
       </c>
       <c r="U6">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0.981294964028777</v>
       </c>
       <c r="W6">
-        <v>0.981294964028777</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="X6">
-        <v>0.0714285714285714</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="s">
         <v>169</v>
       </c>
+      <c r="Z6">
+        <v>0.9285714285714286</v>
+      </c>
       <c r="AA6">
-        <v>0.9285714285714286</v>
+        <v>0.025</v>
       </c>
       <c r="AB6">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.96822621051664</v>
       </c>
       <c r="AD6">
-        <v>0.96822621051664</v>
+        <v>0.9900037019076768</v>
       </c>
       <c r="AE6">
-        <v>0.9900037019076768</v>
+        <v>0.0018067806591276</v>
       </c>
       <c r="AF6">
-        <v>0.0018067806591276</v>
+        <v>0.3386844899318212</v>
       </c>
       <c r="AG6">
-        <v>0.3386844899318212</v>
+        <v>0.9946056876820208</v>
       </c>
       <c r="AH6">
-        <v>0.9946056876820208</v>
-      </c>
-      <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AK6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>169</v>
       </c>
+      <c r="AK6">
+        <v>0.8030083484004436</v>
+      </c>
       <c r="AL6">
-        <v>0.8030083484004436</v>
-      </c>
-      <c r="AM6">
         <v>1.073768286066685</v>
       </c>
+      <c r="AM6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
       <c r="AO6" t="s">
         <v>113</v>
       </c>
       <c r="AP6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -5603,89 +5597,86 @@
       <c r="L7">
         <v>9.39325413747601E-10</v>
       </c>
-      <c r="M7">
-        <v>0.000733137829912</v>
-      </c>
-      <c r="N7">
-        <v>0.41</v>
-      </c>
       <c r="O7">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q7">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="T7">
-        <v>682</v>
+        <v>13</v>
       </c>
       <c r="U7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0.981294964028777</v>
       </c>
       <c r="W7">
-        <v>0.981294964028777</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="X7">
-        <v>0.0714285714285714</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="s">
         <v>169</v>
       </c>
+      <c r="Z7">
+        <v>0.9285714285714286</v>
+      </c>
       <c r="AA7">
-        <v>0.9285714285714286</v>
+        <v>0.025</v>
       </c>
       <c r="AB7">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0.96822621051664</v>
       </c>
       <c r="AD7">
-        <v>0.96822621051664</v>
+        <v>0.9900037019076768</v>
       </c>
       <c r="AE7">
-        <v>0.9900037019076768</v>
+        <v>0.0018067806591276</v>
       </c>
       <c r="AF7">
-        <v>0.0018067806591276</v>
+        <v>0.3386844899318212</v>
       </c>
       <c r="AG7">
-        <v>0.3386844899318212</v>
+        <v>0.9946056876820208</v>
       </c>
       <c r="AH7">
-        <v>0.9946056876820208</v>
-      </c>
-      <c r="AI7">
-        <v>1</v>
-      </c>
-      <c r="AK7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>169</v>
       </c>
+      <c r="AK7">
+        <v>0.8030083484004436</v>
+      </c>
       <c r="AL7">
-        <v>0.8030083484004436</v>
-      </c>
-      <c r="AM7">
         <v>1.073768286066685</v>
       </c>
+      <c r="AM7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
       <c r="AO7" t="s">
         <v>113</v>
       </c>
       <c r="AP7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -5725,83 +5716,89 @@
       <c r="L8">
         <v>1</v>
       </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
       <c r="P8">
-        <v>4</v>
+        <v>696</v>
       </c>
       <c r="Q8">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>679</v>
       </c>
       <c r="T8">
-        <v>679</v>
+        <v>13</v>
       </c>
       <c r="U8">
-        <v>13</v>
+        <v>0.25</v>
       </c>
       <c r="V8">
-        <v>0.25</v>
+        <v>0.98121387283237</v>
       </c>
       <c r="W8">
-        <v>0.98121387283237</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="X8">
-        <v>0.0714285714285714</v>
+        <v>0.995601173020528</v>
       </c>
       <c r="Y8">
-        <v>0.995601173020528</v>
+        <v>16.23809523809525</v>
       </c>
       <c r="Z8">
-        <v>16.23809523809525</v>
+        <v>0.9326741005680624</v>
       </c>
       <c r="AA8">
-        <v>0.9326741005680624</v>
+        <v>0.0063094632097098</v>
       </c>
       <c r="AB8">
-        <v>0.0063094632097098</v>
+        <v>0.8058795503167566</v>
       </c>
       <c r="AC8">
-        <v>0.8058795503167566</v>
+        <v>0.9680893875918908</v>
       </c>
       <c r="AD8">
-        <v>0.9680893875918908</v>
+        <v>0.9899602045728184</v>
       </c>
       <c r="AE8">
-        <v>0.9899602045728184</v>
+        <v>0.0018067806591276</v>
       </c>
       <c r="AF8">
-        <v>0.0018067806591276</v>
+        <v>0.3386844899318212</v>
       </c>
       <c r="AG8">
-        <v>0.3386844899318212</v>
+        <v>0.9871990153057834</v>
       </c>
       <c r="AH8">
-        <v>0.9871990153057834</v>
+        <v>0.9990919358346636</v>
       </c>
       <c r="AI8">
-        <v>0.9990919358346636</v>
+        <v>1.798446329367261</v>
       </c>
       <c r="AJ8">
-        <v>1.798446329367261</v>
+        <v>146.6130696567517</v>
       </c>
       <c r="AK8">
-        <v>146.6130696567517</v>
+        <v>0.8064871925863384</v>
       </c>
       <c r="AL8">
-        <v>0.8064871925863383</v>
-      </c>
-      <c r="AM8">
         <v>1.078604825801148</v>
       </c>
+      <c r="AM8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
       <c r="AO8" t="s">
         <v>113</v>
       </c>
       <c r="AP8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -5841,83 +5838,89 @@
       <c r="L9">
         <v>1</v>
       </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
       <c r="P9">
-        <v>4</v>
+        <v>696</v>
       </c>
       <c r="Q9">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>679</v>
       </c>
       <c r="T9">
-        <v>679</v>
+        <v>13</v>
       </c>
       <c r="U9">
-        <v>13</v>
+        <v>0.25</v>
       </c>
       <c r="V9">
-        <v>0.25</v>
+        <v>0.98121387283237</v>
       </c>
       <c r="W9">
-        <v>0.98121387283237</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="X9">
-        <v>0.0714285714285714</v>
+        <v>0.995601173020528</v>
       </c>
       <c r="Y9">
-        <v>0.995601173020528</v>
+        <v>16.23809523809525</v>
       </c>
       <c r="Z9">
-        <v>16.23809523809525</v>
+        <v>0.9326741005680624</v>
       </c>
       <c r="AA9">
-        <v>0.9326741005680624</v>
+        <v>0.0063094632097098</v>
       </c>
       <c r="AB9">
-        <v>0.0063094632097098</v>
+        <v>0.8058795503167566</v>
       </c>
       <c r="AC9">
-        <v>0.8058795503167566</v>
+        <v>0.9680893875918908</v>
       </c>
       <c r="AD9">
-        <v>0.9680893875918908</v>
+        <v>0.9899602045728184</v>
       </c>
       <c r="AE9">
-        <v>0.9899602045728184</v>
+        <v>0.0018067806591276</v>
       </c>
       <c r="AF9">
-        <v>0.0018067806591276</v>
+        <v>0.3386844899318212</v>
       </c>
       <c r="AG9">
-        <v>0.3386844899318212</v>
+        <v>0.9871990153057834</v>
       </c>
       <c r="AH9">
-        <v>0.9871990153057834</v>
+        <v>0.9990919358346636</v>
       </c>
       <c r="AI9">
-        <v>0.9990919358346636</v>
+        <v>1.798446329367261</v>
       </c>
       <c r="AJ9">
-        <v>1.798446329367261</v>
+        <v>146.6130696567517</v>
       </c>
       <c r="AK9">
-        <v>146.6130696567517</v>
+        <v>0.8064871925863384</v>
       </c>
       <c r="AL9">
-        <v>0.8064871925863383</v>
-      </c>
-      <c r="AM9">
         <v>1.078604825801148</v>
       </c>
+      <c r="AM9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
       <c r="AO9" t="s">
         <v>113</v>
       </c>
       <c r="AP9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -5957,83 +5960,89 @@
       <c r="L10">
         <v>1</v>
       </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
       <c r="P10">
-        <v>4</v>
+        <v>696</v>
       </c>
       <c r="Q10">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>679</v>
       </c>
       <c r="T10">
-        <v>679</v>
+        <v>13</v>
       </c>
       <c r="U10">
-        <v>13</v>
+        <v>0.25</v>
       </c>
       <c r="V10">
-        <v>0.25</v>
+        <v>0.98121387283237</v>
       </c>
       <c r="W10">
-        <v>0.98121387283237</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="X10">
-        <v>0.0714285714285714</v>
+        <v>0.995601173020528</v>
       </c>
       <c r="Y10">
-        <v>0.995601173020528</v>
+        <v>16.23809523809525</v>
       </c>
       <c r="Z10">
-        <v>16.23809523809525</v>
+        <v>0.9326741005680624</v>
       </c>
       <c r="AA10">
-        <v>0.9326741005680624</v>
+        <v>0.0063094632097098</v>
       </c>
       <c r="AB10">
-        <v>0.0063094632097098</v>
+        <v>0.8058795503167566</v>
       </c>
       <c r="AC10">
-        <v>0.8058795503167566</v>
+        <v>0.9680893875918908</v>
       </c>
       <c r="AD10">
-        <v>0.9680893875918908</v>
+        <v>0.9899602045728184</v>
       </c>
       <c r="AE10">
-        <v>0.9899602045728184</v>
+        <v>0.0018067806591276</v>
       </c>
       <c r="AF10">
-        <v>0.0018067806591276</v>
+        <v>0.3386844899318212</v>
       </c>
       <c r="AG10">
-        <v>0.3386844899318212</v>
+        <v>0.9871990153057834</v>
       </c>
       <c r="AH10">
-        <v>0.9871990153057834</v>
+        <v>0.9990919358346636</v>
       </c>
       <c r="AI10">
-        <v>0.9990919358346636</v>
+        <v>1.798446329367261</v>
       </c>
       <c r="AJ10">
-        <v>1.798446329367261</v>
+        <v>146.6130696567517</v>
       </c>
       <c r="AK10">
-        <v>146.6130696567517</v>
+        <v>0.8064871925863384</v>
       </c>
       <c r="AL10">
-        <v>0.8064871925863383</v>
-      </c>
-      <c r="AM10">
         <v>1.078604825801148</v>
       </c>
+      <c r="AM10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
       <c r="AO10" t="s">
         <v>113</v>
       </c>
       <c r="AP10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -6073,83 +6082,89 @@
       <c r="L11">
         <v>1</v>
       </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
       <c r="P11">
-        <v>4</v>
+        <v>696</v>
       </c>
       <c r="Q11">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S11">
-        <v>3</v>
+        <v>679</v>
       </c>
       <c r="T11">
-        <v>679</v>
+        <v>13</v>
       </c>
       <c r="U11">
-        <v>13</v>
+        <v>0.25</v>
       </c>
       <c r="V11">
-        <v>0.25</v>
+        <v>0.98121387283237</v>
       </c>
       <c r="W11">
-        <v>0.98121387283237</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="X11">
-        <v>0.0714285714285714</v>
+        <v>0.995601173020528</v>
       </c>
       <c r="Y11">
-        <v>0.995601173020528</v>
+        <v>16.23809523809525</v>
       </c>
       <c r="Z11">
-        <v>16.23809523809525</v>
+        <v>0.9326741005680624</v>
       </c>
       <c r="AA11">
-        <v>0.9326741005680624</v>
+        <v>0.0063094632097098</v>
       </c>
       <c r="AB11">
-        <v>0.0063094632097098</v>
+        <v>0.8058795503167566</v>
       </c>
       <c r="AC11">
-        <v>0.8058795503167566</v>
+        <v>0.9680893875918908</v>
       </c>
       <c r="AD11">
-        <v>0.9680893875918908</v>
+        <v>0.9899602045728184</v>
       </c>
       <c r="AE11">
-        <v>0.9899602045728184</v>
+        <v>0.0018067806591276</v>
       </c>
       <c r="AF11">
-        <v>0.0018067806591276</v>
+        <v>0.3386844899318212</v>
       </c>
       <c r="AG11">
-        <v>0.3386844899318212</v>
+        <v>0.9871990153057834</v>
       </c>
       <c r="AH11">
-        <v>0.9871990153057834</v>
+        <v>0.9990919358346636</v>
       </c>
       <c r="AI11">
-        <v>0.9990919358346636</v>
+        <v>1.798446329367261</v>
       </c>
       <c r="AJ11">
-        <v>1.798446329367261</v>
+        <v>146.6130696567517</v>
       </c>
       <c r="AK11">
-        <v>146.6130696567517</v>
+        <v>0.8064871925863384</v>
       </c>
       <c r="AL11">
-        <v>0.8064871925863383</v>
-      </c>
-      <c r="AM11">
         <v>1.078604825801148</v>
       </c>
+      <c r="AM11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
       <c r="AO11" t="s">
         <v>113</v>
       </c>
       <c r="AP11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -6189,83 +6204,89 @@
       <c r="L12">
         <v>1</v>
       </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
       <c r="P12">
-        <v>4</v>
+        <v>696</v>
       </c>
       <c r="Q12">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>679</v>
       </c>
       <c r="T12">
-        <v>679</v>
+        <v>13</v>
       </c>
       <c r="U12">
-        <v>13</v>
+        <v>0.25</v>
       </c>
       <c r="V12">
-        <v>0.25</v>
+        <v>0.98121387283237</v>
       </c>
       <c r="W12">
-        <v>0.98121387283237</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="X12">
-        <v>0.0714285714285714</v>
+        <v>0.995601173020528</v>
       </c>
       <c r="Y12">
-        <v>0.995601173020528</v>
+        <v>16.23809523809525</v>
       </c>
       <c r="Z12">
-        <v>16.23809523809525</v>
+        <v>0.9326741005680624</v>
       </c>
       <c r="AA12">
-        <v>0.9326741005680624</v>
+        <v>0.0063094632097098</v>
       </c>
       <c r="AB12">
-        <v>0.0063094632097098</v>
+        <v>0.8058795503167566</v>
       </c>
       <c r="AC12">
-        <v>0.8058795503167566</v>
+        <v>0.9680893875918908</v>
       </c>
       <c r="AD12">
-        <v>0.9680893875918908</v>
+        <v>0.9899602045728184</v>
       </c>
       <c r="AE12">
-        <v>0.9899602045728184</v>
+        <v>0.0018067806591276</v>
       </c>
       <c r="AF12">
-        <v>0.0018067806591276</v>
+        <v>0.3386844899318212</v>
       </c>
       <c r="AG12">
-        <v>0.3386844899318212</v>
+        <v>0.9871990153057834</v>
       </c>
       <c r="AH12">
-        <v>0.9871990153057834</v>
+        <v>0.9990919358346636</v>
       </c>
       <c r="AI12">
-        <v>0.9990919358346636</v>
+        <v>1.798446329367261</v>
       </c>
       <c r="AJ12">
-        <v>1.798446329367261</v>
+        <v>146.6130696567517</v>
       </c>
       <c r="AK12">
-        <v>146.6130696567517</v>
+        <v>0.8064871925863384</v>
       </c>
       <c r="AL12">
-        <v>0.8064871925863383</v>
-      </c>
-      <c r="AM12">
         <v>1.078604825801148</v>
       </c>
+      <c r="AM12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
       <c r="AO12" t="s">
         <v>113</v>
       </c>
       <c r="AP12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -6305,80 +6326,86 @@
       <c r="L13">
         <v>1</v>
       </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
       <c r="P13">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q13">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T13">
-        <v>14</v>
+        <v>681</v>
       </c>
       <c r="U13">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>0.0201438848920863</v>
       </c>
       <c r="W13">
-        <v>0.0201438848920863</v>
+        <v>0.001466275659824</v>
       </c>
       <c r="X13">
-        <v>0.001466275659824</v>
-      </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-      <c r="Z13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="s">
         <v>169</v>
       </c>
+      <c r="Z13">
+        <v>0.998533724340176</v>
+      </c>
       <c r="AA13">
-        <v>0.998533724340176</v>
+        <v>0.025</v>
       </c>
       <c r="AB13">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0.0110555406807255</v>
       </c>
       <c r="AD13">
-        <v>0.0110555406807255</v>
+        <v>0.0335672394872023</v>
       </c>
       <c r="AE13">
-        <v>0.0335672394872023</v>
+        <v>3.712219656182343E-05</v>
       </c>
       <c r="AF13">
-        <v>3.712219656182343E-05</v>
+        <v>0.008142236144011</v>
       </c>
       <c r="AG13">
-        <v>0.008142236144011</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH13">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI13">
-        <v>1</v>
-      </c>
-      <c r="AK13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>169</v>
       </c>
+      <c r="AK13">
+        <v>0.9956661100984956</v>
+      </c>
       <c r="AL13">
-        <v>0.9956661100984956</v>
-      </c>
-      <c r="AM13">
         <v>1.001409597586914</v>
       </c>
+      <c r="AM13" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
       <c r="AO13" t="s">
         <v>113</v>
       </c>
       <c r="AP13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -6418,80 +6445,86 @@
       <c r="L14">
         <v>1</v>
       </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
       <c r="P14">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q14">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T14">
-        <v>14</v>
+        <v>681</v>
       </c>
       <c r="U14">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0.0201438848920863</v>
       </c>
       <c r="W14">
-        <v>0.0201438848920863</v>
+        <v>0.001466275659824</v>
       </c>
       <c r="X14">
-        <v>0.001466275659824</v>
-      </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-      <c r="Z14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="s">
         <v>169</v>
       </c>
+      <c r="Z14">
+        <v>0.998533724340176</v>
+      </c>
       <c r="AA14">
-        <v>0.998533724340176</v>
+        <v>0.025</v>
       </c>
       <c r="AB14">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>0.0110555406807255</v>
       </c>
       <c r="AD14">
-        <v>0.0110555406807255</v>
+        <v>0.0335672394872023</v>
       </c>
       <c r="AE14">
-        <v>0.0335672394872023</v>
+        <v>3.712219656182343E-05</v>
       </c>
       <c r="AF14">
-        <v>3.712219656182343E-05</v>
+        <v>0.008142236144011</v>
       </c>
       <c r="AG14">
-        <v>0.008142236144011</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH14">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI14">
-        <v>1</v>
-      </c>
-      <c r="AK14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>169</v>
       </c>
+      <c r="AK14">
+        <v>0.9956661100984956</v>
+      </c>
       <c r="AL14">
-        <v>0.9956661100984956</v>
-      </c>
-      <c r="AM14">
         <v>1.001409597586914</v>
       </c>
+      <c r="AM14" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
       <c r="AO14" t="s">
         <v>113</v>
       </c>
       <c r="AP14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -6499,7 +6532,7 @@
     </row>
     <row r="15" spans="1:43">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>159</v>
@@ -6508,7 +6541,7 @@
         <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15">
         <v>0.9818665838039508</v>
@@ -6531,80 +6564,86 @@
       <c r="L15">
         <v>1</v>
       </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
       <c r="P15">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q15">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T15">
-        <v>14</v>
+        <v>681</v>
       </c>
       <c r="U15">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0.0201438848920863</v>
       </c>
       <c r="W15">
-        <v>0.0201438848920863</v>
+        <v>0.001466275659824</v>
       </c>
       <c r="X15">
-        <v>0.001466275659824</v>
-      </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
-      <c r="Z15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="s">
         <v>169</v>
       </c>
+      <c r="Z15">
+        <v>0.998533724340176</v>
+      </c>
       <c r="AA15">
-        <v>0.998533724340176</v>
+        <v>0.025</v>
       </c>
       <c r="AB15">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0.0110555406807255</v>
       </c>
       <c r="AD15">
-        <v>0.0110555406807255</v>
+        <v>0.0335672394872023</v>
       </c>
       <c r="AE15">
-        <v>0.0335672394872023</v>
+        <v>3.712219656182343E-05</v>
       </c>
       <c r="AF15">
-        <v>3.712219656182343E-05</v>
+        <v>0.008142236144011</v>
       </c>
       <c r="AG15">
-        <v>0.008142236144011</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH15">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI15">
-        <v>1</v>
-      </c>
-      <c r="AK15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>169</v>
       </c>
+      <c r="AK15">
+        <v>0.9956661100984956</v>
+      </c>
       <c r="AL15">
-        <v>0.9956661100984956</v>
-      </c>
-      <c r="AM15">
         <v>1.001409597586914</v>
       </c>
+      <c r="AM15" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
       <c r="AO15" t="s">
         <v>113</v>
       </c>
       <c r="AP15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -6612,7 +6651,7 @@
     </row>
     <row r="16" spans="1:43">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>159</v>
@@ -6621,7 +6660,7 @@
         <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16">
         <v>0.9818665838039508</v>
@@ -6644,80 +6683,86 @@
       <c r="L16">
         <v>1</v>
       </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
       <c r="P16">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q16">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T16">
-        <v>14</v>
+        <v>681</v>
       </c>
       <c r="U16">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0.0201438848920863</v>
       </c>
       <c r="W16">
-        <v>0.0201438848920863</v>
+        <v>0.001466275659824</v>
       </c>
       <c r="X16">
-        <v>0.001466275659824</v>
-      </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-      <c r="Z16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="s">
         <v>169</v>
       </c>
+      <c r="Z16">
+        <v>0.998533724340176</v>
+      </c>
       <c r="AA16">
-        <v>0.998533724340176</v>
+        <v>0.025</v>
       </c>
       <c r="AB16">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>0.0110555406807255</v>
       </c>
       <c r="AD16">
-        <v>0.0110555406807255</v>
+        <v>0.0335672394872023</v>
       </c>
       <c r="AE16">
-        <v>0.0335672394872023</v>
+        <v>3.712219656182343E-05</v>
       </c>
       <c r="AF16">
-        <v>3.712219656182343E-05</v>
+        <v>0.008142236144011</v>
       </c>
       <c r="AG16">
-        <v>0.008142236144011</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH16">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI16">
-        <v>1</v>
-      </c>
-      <c r="AK16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>169</v>
       </c>
+      <c r="AK16">
+        <v>0.9956661100984956</v>
+      </c>
       <c r="AL16">
-        <v>0.9956661100984956</v>
-      </c>
-      <c r="AM16">
         <v>1.001409597586914</v>
       </c>
+      <c r="AM16" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
       <c r="AO16" t="s">
         <v>113</v>
       </c>
       <c r="AP16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ16">
         <v>0</v>
@@ -6757,80 +6802,86 @@
       <c r="L17">
         <v>1</v>
       </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
       <c r="P17">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q17">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T17">
-        <v>14</v>
+        <v>681</v>
       </c>
       <c r="U17">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0.0201438848920863</v>
       </c>
       <c r="W17">
-        <v>0.0201438848920863</v>
+        <v>0.001466275659824</v>
       </c>
       <c r="X17">
-        <v>0.001466275659824</v>
-      </c>
-      <c r="Y17">
-        <v>1</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="s">
         <v>169</v>
       </c>
+      <c r="Z17">
+        <v>0.998533724340176</v>
+      </c>
       <c r="AA17">
-        <v>0.998533724340176</v>
+        <v>0.025</v>
       </c>
       <c r="AB17">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>0.0110555406807255</v>
       </c>
       <c r="AD17">
-        <v>0.0110555406807255</v>
+        <v>0.0335672394872023</v>
       </c>
       <c r="AE17">
-        <v>0.0335672394872023</v>
+        <v>3.712219656182343E-05</v>
       </c>
       <c r="AF17">
-        <v>3.712219656182343E-05</v>
+        <v>0.008142236144011</v>
       </c>
       <c r="AG17">
-        <v>0.008142236144011</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH17">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI17">
-        <v>1</v>
-      </c>
-      <c r="AK17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>169</v>
       </c>
+      <c r="AK17">
+        <v>0.9956661100984956</v>
+      </c>
       <c r="AL17">
-        <v>0.9956661100984956</v>
-      </c>
-      <c r="AM17">
         <v>1.001409597586914</v>
       </c>
+      <c r="AM17" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
       <c r="AO17" t="s">
         <v>113</v>
       </c>
       <c r="AP17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -6870,80 +6921,86 @@
       <c r="L18">
         <v>1</v>
       </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
       <c r="P18">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q18">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T18">
-        <v>14</v>
+        <v>681</v>
       </c>
       <c r="U18">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0.0201438848920863</v>
       </c>
       <c r="W18">
-        <v>0.0201438848920863</v>
+        <v>0.001466275659824</v>
       </c>
       <c r="X18">
-        <v>0.001466275659824</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
-      <c r="Z18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="s">
         <v>169</v>
       </c>
+      <c r="Z18">
+        <v>0.998533724340176</v>
+      </c>
       <c r="AA18">
-        <v>0.998533724340176</v>
+        <v>0.025</v>
       </c>
       <c r="AB18">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>1</v>
+        <v>0.0110555406807255</v>
       </c>
       <c r="AD18">
-        <v>0.0110555406807255</v>
+        <v>0.0335672394872023</v>
       </c>
       <c r="AE18">
-        <v>0.0335672394872023</v>
+        <v>3.712219656182343E-05</v>
       </c>
       <c r="AF18">
-        <v>3.712219656182343E-05</v>
+        <v>0.008142236144011</v>
       </c>
       <c r="AG18">
-        <v>0.008142236144011</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH18">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI18">
-        <v>1</v>
-      </c>
-      <c r="AK18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>169</v>
       </c>
+      <c r="AK18">
+        <v>0.9956661100984956</v>
+      </c>
       <c r="AL18">
-        <v>0.9956661100984956</v>
-      </c>
-      <c r="AM18">
         <v>1.001409597586914</v>
       </c>
+      <c r="AM18" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
       <c r="AO18" t="s">
         <v>113</v>
       </c>
       <c r="AP18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -6983,80 +7040,86 @@
       <c r="L19">
         <v>1</v>
       </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
       <c r="P19">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q19">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T19">
-        <v>14</v>
+        <v>681</v>
       </c>
       <c r="U19">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0.0201438848920863</v>
       </c>
       <c r="W19">
-        <v>0.0201438848920863</v>
+        <v>0.001466275659824</v>
       </c>
       <c r="X19">
-        <v>0.001466275659824</v>
-      </c>
-      <c r="Y19">
-        <v>1</v>
-      </c>
-      <c r="Z19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="s">
         <v>169</v>
       </c>
+      <c r="Z19">
+        <v>0.998533724340176</v>
+      </c>
       <c r="AA19">
-        <v>0.998533724340176</v>
+        <v>0.025</v>
       </c>
       <c r="AB19">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>0.0110555406807255</v>
       </c>
       <c r="AD19">
-        <v>0.0110555406807255</v>
+        <v>0.0335672394872023</v>
       </c>
       <c r="AE19">
-        <v>0.0335672394872023</v>
+        <v>3.712219656182343E-05</v>
       </c>
       <c r="AF19">
-        <v>3.712219656182343E-05</v>
+        <v>0.008142236144011</v>
       </c>
       <c r="AG19">
-        <v>0.008142236144011</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH19">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI19">
-        <v>1</v>
-      </c>
-      <c r="AK19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>169</v>
       </c>
+      <c r="AK19">
+        <v>0.9956661100984956</v>
+      </c>
       <c r="AL19">
-        <v>0.9956661100984956</v>
-      </c>
-      <c r="AM19">
         <v>1.001409597586914</v>
       </c>
+      <c r="AM19" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
       <c r="AO19" t="s">
         <v>113</v>
       </c>
       <c r="AP19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -7096,80 +7159,86 @@
       <c r="L20">
         <v>1</v>
       </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
       <c r="P20">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q20">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T20">
-        <v>14</v>
+        <v>681</v>
       </c>
       <c r="U20">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>0.0201438848920863</v>
       </c>
       <c r="W20">
-        <v>0.0201438848920863</v>
+        <v>0.001466275659824</v>
       </c>
       <c r="X20">
-        <v>0.001466275659824</v>
-      </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
-      <c r="Z20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="s">
         <v>169</v>
       </c>
+      <c r="Z20">
+        <v>0.998533724340176</v>
+      </c>
       <c r="AA20">
-        <v>0.998533724340176</v>
+        <v>0.025</v>
       </c>
       <c r="AB20">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>0.0110555406807255</v>
       </c>
       <c r="AD20">
-        <v>0.0110555406807255</v>
+        <v>0.0335672394872023</v>
       </c>
       <c r="AE20">
-        <v>0.0335672394872023</v>
+        <v>3.712219656182343E-05</v>
       </c>
       <c r="AF20">
-        <v>3.712219656182343E-05</v>
+        <v>0.008142236144011</v>
       </c>
       <c r="AG20">
-        <v>0.008142236144011</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH20">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI20">
-        <v>1</v>
-      </c>
-      <c r="AK20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>169</v>
       </c>
+      <c r="AK20">
+        <v>0.9956661100984956</v>
+      </c>
       <c r="AL20">
-        <v>0.9956661100984956</v>
-      </c>
-      <c r="AM20">
         <v>1.001409597586914</v>
       </c>
+      <c r="AM20" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
       <c r="AO20" t="s">
         <v>113</v>
       </c>
       <c r="AP20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ20">
         <v>0</v>
@@ -7209,80 +7278,86 @@
       <c r="L21">
         <v>1</v>
       </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
       <c r="P21">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q21">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T21">
-        <v>14</v>
+        <v>681</v>
       </c>
       <c r="U21">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0.0201438848920863</v>
       </c>
       <c r="W21">
-        <v>0.0201438848920863</v>
+        <v>0.001466275659824</v>
       </c>
       <c r="X21">
-        <v>0.001466275659824</v>
-      </c>
-      <c r="Y21">
-        <v>1</v>
-      </c>
-      <c r="Z21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="s">
         <v>169</v>
       </c>
+      <c r="Z21">
+        <v>0.998533724340176</v>
+      </c>
       <c r="AA21">
-        <v>0.998533724340176</v>
+        <v>0.025</v>
       </c>
       <c r="AB21">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>1</v>
+        <v>0.0110555406807255</v>
       </c>
       <c r="AD21">
-        <v>0.0110555406807255</v>
+        <v>0.0335672394872023</v>
       </c>
       <c r="AE21">
-        <v>0.0335672394872023</v>
+        <v>3.712219656182343E-05</v>
       </c>
       <c r="AF21">
-        <v>3.712219656182343E-05</v>
+        <v>0.008142236144011</v>
       </c>
       <c r="AG21">
-        <v>0.008142236144011</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH21">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI21">
-        <v>1</v>
-      </c>
-      <c r="AK21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>169</v>
       </c>
+      <c r="AK21">
+        <v>0.9956661100984956</v>
+      </c>
       <c r="AL21">
-        <v>0.9956661100984956</v>
-      </c>
-      <c r="AM21">
         <v>1.001409597586914</v>
       </c>
+      <c r="AM21" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
       <c r="AO21" t="s">
         <v>113</v>
       </c>
       <c r="AP21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -7322,80 +7397,86 @@
       <c r="L22">
         <v>1</v>
       </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
       <c r="P22">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q22">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T22">
-        <v>14</v>
+        <v>681</v>
       </c>
       <c r="U22">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>0.0201438848920863</v>
       </c>
       <c r="W22">
-        <v>0.0201438848920863</v>
+        <v>0.001466275659824</v>
       </c>
       <c r="X22">
-        <v>0.001466275659824</v>
-      </c>
-      <c r="Y22">
-        <v>1</v>
-      </c>
-      <c r="Z22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="s">
         <v>169</v>
       </c>
+      <c r="Z22">
+        <v>0.998533724340176</v>
+      </c>
       <c r="AA22">
-        <v>0.998533724340176</v>
+        <v>0.025</v>
       </c>
       <c r="AB22">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>1</v>
+        <v>0.0110555406807255</v>
       </c>
       <c r="AD22">
-        <v>0.0110555406807255</v>
+        <v>0.0335672394872023</v>
       </c>
       <c r="AE22">
-        <v>0.0335672394872023</v>
+        <v>3.712219656182343E-05</v>
       </c>
       <c r="AF22">
-        <v>3.712219656182343E-05</v>
+        <v>0.008142236144011</v>
       </c>
       <c r="AG22">
-        <v>0.008142236144011</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH22">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI22">
-        <v>1</v>
-      </c>
-      <c r="AK22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>169</v>
       </c>
+      <c r="AK22">
+        <v>0.9956661100984956</v>
+      </c>
       <c r="AL22">
-        <v>0.9956661100984956</v>
-      </c>
-      <c r="AM22">
         <v>1.001409597586914</v>
       </c>
+      <c r="AM22" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
       <c r="AO22" t="s">
         <v>113</v>
       </c>
       <c r="AP22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -7435,80 +7516,86 @@
       <c r="L23">
         <v>1</v>
       </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
       <c r="P23">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q23">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T23">
-        <v>14</v>
+        <v>681</v>
       </c>
       <c r="U23">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>0.0201438848920863</v>
       </c>
       <c r="W23">
-        <v>0.0201438848920863</v>
+        <v>0.001466275659824</v>
       </c>
       <c r="X23">
-        <v>0.001466275659824</v>
-      </c>
-      <c r="Y23">
-        <v>1</v>
-      </c>
-      <c r="Z23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="s">
         <v>169</v>
       </c>
+      <c r="Z23">
+        <v>0.998533724340176</v>
+      </c>
       <c r="AA23">
-        <v>0.998533724340176</v>
+        <v>0.025</v>
       </c>
       <c r="AB23">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>0.0110555406807255</v>
       </c>
       <c r="AD23">
-        <v>0.0110555406807255</v>
+        <v>0.0335672394872023</v>
       </c>
       <c r="AE23">
-        <v>0.0335672394872023</v>
+        <v>3.712219656182343E-05</v>
       </c>
       <c r="AF23">
-        <v>3.712219656182343E-05</v>
+        <v>0.008142236144011</v>
       </c>
       <c r="AG23">
-        <v>0.008142236144011</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH23">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI23">
-        <v>1</v>
-      </c>
-      <c r="AK23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>169</v>
       </c>
+      <c r="AK23">
+        <v>0.9956661100984956</v>
+      </c>
       <c r="AL23">
-        <v>0.9956661100984956</v>
-      </c>
-      <c r="AM23">
         <v>1.001409597586914</v>
       </c>
+      <c r="AM23" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
       <c r="AO23" t="s">
         <v>113</v>
       </c>
       <c r="AP23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -7548,80 +7635,86 @@
       <c r="L24">
         <v>1</v>
       </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
       <c r="P24">
+        <v>696</v>
+      </c>
+      <c r="Q24">
         <v>2</v>
       </c>
-      <c r="Q24">
-        <v>696</v>
-      </c>
       <c r="R24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T24">
-        <v>14</v>
+        <v>680</v>
       </c>
       <c r="U24">
-        <v>680</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0.0201729106628242</v>
       </c>
       <c r="W24">
-        <v>0.0201729106628242</v>
+        <v>0.002932551319648</v>
       </c>
       <c r="X24">
-        <v>0.002932551319648</v>
-      </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
-      <c r="Z24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="s">
         <v>169</v>
       </c>
+      <c r="Z24">
+        <v>0.997067448680352</v>
+      </c>
       <c r="AA24">
-        <v>0.997067448680352</v>
+        <v>0.158113883008393</v>
       </c>
       <c r="AB24">
-        <v>0.158113883008393</v>
+        <v>1</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>0.0110715329473884</v>
       </c>
       <c r="AD24">
-        <v>0.0110715329473884</v>
+        <v>0.0336152741989476</v>
       </c>
       <c r="AE24">
-        <v>0.0336152741989476</v>
+        <v>0.0003553430854548</v>
       </c>
       <c r="AF24">
-        <v>0.0003553430854548</v>
+        <v>0.0105528841606226</v>
       </c>
       <c r="AG24">
-        <v>0.0105528841606226</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH24">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI24">
-        <v>1</v>
-      </c>
-      <c r="AK24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ24" t="s">
         <v>169</v>
       </c>
+      <c r="AK24">
+        <v>0.9930174260597496</v>
+      </c>
       <c r="AL24">
-        <v>0.9930174260597494</v>
-      </c>
-      <c r="AM24">
         <v>1.001133989322489</v>
       </c>
+      <c r="AM24" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
       <c r="AO24" t="s">
         <v>113</v>
       </c>
       <c r="AP24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ24">
         <v>0</v>
@@ -7661,80 +7754,86 @@
       <c r="L25">
         <v>1</v>
       </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
       <c r="P25">
+        <v>696</v>
+      </c>
+      <c r="Q25">
         <v>2</v>
       </c>
-      <c r="Q25">
-        <v>696</v>
-      </c>
       <c r="R25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T25">
-        <v>14</v>
+        <v>680</v>
       </c>
       <c r="U25">
-        <v>680</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>0.0201729106628242</v>
       </c>
       <c r="W25">
-        <v>0.0201729106628242</v>
+        <v>0.002932551319648</v>
       </c>
       <c r="X25">
-        <v>0.002932551319648</v>
-      </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
-      <c r="Z25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="s">
         <v>169</v>
       </c>
+      <c r="Z25">
+        <v>0.997067448680352</v>
+      </c>
       <c r="AA25">
-        <v>0.997067448680352</v>
+        <v>0.158113883008393</v>
       </c>
       <c r="AB25">
-        <v>0.158113883008393</v>
+        <v>1</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0.0110715329473884</v>
       </c>
       <c r="AD25">
-        <v>0.0110715329473884</v>
+        <v>0.0336152741989476</v>
       </c>
       <c r="AE25">
-        <v>0.0336152741989476</v>
+        <v>0.0003553430854548</v>
       </c>
       <c r="AF25">
-        <v>0.0003553430854548</v>
+        <v>0.0105528841606226</v>
       </c>
       <c r="AG25">
-        <v>0.0105528841606226</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH25">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI25">
-        <v>1</v>
-      </c>
-      <c r="AK25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>169</v>
       </c>
+      <c r="AK25">
+        <v>0.9930174260597496</v>
+      </c>
       <c r="AL25">
-        <v>0.9930174260597494</v>
-      </c>
-      <c r="AM25">
         <v>1.001133989322489</v>
       </c>
+      <c r="AM25" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
       <c r="AO25" t="s">
         <v>113</v>
       </c>
       <c r="AP25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ25">
         <v>0</v>
@@ -7774,80 +7873,86 @@
       <c r="L26">
         <v>1</v>
       </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
       <c r="P26">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q26">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T26">
-        <v>14</v>
+        <v>681</v>
       </c>
       <c r="U26">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>0.0201438848920863</v>
       </c>
       <c r="W26">
-        <v>0.0201438848920863</v>
+        <v>0.001466275659824</v>
       </c>
       <c r="X26">
-        <v>0.001466275659824</v>
-      </c>
-      <c r="Y26">
-        <v>1</v>
-      </c>
-      <c r="Z26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="s">
         <v>169</v>
       </c>
+      <c r="Z26">
+        <v>0.998533724340176</v>
+      </c>
       <c r="AA26">
-        <v>0.998533724340176</v>
+        <v>0.025</v>
       </c>
       <c r="AB26">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>0.0110555406807255</v>
       </c>
       <c r="AD26">
-        <v>0.0110555406807255</v>
+        <v>0.0335672394872023</v>
       </c>
       <c r="AE26">
-        <v>0.0335672394872023</v>
+        <v>3.712219656182343E-05</v>
       </c>
       <c r="AF26">
-        <v>3.712219656182343E-05</v>
+        <v>0.008142236144011</v>
       </c>
       <c r="AG26">
-        <v>0.008142236144011</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH26">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI26">
-        <v>1</v>
-      </c>
-      <c r="AK26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ26" t="s">
         <v>169</v>
       </c>
+      <c r="AK26">
+        <v>0.9956661100984956</v>
+      </c>
       <c r="AL26">
-        <v>0.9956661100984956</v>
-      </c>
-      <c r="AM26">
         <v>1.001409597586914</v>
       </c>
+      <c r="AM26" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
       <c r="AO26" t="s">
         <v>113</v>
       </c>
       <c r="AP26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ26">
         <v>0</v>
@@ -7887,80 +7992,86 @@
       <c r="L27">
         <v>1</v>
       </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
       <c r="P27">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q27">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T27">
-        <v>14</v>
+        <v>681</v>
       </c>
       <c r="U27">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>0.0201438848920863</v>
       </c>
       <c r="W27">
-        <v>0.0201438848920863</v>
+        <v>0.001466275659824</v>
       </c>
       <c r="X27">
-        <v>0.001466275659824</v>
-      </c>
-      <c r="Y27">
-        <v>1</v>
-      </c>
-      <c r="Z27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y27" t="s">
         <v>169</v>
       </c>
+      <c r="Z27">
+        <v>0.998533724340176</v>
+      </c>
       <c r="AA27">
-        <v>0.998533724340176</v>
+        <v>0.025</v>
       </c>
       <c r="AB27">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>0.0110555406807255</v>
       </c>
       <c r="AD27">
-        <v>0.0110555406807255</v>
+        <v>0.0335672394872023</v>
       </c>
       <c r="AE27">
-        <v>0.0335672394872023</v>
+        <v>3.712219656182343E-05</v>
       </c>
       <c r="AF27">
-        <v>3.712219656182343E-05</v>
+        <v>0.008142236144011</v>
       </c>
       <c r="AG27">
-        <v>0.008142236144011</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH27">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI27">
-        <v>1</v>
-      </c>
-      <c r="AK27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ27" t="s">
         <v>169</v>
       </c>
+      <c r="AK27">
+        <v>0.9956661100984956</v>
+      </c>
       <c r="AL27">
-        <v>0.9956661100984956</v>
-      </c>
-      <c r="AM27">
         <v>1.001409597586914</v>
       </c>
+      <c r="AM27" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
       <c r="AO27" t="s">
         <v>113</v>
       </c>
       <c r="AP27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -8000,83 +8111,89 @@
       <c r="L28">
         <v>1</v>
       </c>
+      <c r="O28">
+        <v>12</v>
+      </c>
       <c r="P28">
-        <v>12</v>
+        <v>696</v>
       </c>
       <c r="Q28">
-        <v>696</v>
+        <v>11</v>
       </c>
       <c r="R28">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="T28">
-        <v>13</v>
+        <v>671</v>
       </c>
       <c r="U28">
-        <v>671</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="V28">
-        <v>0.9166666666666666</v>
+        <v>0.0190058479532163</v>
       </c>
       <c r="W28">
-        <v>0.0190058479532163</v>
+        <v>0.0161290322580645</v>
       </c>
       <c r="X28">
-        <v>0.0161290322580645</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="Y28">
-        <v>0.9285714285714286</v>
+        <v>0.2258064516129033</v>
       </c>
       <c r="Z28">
-        <v>0.2258064516129033</v>
+        <v>1.05955334987593</v>
       </c>
       <c r="AA28">
-        <v>1.05955334987593</v>
+        <v>0.6152038348490562</v>
       </c>
       <c r="AB28">
-        <v>0.6152038348490562</v>
+        <v>0.9978924067681384</v>
       </c>
       <c r="AC28">
-        <v>0.9978924067681384</v>
+        <v>0.0101576607310812</v>
       </c>
       <c r="AD28">
-        <v>0.0101576607310812</v>
+        <v>0.0322813010718977</v>
       </c>
       <c r="AE28">
-        <v>0.0322813010718977</v>
+        <v>0.008078342116644601</v>
       </c>
       <c r="AF28">
-        <v>0.008078342116644601</v>
+        <v>0.0286756940357265</v>
       </c>
       <c r="AG28">
-        <v>0.0286756940357265</v>
+        <v>0.6613155100681788</v>
       </c>
       <c r="AH28">
-        <v>0.6613155100681788</v>
+        <v>0.9981932193408724</v>
       </c>
       <c r="AI28">
-        <v>0.9981932193408724</v>
+        <v>0.0312537509863036</v>
       </c>
       <c r="AJ28">
-        <v>0.0312537509863036</v>
+        <v>1.631437890842453</v>
       </c>
       <c r="AK28">
-        <v>1.631437890842453</v>
+        <v>0.9159878415079248</v>
       </c>
       <c r="AL28">
-        <v>0.9159878415079248</v>
-      </c>
-      <c r="AM28">
         <v>1.225620308873492</v>
       </c>
+      <c r="AM28" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
       <c r="AO28" t="s">
         <v>113</v>
       </c>
       <c r="AP28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -8116,80 +8233,86 @@
       <c r="L29">
         <v>1</v>
       </c>
+      <c r="O29">
+        <v>4</v>
+      </c>
       <c r="P29">
+        <v>696</v>
+      </c>
+      <c r="Q29">
         <v>4</v>
       </c>
-      <c r="Q29">
-        <v>696</v>
-      </c>
       <c r="R29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T29">
-        <v>14</v>
+        <v>678</v>
       </c>
       <c r="U29">
-        <v>678</v>
+        <v>1</v>
       </c>
       <c r="V29">
-        <v>1</v>
+        <v>0.0202312138728323</v>
       </c>
       <c r="W29">
-        <v>0.0202312138728323</v>
+        <v>0.0058651026392961</v>
       </c>
       <c r="X29">
-        <v>0.0058651026392961</v>
-      </c>
-      <c r="Y29">
-        <v>1</v>
-      </c>
-      <c r="Z29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y29" t="s">
         <v>169</v>
       </c>
+      <c r="Z29">
+        <v>0.9941348973607038</v>
+      </c>
       <c r="AA29">
-        <v>0.9941348973607038</v>
+        <v>0.3976353643835142</v>
       </c>
       <c r="AB29">
-        <v>0.3976353643835142</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>0.0111036566862451</v>
       </c>
       <c r="AD29">
-        <v>0.0111036566862451</v>
+        <v>0.0337117572115804</v>
       </c>
       <c r="AE29">
-        <v>0.0337117572115804</v>
+        <v>0.0016002863815347</v>
       </c>
       <c r="AF29">
-        <v>0.0016002863815347</v>
+        <v>0.0149483946724391</v>
       </c>
       <c r="AG29">
-        <v>0.0149483946724391</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH29">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI29">
-        <v>1</v>
-      </c>
-      <c r="AK29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ29" t="s">
         <v>169</v>
       </c>
+      <c r="AK29">
+        <v>0.9884205688936668</v>
+      </c>
       <c r="AL29">
-        <v>0.9884205688936668</v>
-      </c>
-      <c r="AM29">
         <v>0.9998822619166861</v>
       </c>
+      <c r="AM29" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
       <c r="AO29" t="s">
         <v>113</v>
       </c>
       <c r="AP29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ29">
         <v>0</v>
@@ -8229,80 +8352,86 @@
       <c r="L30">
         <v>1</v>
       </c>
+      <c r="O30">
+        <v>4</v>
+      </c>
       <c r="P30">
+        <v>696</v>
+      </c>
+      <c r="Q30">
         <v>4</v>
       </c>
-      <c r="Q30">
-        <v>696</v>
-      </c>
       <c r="R30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T30">
-        <v>14</v>
+        <v>678</v>
       </c>
       <c r="U30">
-        <v>678</v>
+        <v>1</v>
       </c>
       <c r="V30">
-        <v>1</v>
+        <v>0.0202312138728323</v>
       </c>
       <c r="W30">
-        <v>0.0202312138728323</v>
+        <v>0.0058651026392961</v>
       </c>
       <c r="X30">
-        <v>0.0058651026392961</v>
-      </c>
-      <c r="Y30">
-        <v>1</v>
-      </c>
-      <c r="Z30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y30" t="s">
         <v>169</v>
       </c>
+      <c r="Z30">
+        <v>0.9941348973607038</v>
+      </c>
       <c r="AA30">
-        <v>0.9941348973607038</v>
+        <v>0.3976353643835142</v>
       </c>
       <c r="AB30">
-        <v>0.3976353643835142</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>0.0111036566862451</v>
       </c>
       <c r="AD30">
-        <v>0.0111036566862451</v>
+        <v>0.0337117572115804</v>
       </c>
       <c r="AE30">
-        <v>0.0337117572115804</v>
+        <v>0.0016002863815347</v>
       </c>
       <c r="AF30">
-        <v>0.0016002863815347</v>
+        <v>0.0149483946724391</v>
       </c>
       <c r="AG30">
-        <v>0.0149483946724391</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH30">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI30">
-        <v>1</v>
-      </c>
-      <c r="AK30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ30" t="s">
         <v>169</v>
       </c>
+      <c r="AK30">
+        <v>0.9884205688936668</v>
+      </c>
       <c r="AL30">
-        <v>0.9884205688936668</v>
-      </c>
-      <c r="AM30">
         <v>0.9998822619166861</v>
       </c>
+      <c r="AM30" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
       <c r="AO30" t="s">
         <v>113</v>
       </c>
       <c r="AP30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -8342,80 +8471,86 @@
       <c r="L31">
         <v>1</v>
       </c>
+      <c r="O31">
+        <v>5</v>
+      </c>
       <c r="P31">
+        <v>696</v>
+      </c>
+      <c r="Q31">
         <v>5</v>
       </c>
-      <c r="Q31">
-        <v>696</v>
-      </c>
       <c r="R31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T31">
-        <v>14</v>
+        <v>677</v>
       </c>
       <c r="U31">
-        <v>677</v>
+        <v>1</v>
       </c>
       <c r="V31">
-        <v>1</v>
+        <v>0.0202604920405209</v>
       </c>
       <c r="W31">
-        <v>0.0202604920405209</v>
+        <v>0.0073313782991202</v>
       </c>
       <c r="X31">
-        <v>0.0073313782991202</v>
-      </c>
-      <c r="Y31">
-        <v>1</v>
-      </c>
-      <c r="Z31" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="s">
         <v>169</v>
       </c>
+      <c r="Z31">
+        <v>0.9926686217008798</v>
+      </c>
       <c r="AA31">
-        <v>0.9926686217008798</v>
+        <v>0.4781762498950185</v>
       </c>
       <c r="AB31">
-        <v>0.4781762498950185</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>0.0111197885629399</v>
       </c>
       <c r="AD31">
-        <v>0.0111197885629399</v>
+        <v>0.0337602067011441</v>
       </c>
       <c r="AE31">
-        <v>0.0337602067011441</v>
+        <v>0.002384638766605</v>
       </c>
       <c r="AF31">
-        <v>0.002384638766605</v>
+        <v>0.0170254830784847</v>
       </c>
       <c r="AG31">
-        <v>0.0170254830784847</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH31">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI31">
-        <v>1</v>
-      </c>
-      <c r="AK31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ31" t="s">
         <v>169</v>
       </c>
+      <c r="AK31">
+        <v>0.986286706033335</v>
+      </c>
       <c r="AL31">
-        <v>0.986286706033335</v>
-      </c>
-      <c r="AM31">
         <v>0.9990918325084062</v>
       </c>
+      <c r="AM31" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
       <c r="AO31" t="s">
         <v>113</v>
       </c>
       <c r="AP31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ31">
         <v>0</v>
@@ -8455,80 +8590,86 @@
       <c r="L32">
         <v>1</v>
       </c>
+      <c r="O32">
+        <v>9</v>
+      </c>
       <c r="P32">
+        <v>696</v>
+      </c>
+      <c r="Q32">
         <v>9</v>
       </c>
-      <c r="Q32">
-        <v>696</v>
-      </c>
       <c r="R32">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T32">
-        <v>14</v>
+        <v>673</v>
       </c>
       <c r="U32">
-        <v>673</v>
+        <v>1</v>
       </c>
       <c r="V32">
-        <v>1</v>
+        <v>0.0203784570596797</v>
       </c>
       <c r="W32">
-        <v>0.0203784570596797</v>
+        <v>0.0131964809384164</v>
       </c>
       <c r="X32">
-        <v>0.0131964809384164</v>
-      </c>
-      <c r="Y32">
-        <v>1</v>
-      </c>
-      <c r="Z32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="s">
         <v>169</v>
       </c>
+      <c r="Z32">
+        <v>0.9868035190615836</v>
+      </c>
       <c r="AA32">
-        <v>0.9868035190615836</v>
+        <v>0.6637328831200571</v>
       </c>
       <c r="AB32">
-        <v>0.6637328831200571</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>1</v>
+        <v>0.0111847875581726</v>
       </c>
       <c r="AD32">
-        <v>0.0111847875581726</v>
+        <v>0.0339554052425916</v>
       </c>
       <c r="AE32">
-        <v>0.0339554052425916</v>
+        <v>0.0060515491227743</v>
       </c>
       <c r="AF32">
-        <v>0.0060515491227743</v>
+        <v>0.0249026830398206</v>
       </c>
       <c r="AG32">
-        <v>0.0249026830398206</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH32">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI32">
-        <v>1</v>
-      </c>
-      <c r="AK32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ32" t="s">
         <v>169</v>
       </c>
+      <c r="AK32">
+        <v>0.9782761107539188</v>
+      </c>
       <c r="AL32">
-        <v>0.9782761107539188</v>
-      </c>
-      <c r="AM32">
         <v>0.9954052588301174</v>
       </c>
+      <c r="AM32" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
       <c r="AO32" t="s">
         <v>113</v>
       </c>
       <c r="AP32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ32">
         <v>0</v>
@@ -8568,80 +8709,86 @@
       <c r="L33">
         <v>1</v>
       </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
       <c r="P33">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q33">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T33">
-        <v>14</v>
+        <v>681</v>
       </c>
       <c r="U33">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="V33">
-        <v>1</v>
+        <v>0.0201438848920863</v>
       </c>
       <c r="W33">
-        <v>0.0201438848920863</v>
+        <v>0.001466275659824</v>
       </c>
       <c r="X33">
-        <v>0.001466275659824</v>
-      </c>
-      <c r="Y33">
-        <v>1</v>
-      </c>
-      <c r="Z33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y33" t="s">
         <v>169</v>
       </c>
+      <c r="Z33">
+        <v>0.998533724340176</v>
+      </c>
       <c r="AA33">
-        <v>0.998533724340176</v>
+        <v>0.025</v>
       </c>
       <c r="AB33">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>0.0110555406807255</v>
       </c>
       <c r="AD33">
-        <v>0.0110555406807255</v>
+        <v>0.0335672394872023</v>
       </c>
       <c r="AE33">
-        <v>0.0335672394872023</v>
+        <v>3.712219656182343E-05</v>
       </c>
       <c r="AF33">
-        <v>3.712219656182343E-05</v>
+        <v>0.008142236144011</v>
       </c>
       <c r="AG33">
-        <v>0.008142236144011</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH33">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI33">
-        <v>1</v>
-      </c>
-      <c r="AK33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ33" t="s">
         <v>169</v>
       </c>
+      <c r="AK33">
+        <v>0.9956661100984956</v>
+      </c>
       <c r="AL33">
-        <v>0.9956661100984956</v>
-      </c>
-      <c r="AM33">
         <v>1.001409597586914</v>
       </c>
+      <c r="AM33" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
       <c r="AO33" t="s">
         <v>113</v>
       </c>
       <c r="AP33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ33">
         <v>0</v>
@@ -8681,80 +8828,86 @@
       <c r="L34">
         <v>1</v>
       </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
       <c r="P34">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q34">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T34">
-        <v>14</v>
+        <v>681</v>
       </c>
       <c r="U34">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="V34">
-        <v>1</v>
+        <v>0.0201438848920863</v>
       </c>
       <c r="W34">
-        <v>0.0201438848920863</v>
+        <v>0.001466275659824</v>
       </c>
       <c r="X34">
-        <v>0.001466275659824</v>
-      </c>
-      <c r="Y34">
-        <v>1</v>
-      </c>
-      <c r="Z34" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y34" t="s">
         <v>169</v>
       </c>
+      <c r="Z34">
+        <v>0.998533724340176</v>
+      </c>
       <c r="AA34">
-        <v>0.998533724340176</v>
+        <v>0.025</v>
       </c>
       <c r="AB34">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC34">
-        <v>1</v>
+        <v>0.0110555406807255</v>
       </c>
       <c r="AD34">
-        <v>0.0110555406807255</v>
+        <v>0.0335672394872023</v>
       </c>
       <c r="AE34">
-        <v>0.0335672394872023</v>
+        <v>3.712219656182343E-05</v>
       </c>
       <c r="AF34">
-        <v>3.712219656182343E-05</v>
+        <v>0.008142236144011</v>
       </c>
       <c r="AG34">
-        <v>0.008142236144011</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH34">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI34">
-        <v>1</v>
-      </c>
-      <c r="AK34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ34" t="s">
         <v>169</v>
       </c>
+      <c r="AK34">
+        <v>0.9956661100984956</v>
+      </c>
       <c r="AL34">
-        <v>0.9956661100984956</v>
-      </c>
-      <c r="AM34">
         <v>1.001409597586914</v>
       </c>
+      <c r="AM34" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
       <c r="AO34" t="s">
         <v>113</v>
       </c>
       <c r="AP34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -8794,80 +8947,86 @@
       <c r="L35">
         <v>1</v>
       </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
       <c r="P35">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q35">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T35">
-        <v>14</v>
+        <v>681</v>
       </c>
       <c r="U35">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="V35">
-        <v>1</v>
+        <v>0.0201438848920863</v>
       </c>
       <c r="W35">
-        <v>0.0201438848920863</v>
+        <v>0.001466275659824</v>
       </c>
       <c r="X35">
-        <v>0.001466275659824</v>
-      </c>
-      <c r="Y35">
-        <v>1</v>
-      </c>
-      <c r="Z35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y35" t="s">
         <v>169</v>
       </c>
+      <c r="Z35">
+        <v>0.998533724340176</v>
+      </c>
       <c r="AA35">
-        <v>0.998533724340176</v>
+        <v>0.025</v>
       </c>
       <c r="AB35">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>0.0110555406807255</v>
       </c>
       <c r="AD35">
-        <v>0.0110555406807255</v>
+        <v>0.0335672394872023</v>
       </c>
       <c r="AE35">
-        <v>0.0335672394872023</v>
+        <v>3.712219656182343E-05</v>
       </c>
       <c r="AF35">
-        <v>3.712219656182343E-05</v>
+        <v>0.008142236144011</v>
       </c>
       <c r="AG35">
-        <v>0.008142236144011</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH35">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI35">
-        <v>1</v>
-      </c>
-      <c r="AK35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ35" t="s">
         <v>169</v>
       </c>
+      <c r="AK35">
+        <v>0.9956661100984956</v>
+      </c>
       <c r="AL35">
-        <v>0.9956661100984956</v>
-      </c>
-      <c r="AM35">
         <v>1.001409597586914</v>
       </c>
+      <c r="AM35" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
       <c r="AO35" t="s">
         <v>113</v>
       </c>
       <c r="AP35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ35">
         <v>0</v>
@@ -8907,80 +9066,86 @@
       <c r="L36">
         <v>1</v>
       </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
       <c r="P36">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q36">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T36">
-        <v>14</v>
+        <v>681</v>
       </c>
       <c r="U36">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="V36">
-        <v>1</v>
+        <v>0.0201438848920863</v>
       </c>
       <c r="W36">
-        <v>0.0201438848920863</v>
+        <v>0.001466275659824</v>
       </c>
       <c r="X36">
-        <v>0.001466275659824</v>
-      </c>
-      <c r="Y36">
-        <v>1</v>
-      </c>
-      <c r="Z36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y36" t="s">
         <v>169</v>
       </c>
+      <c r="Z36">
+        <v>0.998533724340176</v>
+      </c>
       <c r="AA36">
-        <v>0.998533724340176</v>
+        <v>0.025</v>
       </c>
       <c r="AB36">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC36">
-        <v>1</v>
+        <v>0.0110555406807255</v>
       </c>
       <c r="AD36">
-        <v>0.0110555406807255</v>
+        <v>0.0335672394872023</v>
       </c>
       <c r="AE36">
-        <v>0.0335672394872023</v>
+        <v>3.712219656182343E-05</v>
       </c>
       <c r="AF36">
-        <v>3.712219656182343E-05</v>
+        <v>0.008142236144011</v>
       </c>
       <c r="AG36">
-        <v>0.008142236144011</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH36">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI36">
-        <v>1</v>
-      </c>
-      <c r="AK36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ36" t="s">
         <v>169</v>
       </c>
+      <c r="AK36">
+        <v>0.9956661100984956</v>
+      </c>
       <c r="AL36">
-        <v>0.9956661100984956</v>
-      </c>
-      <c r="AM36">
         <v>1.001409597586914</v>
       </c>
+      <c r="AM36" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
       <c r="AO36" t="s">
         <v>113</v>
       </c>
       <c r="AP36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ36">
         <v>0</v>
@@ -9020,80 +9185,86 @@
       <c r="L37">
         <v>1</v>
       </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
       <c r="P37">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q37">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T37">
-        <v>14</v>
+        <v>681</v>
       </c>
       <c r="U37">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="V37">
-        <v>1</v>
+        <v>0.0201438848920863</v>
       </c>
       <c r="W37">
-        <v>0.0201438848920863</v>
+        <v>0.001466275659824</v>
       </c>
       <c r="X37">
-        <v>0.001466275659824</v>
-      </c>
-      <c r="Y37">
-        <v>1</v>
-      </c>
-      <c r="Z37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y37" t="s">
         <v>169</v>
       </c>
+      <c r="Z37">
+        <v>0.998533724340176</v>
+      </c>
       <c r="AA37">
-        <v>0.998533724340176</v>
+        <v>0.025</v>
       </c>
       <c r="AB37">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC37">
-        <v>1</v>
+        <v>0.0110555406807255</v>
       </c>
       <c r="AD37">
-        <v>0.0110555406807255</v>
+        <v>0.0335672394872023</v>
       </c>
       <c r="AE37">
-        <v>0.0335672394872023</v>
+        <v>3.712219656182343E-05</v>
       </c>
       <c r="AF37">
-        <v>3.712219656182343E-05</v>
+        <v>0.008142236144011</v>
       </c>
       <c r="AG37">
-        <v>0.008142236144011</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH37">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI37">
-        <v>1</v>
-      </c>
-      <c r="AK37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ37" t="s">
         <v>169</v>
       </c>
+      <c r="AK37">
+        <v>0.9956661100984956</v>
+      </c>
       <c r="AL37">
-        <v>0.9956661100984956</v>
-      </c>
-      <c r="AM37">
         <v>1.001409597586914</v>
       </c>
+      <c r="AM37" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
       <c r="AO37" t="s">
         <v>113</v>
       </c>
       <c r="AP37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ37">
         <v>0</v>
@@ -9133,80 +9304,86 @@
       <c r="L38">
         <v>1</v>
       </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
       <c r="P38">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q38">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T38">
-        <v>14</v>
+        <v>681</v>
       </c>
       <c r="U38">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>0.0201438848920863</v>
       </c>
       <c r="W38">
-        <v>0.0201438848920863</v>
+        <v>0.001466275659824</v>
       </c>
       <c r="X38">
-        <v>0.001466275659824</v>
-      </c>
-      <c r="Y38">
-        <v>1</v>
-      </c>
-      <c r="Z38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y38" t="s">
         <v>169</v>
       </c>
+      <c r="Z38">
+        <v>0.998533724340176</v>
+      </c>
       <c r="AA38">
-        <v>0.998533724340176</v>
+        <v>0.025</v>
       </c>
       <c r="AB38">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>0.0110555406807255</v>
       </c>
       <c r="AD38">
-        <v>0.0110555406807255</v>
+        <v>0.0335672394872023</v>
       </c>
       <c r="AE38">
-        <v>0.0335672394872023</v>
+        <v>3.712219656182343E-05</v>
       </c>
       <c r="AF38">
-        <v>3.712219656182343E-05</v>
+        <v>0.008142236144011</v>
       </c>
       <c r="AG38">
-        <v>0.008142236144011</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH38">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI38">
-        <v>1</v>
-      </c>
-      <c r="AK38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ38" t="s">
         <v>169</v>
       </c>
+      <c r="AK38">
+        <v>0.9956661100984956</v>
+      </c>
       <c r="AL38">
-        <v>0.9956661100984956</v>
-      </c>
-      <c r="AM38">
         <v>1.001409597586914</v>
       </c>
+      <c r="AM38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
       <c r="AO38" t="s">
         <v>113</v>
       </c>
       <c r="AP38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ38">
         <v>0</v>
@@ -9246,80 +9423,86 @@
       <c r="L39">
         <v>1</v>
       </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
       <c r="P39">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q39">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T39">
-        <v>14</v>
+        <v>681</v>
       </c>
       <c r="U39">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="V39">
-        <v>1</v>
+        <v>0.0201438848920863</v>
       </c>
       <c r="W39">
-        <v>0.0201438848920863</v>
+        <v>0.001466275659824</v>
       </c>
       <c r="X39">
-        <v>0.001466275659824</v>
-      </c>
-      <c r="Y39">
-        <v>1</v>
-      </c>
-      <c r="Z39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y39" t="s">
         <v>169</v>
       </c>
+      <c r="Z39">
+        <v>0.998533724340176</v>
+      </c>
       <c r="AA39">
-        <v>0.998533724340176</v>
+        <v>0.025</v>
       </c>
       <c r="AB39">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC39">
-        <v>1</v>
+        <v>0.0110555406807255</v>
       </c>
       <c r="AD39">
-        <v>0.0110555406807255</v>
+        <v>0.0335672394872023</v>
       </c>
       <c r="AE39">
-        <v>0.0335672394872023</v>
+        <v>3.712219656182343E-05</v>
       </c>
       <c r="AF39">
-        <v>3.712219656182343E-05</v>
+        <v>0.008142236144011</v>
       </c>
       <c r="AG39">
-        <v>0.008142236144011</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH39">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI39">
-        <v>1</v>
-      </c>
-      <c r="AK39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ39" t="s">
         <v>169</v>
       </c>
+      <c r="AK39">
+        <v>0.9956661100984956</v>
+      </c>
       <c r="AL39">
-        <v>0.9956661100984956</v>
-      </c>
-      <c r="AM39">
         <v>1.001409597586914</v>
       </c>
+      <c r="AM39" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
       <c r="AO39" t="s">
         <v>113</v>
       </c>
       <c r="AP39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ39">
         <v>0</v>
@@ -9359,80 +9542,86 @@
       <c r="L40">
         <v>1</v>
       </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
       <c r="P40">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q40">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T40">
-        <v>14</v>
+        <v>681</v>
       </c>
       <c r="U40">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>0.0201438848920863</v>
       </c>
       <c r="W40">
-        <v>0.0201438848920863</v>
+        <v>0.001466275659824</v>
       </c>
       <c r="X40">
-        <v>0.001466275659824</v>
-      </c>
-      <c r="Y40">
-        <v>1</v>
-      </c>
-      <c r="Z40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y40" t="s">
         <v>169</v>
       </c>
+      <c r="Z40">
+        <v>0.998533724340176</v>
+      </c>
       <c r="AA40">
-        <v>0.998533724340176</v>
+        <v>0.025</v>
       </c>
       <c r="AB40">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC40">
-        <v>1</v>
+        <v>0.0110555406807255</v>
       </c>
       <c r="AD40">
-        <v>0.0110555406807255</v>
+        <v>0.0335672394872023</v>
       </c>
       <c r="AE40">
-        <v>0.0335672394872023</v>
+        <v>3.712219656182343E-05</v>
       </c>
       <c r="AF40">
-        <v>3.712219656182343E-05</v>
+        <v>0.008142236144011</v>
       </c>
       <c r="AG40">
-        <v>0.008142236144011</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH40">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI40">
-        <v>1</v>
-      </c>
-      <c r="AK40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ40" t="s">
         <v>169</v>
       </c>
+      <c r="AK40">
+        <v>0.9956661100984956</v>
+      </c>
       <c r="AL40">
-        <v>0.9956661100984956</v>
-      </c>
-      <c r="AM40">
         <v>1.001409597586914</v>
       </c>
+      <c r="AM40" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
       <c r="AO40" t="s">
         <v>113</v>
       </c>
       <c r="AP40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ40">
         <v>0</v>
@@ -9472,80 +9661,86 @@
       <c r="L41">
         <v>1</v>
       </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
       <c r="P41">
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="Q41">
-        <v>696</v>
+        <v>1</v>
       </c>
       <c r="R41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T41">
-        <v>14</v>
+        <v>681</v>
       </c>
       <c r="U41">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="V41">
-        <v>1</v>
+        <v>0.0201438848920863</v>
       </c>
       <c r="W41">
-        <v>0.0201438848920863</v>
+        <v>0.001466275659824</v>
       </c>
       <c r="X41">
-        <v>0.001466275659824</v>
-      </c>
-      <c r="Y41">
-        <v>1</v>
-      </c>
-      <c r="Z41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y41" t="s">
         <v>169</v>
       </c>
+      <c r="Z41">
+        <v>0.998533724340176</v>
+      </c>
       <c r="AA41">
-        <v>0.998533724340176</v>
+        <v>0.025</v>
       </c>
       <c r="AB41">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="AC41">
-        <v>1</v>
+        <v>0.0110555406807255</v>
       </c>
       <c r="AD41">
-        <v>0.0110555406807255</v>
+        <v>0.0335672394872023</v>
       </c>
       <c r="AE41">
-        <v>0.0335672394872023</v>
+        <v>3.712219656182343E-05</v>
       </c>
       <c r="AF41">
-        <v>3.712219656182343E-05</v>
+        <v>0.008142236144011</v>
       </c>
       <c r="AG41">
-        <v>0.008142236144011</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH41">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI41">
-        <v>1</v>
-      </c>
-      <c r="AK41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ41" t="s">
         <v>169</v>
       </c>
+      <c r="AK41">
+        <v>0.9956661100984956</v>
+      </c>
       <c r="AL41">
-        <v>0.9956661100984956</v>
-      </c>
-      <c r="AM41">
         <v>1.001409597586914</v>
       </c>
+      <c r="AM41" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
       <c r="AO41" t="s">
         <v>113</v>
       </c>
       <c r="AP41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ41">
         <v>0</v>
@@ -9585,80 +9780,86 @@
       <c r="L42">
         <v>1</v>
       </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
       <c r="P42">
+        <v>696</v>
+      </c>
+      <c r="Q42">
         <v>2</v>
       </c>
-      <c r="Q42">
-        <v>696</v>
-      </c>
       <c r="R42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T42">
-        <v>14</v>
+        <v>680</v>
       </c>
       <c r="U42">
-        <v>680</v>
+        <v>1</v>
       </c>
       <c r="V42">
-        <v>1</v>
+        <v>0.0201729106628242</v>
       </c>
       <c r="W42">
-        <v>0.0201729106628242</v>
+        <v>0.002932551319648</v>
       </c>
       <c r="X42">
-        <v>0.002932551319648</v>
-      </c>
-      <c r="Y42">
-        <v>1</v>
-      </c>
-      <c r="Z42" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y42" t="s">
         <v>169</v>
       </c>
+      <c r="Z42">
+        <v>0.997067448680352</v>
+      </c>
       <c r="AA42">
-        <v>0.997067448680352</v>
+        <v>0.158113883008393</v>
       </c>
       <c r="AB42">
-        <v>0.158113883008393</v>
+        <v>1</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>0.0110715329473884</v>
       </c>
       <c r="AD42">
-        <v>0.0110715329473884</v>
+        <v>0.0336152741989476</v>
       </c>
       <c r="AE42">
-        <v>0.0336152741989476</v>
+        <v>0.0003553430854548</v>
       </c>
       <c r="AF42">
-        <v>0.0003553430854548</v>
+        <v>0.0105528841606226</v>
       </c>
       <c r="AG42">
-        <v>0.0105528841606226</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH42">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI42">
-        <v>1</v>
-      </c>
-      <c r="AK42" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ42" t="s">
         <v>169</v>
       </c>
+      <c r="AK42">
+        <v>0.9930174260597496</v>
+      </c>
       <c r="AL42">
-        <v>0.9930174260597494</v>
-      </c>
-      <c r="AM42">
         <v>1.001133989322489</v>
       </c>
+      <c r="AM42" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
       <c r="AO42" t="s">
         <v>113</v>
       </c>
       <c r="AP42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ42">
         <v>0</v>
@@ -9698,80 +9899,86 @@
       <c r="L43">
         <v>1</v>
       </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
       <c r="P43">
+        <v>696</v>
+      </c>
+      <c r="Q43">
         <v>2</v>
       </c>
-      <c r="Q43">
-        <v>696</v>
-      </c>
       <c r="R43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T43">
-        <v>14</v>
+        <v>680</v>
       </c>
       <c r="U43">
-        <v>680</v>
+        <v>1</v>
       </c>
       <c r="V43">
-        <v>1</v>
+        <v>0.0201729106628242</v>
       </c>
       <c r="W43">
-        <v>0.0201729106628242</v>
+        <v>0.002932551319648</v>
       </c>
       <c r="X43">
-        <v>0.002932551319648</v>
-      </c>
-      <c r="Y43">
-        <v>1</v>
-      </c>
-      <c r="Z43" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y43" t="s">
         <v>169</v>
       </c>
+      <c r="Z43">
+        <v>0.997067448680352</v>
+      </c>
       <c r="AA43">
-        <v>0.997067448680352</v>
+        <v>0.158113883008393</v>
       </c>
       <c r="AB43">
-        <v>0.158113883008393</v>
+        <v>1</v>
       </c>
       <c r="AC43">
-        <v>1</v>
+        <v>0.0110715329473884</v>
       </c>
       <c r="AD43">
-        <v>0.0110715329473884</v>
+        <v>0.0336152741989476</v>
       </c>
       <c r="AE43">
-        <v>0.0336152741989476</v>
+        <v>0.0003553430854548</v>
       </c>
       <c r="AF43">
-        <v>0.0003553430854548</v>
+        <v>0.0105528841606226</v>
       </c>
       <c r="AG43">
-        <v>0.0105528841606226</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH43">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI43">
-        <v>1</v>
-      </c>
-      <c r="AK43" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ43" t="s">
         <v>169</v>
       </c>
+      <c r="AK43">
+        <v>0.9930174260597496</v>
+      </c>
       <c r="AL43">
-        <v>0.9930174260597494</v>
-      </c>
-      <c r="AM43">
         <v>1.001133989322489</v>
       </c>
+      <c r="AM43" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
       <c r="AO43" t="s">
         <v>113</v>
       </c>
       <c r="AP43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ43">
         <v>0</v>
@@ -9811,80 +10018,86 @@
       <c r="L44">
         <v>1</v>
       </c>
+      <c r="O44">
+        <v>3</v>
+      </c>
       <c r="P44">
+        <v>696</v>
+      </c>
+      <c r="Q44">
         <v>3</v>
       </c>
-      <c r="Q44">
-        <v>696</v>
-      </c>
       <c r="R44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T44">
-        <v>14</v>
+        <v>679</v>
       </c>
       <c r="U44">
-        <v>679</v>
+        <v>1</v>
       </c>
       <c r="V44">
-        <v>1</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="W44">
-        <v>0.0202020202020202</v>
+        <v>0.0043988269794721</v>
       </c>
       <c r="X44">
-        <v>0.0043988269794721</v>
-      </c>
-      <c r="Y44">
-        <v>1</v>
-      </c>
-      <c r="Z44" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y44" t="s">
         <v>169</v>
       </c>
+      <c r="Z44">
+        <v>0.995601173020528</v>
+      </c>
       <c r="AA44">
-        <v>0.995601173020528</v>
+        <v>0.2924017738212867</v>
       </c>
       <c r="AB44">
-        <v>0.2924017738212867</v>
+        <v>1</v>
       </c>
       <c r="AC44">
-        <v>1</v>
+        <v>0.0110875715486734</v>
       </c>
       <c r="AD44">
-        <v>0.0110875715486734</v>
+        <v>0.0336634465761951</v>
       </c>
       <c r="AE44">
-        <v>0.0336634465761951</v>
+        <v>0.0009080641653364</v>
       </c>
       <c r="AF44">
-        <v>0.0009080641653364</v>
+        <v>0.0128009846942165</v>
       </c>
       <c r="AG44">
-        <v>0.0128009846942165</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH44">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI44">
-        <v>1</v>
-      </c>
-      <c r="AK44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ44" t="s">
         <v>169</v>
       </c>
+      <c r="AK44">
+        <v>0.9906468510643266</v>
+      </c>
       <c r="AL44">
-        <v>0.9906468510643264</v>
-      </c>
-      <c r="AM44">
         <v>1.000580272026209</v>
       </c>
+      <c r="AM44" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
       <c r="AO44" t="s">
         <v>113</v>
       </c>
       <c r="AP44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ44">
         <v>0</v>
@@ -9924,80 +10137,86 @@
       <c r="L45">
         <v>1</v>
       </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
       <c r="P45">
+        <v>696</v>
+      </c>
+      <c r="Q45">
         <v>2</v>
       </c>
-      <c r="Q45">
-        <v>696</v>
-      </c>
       <c r="R45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T45">
-        <v>14</v>
+        <v>680</v>
       </c>
       <c r="U45">
-        <v>680</v>
+        <v>1</v>
       </c>
       <c r="V45">
-        <v>1</v>
+        <v>0.0201729106628242</v>
       </c>
       <c r="W45">
-        <v>0.0201729106628242</v>
+        <v>0.002932551319648</v>
       </c>
       <c r="X45">
-        <v>0.002932551319648</v>
-      </c>
-      <c r="Y45">
-        <v>1</v>
-      </c>
-      <c r="Z45" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y45" t="s">
         <v>169</v>
       </c>
+      <c r="Z45">
+        <v>0.997067448680352</v>
+      </c>
       <c r="AA45">
-        <v>0.997067448680352</v>
+        <v>0.158113883008393</v>
       </c>
       <c r="AB45">
-        <v>0.158113883008393</v>
+        <v>1</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>0.0110715329473884</v>
       </c>
       <c r="AD45">
-        <v>0.0110715329473884</v>
+        <v>0.0336152741989476</v>
       </c>
       <c r="AE45">
-        <v>0.0336152741989476</v>
+        <v>0.0003553430854548</v>
       </c>
       <c r="AF45">
-        <v>0.0003553430854548</v>
+        <v>0.0105528841606226</v>
       </c>
       <c r="AG45">
-        <v>0.0105528841606226</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH45">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI45">
-        <v>1</v>
-      </c>
-      <c r="AK45" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ45" t="s">
         <v>169</v>
       </c>
+      <c r="AK45">
+        <v>0.9930174260597496</v>
+      </c>
       <c r="AL45">
-        <v>0.9930174260597494</v>
-      </c>
-      <c r="AM45">
         <v>1.001133989322489</v>
       </c>
+      <c r="AM45" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
       <c r="AO45" t="s">
         <v>113</v>
       </c>
       <c r="AP45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ45">
         <v>0</v>
@@ -10037,80 +10256,86 @@
       <c r="L46">
         <v>1</v>
       </c>
+      <c r="O46">
+        <v>2</v>
+      </c>
       <c r="P46">
+        <v>696</v>
+      </c>
+      <c r="Q46">
         <v>2</v>
       </c>
-      <c r="Q46">
-        <v>696</v>
-      </c>
       <c r="R46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T46">
-        <v>14</v>
+        <v>680</v>
       </c>
       <c r="U46">
-        <v>680</v>
+        <v>1</v>
       </c>
       <c r="V46">
-        <v>1</v>
+        <v>0.0201729106628242</v>
       </c>
       <c r="W46">
-        <v>0.0201729106628242</v>
+        <v>0.002932551319648</v>
       </c>
       <c r="X46">
-        <v>0.002932551319648</v>
-      </c>
-      <c r="Y46">
-        <v>1</v>
-      </c>
-      <c r="Z46" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y46" t="s">
         <v>169</v>
       </c>
+      <c r="Z46">
+        <v>0.997067448680352</v>
+      </c>
       <c r="AA46">
-        <v>0.997067448680352</v>
+        <v>0.158113883008393</v>
       </c>
       <c r="AB46">
-        <v>0.158113883008393</v>
+        <v>1</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>0.0110715329473884</v>
       </c>
       <c r="AD46">
-        <v>0.0110715329473884</v>
+        <v>0.0336152741989476</v>
       </c>
       <c r="AE46">
-        <v>0.0336152741989476</v>
+        <v>0.0003553430854548</v>
       </c>
       <c r="AF46">
-        <v>0.0003553430854548</v>
+        <v>0.0105528841606226</v>
       </c>
       <c r="AG46">
-        <v>0.0105528841606226</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH46">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI46">
-        <v>1</v>
-      </c>
-      <c r="AK46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ46" t="s">
         <v>169</v>
       </c>
+      <c r="AK46">
+        <v>0.9930174260597496</v>
+      </c>
       <c r="AL46">
-        <v>0.9930174260597494</v>
-      </c>
-      <c r="AM46">
         <v>1.001133989322489</v>
       </c>
+      <c r="AM46" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
       <c r="AO46" t="s">
         <v>113</v>
       </c>
       <c r="AP46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ46">
         <v>0</v>
@@ -10150,80 +10375,86 @@
       <c r="L47">
         <v>1</v>
       </c>
+      <c r="O47">
+        <v>2</v>
+      </c>
       <c r="P47">
+        <v>696</v>
+      </c>
+      <c r="Q47">
         <v>2</v>
       </c>
-      <c r="Q47">
-        <v>696</v>
-      </c>
       <c r="R47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T47">
-        <v>14</v>
+        <v>680</v>
       </c>
       <c r="U47">
-        <v>680</v>
+        <v>1</v>
       </c>
       <c r="V47">
-        <v>1</v>
+        <v>0.0201729106628242</v>
       </c>
       <c r="W47">
-        <v>0.0201729106628242</v>
+        <v>0.002932551319648</v>
       </c>
       <c r="X47">
-        <v>0.002932551319648</v>
-      </c>
-      <c r="Y47">
-        <v>1</v>
-      </c>
-      <c r="Z47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y47" t="s">
         <v>169</v>
       </c>
+      <c r="Z47">
+        <v>0.997067448680352</v>
+      </c>
       <c r="AA47">
-        <v>0.997067448680352</v>
+        <v>0.158113883008393</v>
       </c>
       <c r="AB47">
-        <v>0.158113883008393</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>1</v>
+        <v>0.0110715329473884</v>
       </c>
       <c r="AD47">
-        <v>0.0110715329473884</v>
+        <v>0.0336152741989476</v>
       </c>
       <c r="AE47">
-        <v>0.0336152741989476</v>
+        <v>0.0003553430854548</v>
       </c>
       <c r="AF47">
-        <v>0.0003553430854548</v>
+        <v>0.0105528841606226</v>
       </c>
       <c r="AG47">
-        <v>0.0105528841606226</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH47">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI47">
-        <v>1</v>
-      </c>
-      <c r="AK47" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ47" t="s">
         <v>169</v>
       </c>
+      <c r="AK47">
+        <v>0.9930174260597496</v>
+      </c>
       <c r="AL47">
-        <v>0.9930174260597494</v>
-      </c>
-      <c r="AM47">
         <v>1.001133989322489</v>
       </c>
+      <c r="AM47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
       <c r="AO47" t="s">
         <v>113</v>
       </c>
       <c r="AP47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ47">
         <v>0</v>
@@ -10263,80 +10494,86 @@
       <c r="L48">
         <v>1</v>
       </c>
+      <c r="O48">
+        <v>33</v>
+      </c>
       <c r="P48">
+        <v>696</v>
+      </c>
+      <c r="Q48">
         <v>33</v>
       </c>
-      <c r="Q48">
-        <v>696</v>
-      </c>
       <c r="R48">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T48">
-        <v>14</v>
+        <v>649</v>
       </c>
       <c r="U48">
-        <v>649</v>
+        <v>1</v>
       </c>
       <c r="V48">
-        <v>1</v>
+        <v>0.0211161387631975</v>
       </c>
       <c r="W48">
-        <v>0.0211161387631975</v>
+        <v>0.0483870967741935</v>
       </c>
       <c r="X48">
-        <v>0.0483870967741935</v>
-      </c>
-      <c r="Y48">
-        <v>1</v>
-      </c>
-      <c r="Z48" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y48" t="s">
         <v>169</v>
       </c>
+      <c r="Z48">
+        <v>0.9516129032258064</v>
+      </c>
       <c r="AA48">
-        <v>0.9516129032258064</v>
+        <v>0.8942371899254208</v>
       </c>
       <c r="AB48">
-        <v>0.8942371899254208</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>1</v>
+        <v>0.0115913193699728</v>
       </c>
       <c r="AD48">
-        <v>0.0115913193699728</v>
+        <v>0.0351756994476313</v>
       </c>
       <c r="AE48">
-        <v>0.0351756994476313</v>
+        <v>0.0335381435768986</v>
       </c>
       <c r="AF48">
-        <v>0.0335381435768986</v>
+        <v>0.0672852556243793</v>
       </c>
       <c r="AG48">
-        <v>0.0672852556243793</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH48">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI48">
-        <v>1</v>
-      </c>
-      <c r="AK48" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ48" t="s">
         <v>169</v>
       </c>
+      <c r="AK48">
+        <v>0.9356437776579754</v>
+      </c>
       <c r="AL48">
-        <v>0.9356437776579756</v>
-      </c>
-      <c r="AM48">
-        <v>0.9678545822776564</v>
+        <v>0.9678545822776562</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
       </c>
       <c r="AO48" t="s">
         <v>113</v>
       </c>
       <c r="AP48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ48">
         <v>0</v>
@@ -10376,80 +10613,86 @@
       <c r="L49">
         <v>1</v>
       </c>
+      <c r="O49">
+        <v>3</v>
+      </c>
       <c r="P49">
+        <v>696</v>
+      </c>
+      <c r="Q49">
         <v>3</v>
       </c>
-      <c r="Q49">
-        <v>696</v>
-      </c>
       <c r="R49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T49">
-        <v>14</v>
+        <v>679</v>
       </c>
       <c r="U49">
-        <v>679</v>
+        <v>1</v>
       </c>
       <c r="V49">
-        <v>1</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="W49">
-        <v>0.0202020202020202</v>
+        <v>0.0043988269794721</v>
       </c>
       <c r="X49">
-        <v>0.0043988269794721</v>
-      </c>
-      <c r="Y49">
-        <v>1</v>
-      </c>
-      <c r="Z49" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y49" t="s">
         <v>169</v>
       </c>
+      <c r="Z49">
+        <v>0.995601173020528</v>
+      </c>
       <c r="AA49">
-        <v>0.995601173020528</v>
+        <v>0.2924017738212867</v>
       </c>
       <c r="AB49">
-        <v>0.2924017738212867</v>
+        <v>1</v>
       </c>
       <c r="AC49">
-        <v>1</v>
+        <v>0.0110875715486734</v>
       </c>
       <c r="AD49">
-        <v>0.0110875715486734</v>
+        <v>0.0336634465761951</v>
       </c>
       <c r="AE49">
-        <v>0.0336634465761951</v>
+        <v>0.0009080641653364</v>
       </c>
       <c r="AF49">
-        <v>0.0009080641653364</v>
+        <v>0.0128009846942165</v>
       </c>
       <c r="AG49">
-        <v>0.0128009846942165</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH49">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI49">
-        <v>1</v>
-      </c>
-      <c r="AK49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ49" t="s">
         <v>169</v>
       </c>
+      <c r="AK49">
+        <v>0.9906468510643266</v>
+      </c>
       <c r="AL49">
-        <v>0.9906468510643264</v>
-      </c>
-      <c r="AM49">
         <v>1.000580272026209</v>
       </c>
+      <c r="AM49" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
       <c r="AO49" t="s">
         <v>113</v>
       </c>
       <c r="AP49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ49">
         <v>0</v>
@@ -10489,80 +10732,86 @@
       <c r="L50">
         <v>1</v>
       </c>
+      <c r="O50">
+        <v>5</v>
+      </c>
       <c r="P50">
+        <v>696</v>
+      </c>
+      <c r="Q50">
         <v>5</v>
       </c>
-      <c r="Q50">
-        <v>696</v>
-      </c>
       <c r="R50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T50">
-        <v>14</v>
+        <v>677</v>
       </c>
       <c r="U50">
-        <v>677</v>
+        <v>1</v>
       </c>
       <c r="V50">
-        <v>1</v>
+        <v>0.0202604920405209</v>
       </c>
       <c r="W50">
-        <v>0.0202604920405209</v>
+        <v>0.0073313782991202</v>
       </c>
       <c r="X50">
-        <v>0.0073313782991202</v>
-      </c>
-      <c r="Y50">
-        <v>1</v>
-      </c>
-      <c r="Z50" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y50" t="s">
         <v>169</v>
       </c>
+      <c r="Z50">
+        <v>0.9926686217008798</v>
+      </c>
       <c r="AA50">
-        <v>0.9926686217008798</v>
+        <v>0.4781762498950185</v>
       </c>
       <c r="AB50">
-        <v>0.4781762498950185</v>
+        <v>1</v>
       </c>
       <c r="AC50">
-        <v>1</v>
+        <v>0.0111197885629399</v>
       </c>
       <c r="AD50">
-        <v>0.0111197885629399</v>
+        <v>0.0337602067011441</v>
       </c>
       <c r="AE50">
-        <v>0.0337602067011441</v>
+        <v>0.002384638766605</v>
       </c>
       <c r="AF50">
-        <v>0.002384638766605</v>
+        <v>0.0170254830784847</v>
       </c>
       <c r="AG50">
-        <v>0.0170254830784847</v>
+        <v>0.7683642383498855</v>
       </c>
       <c r="AH50">
-        <v>0.7683642383498855</v>
-      </c>
-      <c r="AI50">
-        <v>1</v>
-      </c>
-      <c r="AK50" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ50" t="s">
         <v>169</v>
       </c>
+      <c r="AK50">
+        <v>0.986286706033335</v>
+      </c>
       <c r="AL50">
-        <v>0.986286706033335</v>
-      </c>
-      <c r="AM50">
         <v>0.9990918325084062</v>
       </c>
+      <c r="AM50" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
       <c r="AO50" t="s">
         <v>113</v>
       </c>
       <c r="AP50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ50">
         <v>0</v>
@@ -10688,13 +10937,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E2">
         <v>2.00190163147777</v>
@@ -10761,13 +11010,13 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E4">
         <v>1.372246244547231</v>
@@ -10799,13 +11048,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E5">
         <v>1.372246244547231</v>
@@ -10910,13 +11159,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E8">
         <v>1.133093237776414</v>
@@ -10948,13 +11197,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E9">
         <v>1.070258685387925</v>
@@ -10986,13 +11235,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E10">
         <v>1.070258685387925</v>
@@ -11024,13 +11273,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E11">
         <v>1.023711862257942</v>
@@ -11062,13 +11311,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E12">
         <v>1.023711862257942</v>
@@ -11100,13 +11349,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="E13">
         <v>1.023711862257942</v>
@@ -11138,13 +11387,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="E14">
         <v>1.023711862257942</v>
@@ -11176,13 +11425,13 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>211</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E15">
         <v>1.023711862257942</v>
@@ -11214,13 +11463,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E16">
         <v>1.023711862257942</v>
@@ -11252,13 +11501,13 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E17">
         <v>1.023711862257942</v>
@@ -11290,13 +11539,13 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E18">
         <v>1.023711862257942</v>
@@ -11328,13 +11577,13 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C19" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E19">
         <v>1.023711862257942</v>
@@ -11366,13 +11615,13 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E20">
         <v>1.023711862257942</v>
@@ -11404,13 +11653,13 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>227</v>
       </c>
       <c r="E21">
         <v>1.023711862257942</v>
@@ -11442,13 +11691,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C22" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E22">
         <v>1.023711862257942</v>
@@ -11480,13 +11729,13 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E23">
         <v>1.023711862257942</v>
@@ -11518,13 +11767,13 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>225</v>
+        <v>74</v>
       </c>
       <c r="E24">
         <v>1.023711862257942</v>
@@ -11556,13 +11805,13 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="E25">
         <v>1.023711862257942</v>
@@ -11594,13 +11843,13 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="E26">
         <v>1.023711862257942</v>
@@ -11632,13 +11881,13 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27">
         <v>1.023711862257942</v>
@@ -11670,13 +11919,13 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E28">
         <v>1.011789608798327</v>
@@ -11708,13 +11957,13 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E29">
         <v>0.9891020012338828</v>
@@ -11746,13 +11995,13 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30">
         <v>0.9891020012338828</v>
@@ -11822,13 +12071,13 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E32">
         <v>0.9845587199600028</v>
@@ -12050,13 +12299,13 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E38">
         <v>0.9819891254074437</v>
@@ -12088,13 +12337,13 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E39">
         <v>0.9818931300988388</v>
@@ -12164,13 +12413,13 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B41" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E41">
         <v>0.9814738071808156</v>
@@ -12240,13 +12489,13 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>233</v>
+        <v>88</v>
       </c>
       <c r="E43">
         <v>0.9811786396179192</v>
@@ -12278,13 +12527,13 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>196</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>211</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="E44">
         <v>0.9811786396179192</v>
@@ -12354,13 +12603,13 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C46" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E46">
         <v>0.9786276979381388</v>
@@ -12392,13 +12641,13 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E47">
         <v>0.9784371119403452</v>
@@ -12579,13 +12828,13 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B52" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E52">
         <v>0.970234482970305</v>
@@ -12617,13 +12866,13 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B53" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C53" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E53">
         <v>0.969744372275914</v>
@@ -12769,13 +13018,13 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B57" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E57">
         <v>0.95997330778013</v>
@@ -12921,13 +13170,13 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E61">
         <v>0.95299315742568</v>
@@ -12959,13 +13208,13 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B62" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C62" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E62">
         <v>0.9471254837358872</v>
@@ -13073,13 +13322,13 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B65" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C65" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E65">
         <v>0.9437582764996264</v>
@@ -13111,13 +13360,13 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B66" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C66" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E66">
         <v>0.9399801400405408</v>
@@ -13149,13 +13398,13 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B67" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C67" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E67">
         <v>0.9380951293329836</v>
@@ -13187,13 +13436,13 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B68" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C68" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E68">
         <v>0.931524255345324</v>
@@ -13301,13 +13550,13 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C71" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E71">
         <v>0.9057499251097804</v>
@@ -13567,13 +13816,13 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B78" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C78" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E78">
         <v>0.8763241381557848</v>
@@ -13719,13 +13968,13 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B82" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C82" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E82">
         <v>0.8694183635310787</v>

--- a/results/BINARY/Pretomanid.xlsx
+++ b/results/BINARY/Pretomanid.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="274">
   <si>
     <t>mutation</t>
   </si>
@@ -88,12 +88,12 @@
     <t>fbiC_lof</t>
   </si>
   <si>
+    <t>fbiC_p.Ser782Ala</t>
+  </si>
+  <si>
     <t>fbiC_p.Thr510Ser</t>
   </si>
   <si>
-    <t>fbiC_p.Ser782Ala</t>
-  </si>
-  <si>
     <t>fgd1_p.Gly168Arg</t>
   </si>
   <si>
@@ -250,12 +250,12 @@
     <t>3339259</t>
   </si>
   <si>
+    <t>1305274</t>
+  </si>
+  <si>
     <t>1304458;1304459</t>
   </si>
   <si>
-    <t>1305274</t>
-  </si>
-  <si>
     <t>491284</t>
   </si>
   <si>
@@ -388,6 +388,12 @@
     <t>LRT_BH_pval</t>
   </si>
   <si>
+    <t>neutral_pval</t>
+  </si>
+  <si>
+    <t>neutral_BH_pval</t>
+  </si>
+  <si>
     <t>AUC_pval</t>
   </si>
   <si>
@@ -397,19 +403,16 @@
     <t>Num_Isolates</t>
   </si>
   <si>
-    <t>Total_Isolates</t>
-  </si>
-  <si>
-    <t>TP</t>
-  </si>
-  <si>
-    <t>FP</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>FN</t>
+    <t>Mut_R</t>
+  </si>
+  <si>
+    <t>Mut_S</t>
+  </si>
+  <si>
+    <t>NoMut_S</t>
+  </si>
+  <si>
+    <t>NoMut_R</t>
   </si>
   <si>
     <t>PPV</t>
@@ -472,6 +475,9 @@
     <t>High_Predictive_Value</t>
   </si>
   <si>
+    <t>single_lineage</t>
+  </si>
+  <si>
     <t>ddn_deletion</t>
   </si>
   <si>
@@ -529,10 +535,79 @@
     <t>inf</t>
   </si>
   <si>
-    <t>Assoc w R</t>
-  </si>
-  <si>
-    <t>Evidence against Assoc</t>
+    <t>Possible Assoc w R</t>
+  </si>
+  <si>
+    <t>Uncertain</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>4.3.4.2.1</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>canetti</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>3.1.2.1</t>
+  </si>
+  <si>
+    <t>4.1.1.1</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>4.6.2</t>
+  </si>
+  <si>
+    <t>4.3.2.1</t>
+  </si>
+  <si>
+    <t>4.3.2</t>
+  </si>
+  <si>
+    <t>4.3.3</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>BOV_AFRI</t>
+  </si>
+  <si>
+    <t>4.4.1.1</t>
+  </si>
+  <si>
+    <t>4.1.2</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>2.2.1.1</t>
   </si>
   <si>
     <t>unpooled</t>
@@ -541,12 +616,12 @@
     <t>fgd1_c.960T&gt;C</t>
   </si>
   <si>
+    <t>fbiA_c.15T&gt;C</t>
+  </si>
+  <si>
     <t>Rv2983_c.300A&gt;G</t>
   </si>
   <si>
-    <t>fbiA_c.15T&gt;C</t>
-  </si>
-  <si>
     <t>ddn_c.225C&gt;T</t>
   </si>
   <si>
@@ -556,42 +631,42 @@
     <t>fbiA_c.363C&gt;T</t>
   </si>
   <si>
+    <t>fbiB_c.933T&gt;C</t>
+  </si>
+  <si>
+    <t>ddn_c.444T&gt;C</t>
+  </si>
+  <si>
+    <t>fgd1_c.399T&gt;C</t>
+  </si>
+  <si>
+    <t>fbiC_c.765T&gt;C</t>
+  </si>
+  <si>
+    <t>Rv2983_c.451C&gt;T</t>
+  </si>
+  <si>
     <t>fbiB_c.306T&gt;C</t>
   </si>
   <si>
+    <t>fgd1_c.414A&gt;G</t>
+  </si>
+  <si>
     <t>fbiC_c.1668C&gt;T</t>
   </si>
   <si>
+    <t>fbiB_c.720G&gt;A</t>
+  </si>
+  <si>
     <t>Rv2983_c.285C&gt;T</t>
   </si>
   <si>
-    <t>fgd1_c.399T&gt;C</t>
-  </si>
-  <si>
     <t>ddn_c.67C&gt;A</t>
   </si>
   <si>
-    <t>fgd1_c.414A&gt;G</t>
-  </si>
-  <si>
-    <t>fbiB_c.933T&gt;C</t>
-  </si>
-  <si>
-    <t>fbiC_c.765T&gt;C</t>
-  </si>
-  <si>
-    <t>fbiB_c.720G&gt;A</t>
-  </si>
-  <si>
-    <t>Rv2983_c.451C&gt;T</t>
-  </si>
-  <si>
     <t>ddn_c.207C&gt;T</t>
   </si>
   <si>
-    <t>ddn_c.444T&gt;C</t>
-  </si>
-  <si>
     <t>fgd1_c.528C&gt;T</t>
   </si>
   <si>
@@ -658,12 +733,12 @@
     <t>491736;491742;491739</t>
   </si>
   <si>
+    <t>3640557</t>
+  </si>
+  <si>
     <t>3339417</t>
   </si>
   <si>
-    <t>3640557</t>
-  </si>
-  <si>
     <t>3987068</t>
   </si>
   <si>
@@ -673,37 +748,37 @@
     <t>3640905</t>
   </si>
   <si>
+    <t>3642467;3642464</t>
+  </si>
+  <si>
+    <t>3987287</t>
+  </si>
+  <si>
+    <t>491181;491178;491175</t>
+  </si>
+  <si>
+    <t>1303695;1303692;1303689</t>
+  </si>
+  <si>
+    <t>3339568</t>
+  </si>
+  <si>
     <t>3641840</t>
   </si>
   <si>
+    <t>491196</t>
+  </si>
+  <si>
     <t>1304598</t>
   </si>
   <si>
+    <t>3642254</t>
+  </si>
+  <si>
     <t>3339402</t>
   </si>
   <si>
-    <t>491181;491178;491175</t>
-  </si>
-  <si>
-    <t>491196</t>
-  </si>
-  <si>
-    <t>3642467;3642464</t>
-  </si>
-  <si>
-    <t>1303695;1303692;1303689</t>
-  </si>
-  <si>
-    <t>3642254</t>
-  </si>
-  <si>
-    <t>3339568</t>
-  </si>
-  <si>
     <t>3987050</t>
-  </si>
-  <si>
-    <t>3987287</t>
   </si>
   <si>
     <t>491310;491307</t>
@@ -4819,13 +4894,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ58"/>
+  <dimension ref="A1:AS58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4947,27 +5022,33 @@
         <v>150</v>
       </c>
       <c r="AO1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F2">
         <v>1.870190251246928</v>
@@ -4991,108 +5072,111 @@
         <v>0</v>
       </c>
       <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
         <v>0.01</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>0.02</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <v>696</v>
       </c>
       <c r="Q2">
         <v>2</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>682</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>12</v>
       </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
       <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
         <v>0.9827089337175792</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>0.1428571428571428</v>
       </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z2">
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA2">
         <v>0.8571428571428572</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>0.158113883008393</v>
       </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
       <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
         <v>0.9699909422921412</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>0.9910343472998786</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>0.0177945154831915</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>0.428129160909699</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>0.9946056876820208</v>
       </c>
-      <c r="AH2">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK2">
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL2">
         <v>0.6921169860620525</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1.06151690009982</v>
       </c>
-      <c r="AM2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AN2">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP2" t="s">
+      <c r="AN2" t="s">
         <v>172</v>
       </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F3">
         <v>1.578071887367104</v>
@@ -5116,102 +5200,108 @@
         <v>0</v>
       </c>
       <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>0.07000000000000001</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>0.08400000000000001</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>696</v>
-      </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>682</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>13</v>
       </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
       <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
         <v>0.981294964028777</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0714285714285714</v>
       </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z3">
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA3">
         <v>0.9285714285714286</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.025</v>
       </c>
-      <c r="AB3">
-        <v>1</v>
-      </c>
       <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
         <v>0.96822621051664</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.9900037019076768</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.0018067806591276</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.3386844899318212</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.9946056876820208</v>
       </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK3">
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL3">
         <v>0.8030083484004436</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1.073768286066685</v>
       </c>
-      <c r="AM3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>113</v>
+      <c r="AN3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
       </c>
       <c r="AP3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
+        <v>175</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -5240,103 +5330,109 @@
       <c r="L4">
         <v>1.391575743525664E-11</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>696</v>
+      <c r="M4">
+        <v>0.999999999999148</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>682</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>13</v>
       </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
       <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
         <v>0.981294964028777</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0.0714285714285714</v>
       </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z4">
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA4">
         <v>0.9285714285714286</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>0.025</v>
       </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
       <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
         <v>0.96822621051664</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>0.9900037019076768</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>0.0018067806591276</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>0.3386844899318212</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>0.9946056876820208</v>
       </c>
-      <c r="AH4">
-        <v>1</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK4">
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL4">
         <v>0.8030083484004436</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>1.073768286066685</v>
       </c>
-      <c r="AM4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>113</v>
+      <c r="AN4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
       </c>
       <c r="AP4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43">
+        <v>176</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F5">
         <v>1.332931991592962</v>
@@ -5359,103 +5455,109 @@
       <c r="L5">
         <v>8.604409851287186E-10</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>696</v>
+      <c r="M5">
+        <v>0.999999999912513</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>682</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>13</v>
       </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
       <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
         <v>0.981294964028777</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>0.0714285714285714</v>
       </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z5">
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA5">
         <v>0.9285714285714286</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>0.025</v>
       </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
       <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
         <v>0.96822621051664</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>0.9900037019076768</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>0.0018067806591276</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>0.3386844899318212</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>0.9946056876820208</v>
       </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK5">
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL5">
         <v>0.8030083484004436</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>1.073768286066685</v>
       </c>
-      <c r="AM5" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>113</v>
+      <c r="AN5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
       </c>
       <c r="AP5" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+        <v>177</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F6">
         <v>1.33282376005525</v>
@@ -5478,103 +5580,109 @@
       <c r="L6">
         <v>8.604409851287186E-10</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>696</v>
+      <c r="M6">
+        <v>0.9999999999121999</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>682</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>13</v>
       </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
       <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
         <v>0.981294964028777</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>0.0714285714285714</v>
       </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6" t="s">
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA6">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="AB6">
+        <v>0.025</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>0.96822621051664</v>
+      </c>
+      <c r="AE6">
+        <v>0.9900037019076768</v>
+      </c>
+      <c r="AF6">
+        <v>0.0018067806591276</v>
+      </c>
+      <c r="AG6">
+        <v>0.3386844899318212</v>
+      </c>
+      <c r="AH6">
+        <v>0.9946056876820208</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL6">
+        <v>0.8030083484004436</v>
+      </c>
+      <c r="AM6">
+        <v>1.073768286066685</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" t="s">
         <v>169</v>
-      </c>
-      <c r="Z6">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="AA6">
-        <v>0.025</v>
-      </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6">
-        <v>0.96822621051664</v>
-      </c>
-      <c r="AD6">
-        <v>0.9900037019076768</v>
-      </c>
-      <c r="AE6">
-        <v>0.0018067806591276</v>
-      </c>
-      <c r="AF6">
-        <v>0.3386844899318212</v>
-      </c>
-      <c r="AG6">
-        <v>0.9946056876820208</v>
-      </c>
-      <c r="AH6">
-        <v>1</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK6">
-        <v>0.8030083484004436</v>
-      </c>
-      <c r="AL6">
-        <v>1.073768286066685</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
-      <c r="A7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" t="s">
-        <v>167</v>
       </c>
       <c r="F7">
         <v>1.331820232467224</v>
@@ -5597,97 +5705,103 @@
       <c r="L7">
         <v>9.39325413747601E-10</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>696</v>
+      <c r="M7">
+        <v>0.9999999998849806</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>682</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>13</v>
       </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
       <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
         <v>0.981294964028777</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>0.0714285714285714</v>
       </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z7">
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA7">
         <v>0.9285714285714286</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>0.025</v>
       </c>
-      <c r="AB7">
-        <v>1</v>
-      </c>
       <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
         <v>0.96822621051664</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>0.9900037019076768</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>0.0018067806591276</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>0.3386844899318212</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>0.9946056876820208</v>
       </c>
-      <c r="AH7">
-        <v>1</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK7">
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL7">
         <v>0.8030083484004436</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>1.073768286066685</v>
       </c>
-      <c r="AM7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>113</v>
+      <c r="AN7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
       </c>
       <c r="AP7" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>177</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
         <v>68</v>
@@ -5716,100 +5830,106 @@
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="O8">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>4</v>
       </c>
-      <c r="P8">
-        <v>696</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
       <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
         <v>3</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>679</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>13</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>0.25</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>0.98121387283237</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>0.0714285714285714</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>0.995601173020528</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>16.23809523809525</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>0.9326741005680624</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>0.0063094632097098</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>0.8058795503167566</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>0.9680893875918908</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>0.9899602045728184</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>0.0018067806591276</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>0.3386844899318212</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>0.9871990153057834</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>0.9990919358346636</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>1.798446329367261</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>146.6130696567517</v>
       </c>
-      <c r="AK8">
-        <v>0.8064871925863384</v>
-      </c>
       <c r="AL8">
+        <v>0.8064871925863383</v>
+      </c>
+      <c r="AM8">
         <v>1.078604825801148</v>
       </c>
-      <c r="AM8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>113</v>
+      <c r="AN8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
       </c>
       <c r="AP8" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+        <v>178</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>
@@ -5838,100 +5958,106 @@
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="O9">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>4</v>
       </c>
-      <c r="P9">
-        <v>696</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
       <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
         <v>3</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>679</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>13</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.25</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>0.98121387283237</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>0.0714285714285714</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>0.995601173020528</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>16.23809523809525</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>0.9326741005680624</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>0.0063094632097098</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>0.8058795503167566</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>0.9680893875918908</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>0.9899602045728184</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>0.0018067806591276</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>0.3386844899318212</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>0.9871990153057834</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>0.9990919358346636</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>1.798446329367261</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>146.6130696567517</v>
       </c>
-      <c r="AK9">
-        <v>0.8064871925863384</v>
-      </c>
       <c r="AL9">
+        <v>0.8064871925863383</v>
+      </c>
+      <c r="AM9">
         <v>1.078604825801148</v>
       </c>
-      <c r="AM9" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>113</v>
+      <c r="AN9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
       </c>
       <c r="AP9" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
+        <v>178</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
         <v>67</v>
@@ -5960,100 +6086,106 @@
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="O10">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>4</v>
       </c>
-      <c r="P10">
-        <v>696</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
       <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
         <v>3</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>679</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>13</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>0.25</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>0.98121387283237</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>0.0714285714285714</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>0.995601173020528</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>16.23809523809525</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>0.9326741005680624</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>0.0063094632097098</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>0.8058795503167566</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>0.9680893875918908</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>0.9899602045728184</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>0.0018067806591276</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>0.3386844899318212</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>0.9871990153057834</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>0.9990919358346636</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>1.798446329367261</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>146.6130696567517</v>
       </c>
-      <c r="AK10">
-        <v>0.8064871925863384</v>
-      </c>
       <c r="AL10">
+        <v>0.8064871925863383</v>
+      </c>
+      <c r="AM10">
         <v>1.078604825801148</v>
       </c>
-      <c r="AM10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>113</v>
+      <c r="AN10" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
       </c>
       <c r="AP10" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43">
+        <v>178</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
@@ -6082,100 +6214,106 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="O11">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>4</v>
       </c>
-      <c r="P11">
-        <v>696</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
       <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
         <v>3</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>679</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>13</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>0.25</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>0.98121387283237</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>0.0714285714285714</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>0.995601173020528</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>16.23809523809525</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>0.9326741005680624</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>0.0063094632097098</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>0.8058795503167566</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>0.9680893875918908</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>0.9899602045728184</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>0.0018067806591276</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>0.3386844899318212</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>0.9871990153057834</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>0.9990919358346636</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>1.798446329367261</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>146.6130696567517</v>
       </c>
-      <c r="AK11">
-        <v>0.8064871925863384</v>
-      </c>
       <c r="AL11">
+        <v>0.8064871925863383</v>
+      </c>
+      <c r="AM11">
         <v>1.078604825801148</v>
       </c>
-      <c r="AM11" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>113</v>
+      <c r="AN11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
       </c>
       <c r="AP11" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43">
+        <v>178</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
         <v>67</v>
@@ -6204,100 +6342,106 @@
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="O12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>4</v>
       </c>
-      <c r="P12">
-        <v>696</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
       <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
         <v>3</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>679</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>13</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>0.25</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>0.98121387283237</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>0.0714285714285714</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>0.995601173020528</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>16.23809523809525</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>0.9326741005680624</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>0.0063094632097098</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>0.8058795503167566</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>0.9680893875918908</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>0.9899602045728184</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>0.0018067806591276</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>0.3386844899318212</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>0.9871990153057834</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>0.9990919358346636</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>1.798446329367261</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>146.6130696567517</v>
       </c>
-      <c r="AK12">
-        <v>0.8064871925863384</v>
-      </c>
       <c r="AL12">
+        <v>0.8064871925863383</v>
+      </c>
+      <c r="AM12">
         <v>1.078604825801148</v>
       </c>
-      <c r="AM12" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>113</v>
+      <c r="AN12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
       </c>
       <c r="AP12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
+        <v>178</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
         <v>67</v>
@@ -6326,11 +6470,11 @@
       <c r="L13">
         <v>1</v>
       </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>696</v>
+      <c r="M13">
+        <v>0.01236325873583222</v>
+      </c>
+      <c r="N13">
+        <v>0.02423198712223115</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -6339,90 +6483,96 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T13">
         <v>681</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V13">
-        <v>0.0201438848920863</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>0.001466275659824</v>
+        <v>0.9798561151079136</v>
       </c>
       <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0.998533724340176</v>
       </c>
       <c r="Z13">
-        <v>0.998533724340176</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>0.025</v>
+        <v>1.001468428781204</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>0.0110555406807255</v>
+        <v>0.975</v>
       </c>
       <c r="AD13">
-        <v>0.0335672394872023</v>
+        <v>0.9664327605127976</v>
       </c>
       <c r="AE13">
-        <v>3.712219656182343E-05</v>
+        <v>0.9889444593192744</v>
       </c>
       <c r="AF13">
-        <v>0.008142236144011</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH13">
-        <v>1</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK13">
-        <v>0.9956661100984956</v>
+        <v>0.9918577638559892</v>
+      </c>
+      <c r="AI13">
+        <v>0.9999628778034382</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
       </c>
       <c r="AL13">
-        <v>1.001409597586914</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>113</v>
+        <v>0.9985923865815634</v>
+      </c>
+      <c r="AM13">
+        <v>1.004352754259233</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
       </c>
       <c r="AP13" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
+        <v>179</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F14">
         <v>0.99459034072357</v>
@@ -6445,11 +6595,11 @@
       <c r="L14">
         <v>1</v>
       </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>696</v>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -6458,90 +6608,96 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <v>681</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V14">
-        <v>0.0201438848920863</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>0.001466275659824</v>
+        <v>0.9798561151079136</v>
       </c>
       <c r="X14">
-        <v>1</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0.998533724340176</v>
       </c>
       <c r="Z14">
-        <v>0.998533724340176</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>0.025</v>
+        <v>1.001468428781204</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>0.0110555406807255</v>
+        <v>0.975</v>
       </c>
       <c r="AD14">
-        <v>0.0335672394872023</v>
+        <v>0.9664327605127976</v>
       </c>
       <c r="AE14">
-        <v>3.712219656182343E-05</v>
+        <v>0.9889444593192744</v>
       </c>
       <c r="AF14">
-        <v>0.008142236144011</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH14">
-        <v>1</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK14">
-        <v>0.9956661100984956</v>
+        <v>0.9918577638559892</v>
+      </c>
+      <c r="AI14">
+        <v>0.9999628778034382</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
       </c>
       <c r="AL14">
-        <v>1.001409597586914</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>113</v>
+        <v>0.9985923865815634</v>
+      </c>
+      <c r="AM14">
+        <v>1.004352754259233</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
       </c>
       <c r="AP14" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
+        <v>180</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
         <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15">
         <v>0.9818665838039508</v>
@@ -6564,11 +6720,11 @@
       <c r="L15">
         <v>1</v>
       </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>696</v>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -6577,90 +6733,96 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T15">
         <v>681</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V15">
-        <v>0.0201438848920863</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>0.001466275659824</v>
+        <v>0.9798561151079136</v>
       </c>
       <c r="X15">
-        <v>1</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0.998533724340176</v>
       </c>
       <c r="Z15">
-        <v>0.998533724340176</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>0.025</v>
+        <v>1.001468428781204</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.0110555406807255</v>
+        <v>0.975</v>
       </c>
       <c r="AD15">
-        <v>0.0335672394872023</v>
+        <v>0.9664327605127976</v>
       </c>
       <c r="AE15">
-        <v>3.712219656182343E-05</v>
+        <v>0.9889444593192744</v>
       </c>
       <c r="AF15">
-        <v>0.008142236144011</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH15">
-        <v>1</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK15">
-        <v>0.9956661100984956</v>
+        <v>0.9918577638559892</v>
+      </c>
+      <c r="AI15">
+        <v>0.9999628778034382</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
       </c>
       <c r="AL15">
-        <v>1.001409597586914</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>113</v>
+        <v>0.9985923865815634</v>
+      </c>
+      <c r="AM15">
+        <v>1.004352754259233</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
       </c>
       <c r="AP15" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43">
+        <v>175</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
         <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16">
         <v>0.9818665838039508</v>
@@ -6683,11 +6845,11 @@
       <c r="L16">
         <v>1</v>
       </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>696</v>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -6696,84 +6858,90 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T16">
         <v>681</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V16">
-        <v>0.0201438848920863</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>0.001466275659824</v>
+        <v>0.9798561151079136</v>
       </c>
       <c r="X16">
-        <v>1</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0.998533724340176</v>
       </c>
       <c r="Z16">
-        <v>0.998533724340176</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>0.025</v>
+        <v>1.001468428781204</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>0.0110555406807255</v>
+        <v>0.975</v>
       </c>
       <c r="AD16">
-        <v>0.0335672394872023</v>
+        <v>0.9664327605127976</v>
       </c>
       <c r="AE16">
-        <v>3.712219656182343E-05</v>
+        <v>0.9889444593192744</v>
       </c>
       <c r="AF16">
-        <v>0.008142236144011</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH16">
-        <v>1</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK16">
-        <v>0.9956661100984956</v>
+        <v>0.9918577638559892</v>
+      </c>
+      <c r="AI16">
+        <v>0.9999628778034382</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
       </c>
       <c r="AL16">
-        <v>1.001409597586914</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>113</v>
+        <v>0.9985923865815634</v>
+      </c>
+      <c r="AM16">
+        <v>1.004352754259233</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
       </c>
       <c r="AP16" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:43">
+        <v>175</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
         <v>67</v>
@@ -6802,11 +6970,11 @@
       <c r="L17">
         <v>1</v>
       </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>696</v>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -6815,84 +6983,90 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <v>681</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V17">
-        <v>0.0201438848920863</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>0.001466275659824</v>
+        <v>0.9798561151079136</v>
       </c>
       <c r="X17">
-        <v>1</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0.998533724340176</v>
       </c>
       <c r="Z17">
-        <v>0.998533724340176</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.025</v>
+        <v>1.001468428781204</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>0.0110555406807255</v>
+        <v>0.975</v>
       </c>
       <c r="AD17">
-        <v>0.0335672394872023</v>
+        <v>0.9664327605127976</v>
       </c>
       <c r="AE17">
-        <v>3.712219656182343E-05</v>
+        <v>0.9889444593192744</v>
       </c>
       <c r="AF17">
-        <v>0.008142236144011</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH17">
-        <v>1</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK17">
-        <v>0.9956661100984956</v>
+        <v>0.9918577638559892</v>
+      </c>
+      <c r="AI17">
+        <v>0.9999628778034382</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
       </c>
       <c r="AL17">
-        <v>1.001409597586914</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>113</v>
+        <v>0.9985923865815634</v>
+      </c>
+      <c r="AM17">
+        <v>1.004352754259233</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
       </c>
       <c r="AP17" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:43">
+        <v>181</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45">
       <c r="A18" t="s">
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
         <v>67</v>
@@ -6921,11 +7095,11 @@
       <c r="L18">
         <v>1</v>
       </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>696</v>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -6934,84 +7108,90 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T18">
         <v>681</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V18">
-        <v>0.0201438848920863</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>0.001466275659824</v>
+        <v>0.9798561151079136</v>
       </c>
       <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0.998533724340176</v>
       </c>
       <c r="Z18">
-        <v>0.998533724340176</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>0.025</v>
+        <v>1.001468428781204</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>0.0110555406807255</v>
+        <v>0.975</v>
       </c>
       <c r="AD18">
-        <v>0.0335672394872023</v>
+        <v>0.9664327605127976</v>
       </c>
       <c r="AE18">
-        <v>3.712219656182343E-05</v>
+        <v>0.9889444593192744</v>
       </c>
       <c r="AF18">
-        <v>0.008142236144011</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH18">
-        <v>1</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK18">
-        <v>0.9956661100984956</v>
+        <v>0.9918577638559892</v>
+      </c>
+      <c r="AI18">
+        <v>0.9999628778034382</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
       </c>
       <c r="AL18">
-        <v>1.001409597586914</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>113</v>
+        <v>0.9985923865815634</v>
+      </c>
+      <c r="AM18">
+        <v>1.004352754259233</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
       </c>
       <c r="AP18" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:43">
+        <v>182</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45">
       <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -7040,11 +7220,11 @@
       <c r="L19">
         <v>1</v>
       </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>696</v>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -7053,84 +7233,90 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T19">
         <v>681</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V19">
-        <v>0.0201438848920863</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>0.001466275659824</v>
+        <v>0.9798561151079136</v>
       </c>
       <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0.998533724340176</v>
       </c>
       <c r="Z19">
-        <v>0.998533724340176</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.025</v>
+        <v>1.001468428781204</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.0110555406807255</v>
+        <v>0.975</v>
       </c>
       <c r="AD19">
-        <v>0.0335672394872023</v>
+        <v>0.9664327605127976</v>
       </c>
       <c r="AE19">
-        <v>3.712219656182343E-05</v>
+        <v>0.9889444593192744</v>
       </c>
       <c r="AF19">
-        <v>0.008142236144011</v>
+        <v>0</v>
       </c>
       <c r="AG19">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH19">
-        <v>1</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK19">
-        <v>0.9956661100984956</v>
+        <v>0.9918577638559892</v>
+      </c>
+      <c r="AI19">
+        <v>0.9999628778034382</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
       </c>
       <c r="AL19">
-        <v>1.001409597586914</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN19">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>113</v>
+        <v>0.9985923865815634</v>
+      </c>
+      <c r="AM19">
+        <v>1.004352754259233</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
       </c>
       <c r="AP19" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:43">
+        <v>183</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s">
         <v>68</v>
@@ -7159,11 +7345,11 @@
       <c r="L20">
         <v>1</v>
       </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>696</v>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -7172,84 +7358,90 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T20">
         <v>681</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V20">
-        <v>0.0201438848920863</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>0.001466275659824</v>
+        <v>0.9798561151079136</v>
       </c>
       <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0.998533724340176</v>
       </c>
       <c r="Z20">
-        <v>0.998533724340176</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>0.025</v>
+        <v>1.001468428781204</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.0110555406807255</v>
+        <v>0.975</v>
       </c>
       <c r="AD20">
-        <v>0.0335672394872023</v>
+        <v>0.9664327605127976</v>
       </c>
       <c r="AE20">
-        <v>3.712219656182343E-05</v>
+        <v>0.9889444593192744</v>
       </c>
       <c r="AF20">
-        <v>0.008142236144011</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH20">
-        <v>1</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK20">
-        <v>0.9956661100984956</v>
+        <v>0.9918577638559892</v>
+      </c>
+      <c r="AI20">
+        <v>0.9999628778034382</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
       </c>
       <c r="AL20">
-        <v>1.001409597586914</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>113</v>
+        <v>0.9985923865815634</v>
+      </c>
+      <c r="AM20">
+        <v>1.004352754259233</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
       </c>
       <c r="AP20" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:43">
+        <v>184</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
         <v>67</v>
@@ -7278,11 +7470,11 @@
       <c r="L21">
         <v>1</v>
       </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>696</v>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -7291,84 +7483,90 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T21">
         <v>681</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V21">
-        <v>0.0201438848920863</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>0.001466275659824</v>
+        <v>0.9798561151079136</v>
       </c>
       <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0.998533724340176</v>
       </c>
       <c r="Z21">
-        <v>0.998533724340176</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>0.025</v>
+        <v>1.001468428781204</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.0110555406807255</v>
+        <v>0.975</v>
       </c>
       <c r="AD21">
-        <v>0.0335672394872023</v>
+        <v>0.9664327605127976</v>
       </c>
       <c r="AE21">
-        <v>3.712219656182343E-05</v>
+        <v>0.9889444593192744</v>
       </c>
       <c r="AF21">
-        <v>0.008142236144011</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH21">
-        <v>1</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK21">
-        <v>0.9956661100984956</v>
+        <v>0.9918577638559892</v>
+      </c>
+      <c r="AI21">
+        <v>0.9999628778034382</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
       </c>
       <c r="AL21">
-        <v>1.001409597586914</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>113</v>
+        <v>0.9985923865815634</v>
+      </c>
+      <c r="AM21">
+        <v>1.004352754259233</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
       </c>
       <c r="AP21" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:43">
+        <v>185</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45">
       <c r="A22" t="s">
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
         <v>67</v>
@@ -7397,11 +7595,11 @@
       <c r="L22">
         <v>1</v>
       </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>696</v>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -7410,84 +7608,90 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T22">
         <v>681</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V22">
-        <v>0.0201438848920863</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>0.001466275659824</v>
+        <v>0.9798561151079136</v>
       </c>
       <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0.998533724340176</v>
       </c>
       <c r="Z22">
-        <v>0.998533724340176</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>0.025</v>
+        <v>1.001468428781204</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.0110555406807255</v>
+        <v>0.975</v>
       </c>
       <c r="AD22">
-        <v>0.0335672394872023</v>
+        <v>0.9664327605127976</v>
       </c>
       <c r="AE22">
-        <v>3.712219656182343E-05</v>
+        <v>0.9889444593192744</v>
       </c>
       <c r="AF22">
-        <v>0.008142236144011</v>
+        <v>0</v>
       </c>
       <c r="AG22">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH22">
-        <v>1</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK22">
-        <v>0.9956661100984956</v>
+        <v>0.9918577638559892</v>
+      </c>
+      <c r="AI22">
+        <v>0.9999628778034382</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
       </c>
       <c r="AL22">
-        <v>1.001409597586914</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>113</v>
+        <v>0.9985923865815634</v>
+      </c>
+      <c r="AM22">
+        <v>1.004352754259233</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
       </c>
       <c r="AP22" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:43">
+        <v>186</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
         <v>67</v>
@@ -7516,11 +7720,11 @@
       <c r="L23">
         <v>1</v>
       </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23">
-        <v>696</v>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -7529,84 +7733,90 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T23">
         <v>681</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V23">
-        <v>0.0201438848920863</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>0.001466275659824</v>
+        <v>0.9798561151079136</v>
       </c>
       <c r="X23">
-        <v>1</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0.998533724340176</v>
       </c>
       <c r="Z23">
-        <v>0.998533724340176</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>0.025</v>
+        <v>1.001468428781204</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.0110555406807255</v>
+        <v>0.975</v>
       </c>
       <c r="AD23">
-        <v>0.0335672394872023</v>
+        <v>0.9664327605127976</v>
       </c>
       <c r="AE23">
-        <v>3.712219656182343E-05</v>
+        <v>0.9889444593192744</v>
       </c>
       <c r="AF23">
-        <v>0.008142236144011</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH23">
-        <v>1</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK23">
-        <v>0.9956661100984956</v>
+        <v>0.9918577638559892</v>
+      </c>
+      <c r="AI23">
+        <v>0.9999628778034382</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
       </c>
       <c r="AL23">
-        <v>1.001409597586914</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>113</v>
+        <v>0.9985923865815634</v>
+      </c>
+      <c r="AM23">
+        <v>1.004352754259233</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
       </c>
       <c r="AP23" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:43">
+        <v>186</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45">
       <c r="A24" t="s">
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
         <v>67</v>
@@ -7635,11 +7845,11 @@
       <c r="L24">
         <v>1</v>
       </c>
-      <c r="O24">
-        <v>2</v>
-      </c>
-      <c r="P24">
-        <v>696</v>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -7648,84 +7858,90 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T24">
         <v>680</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V24">
-        <v>0.0201729106628242</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>0.002932551319648</v>
+        <v>0.9798270893371758</v>
       </c>
       <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0.997067448680352</v>
       </c>
       <c r="Z24">
-        <v>0.997067448680352</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>0.158113883008393</v>
+        <v>1.002941176470588</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>0.0110715329473884</v>
+        <v>0.841886116991607</v>
       </c>
       <c r="AD24">
-        <v>0.0336152741989476</v>
+        <v>0.9663847258010524</v>
       </c>
       <c r="AE24">
-        <v>0.0003553430854548</v>
+        <v>0.9889284670526116</v>
       </c>
       <c r="AF24">
-        <v>0.0105528841606226</v>
+        <v>0</v>
       </c>
       <c r="AG24">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH24">
-        <v>1</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK24">
-        <v>0.9930174260597496</v>
+        <v>0.9894471158393772</v>
+      </c>
+      <c r="AI24">
+        <v>0.9996446569145452</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
       </c>
       <c r="AL24">
-        <v>1.001133989322489</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>113</v>
+        <v>0.998867295152712</v>
+      </c>
+      <c r="AM24">
+        <v>1.00703167311772</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
       </c>
       <c r="AP24" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:43">
+        <v>187</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C25" t="s">
         <v>67</v>
@@ -7754,11 +7970,11 @@
       <c r="L25">
         <v>1</v>
       </c>
-      <c r="O25">
-        <v>2</v>
-      </c>
-      <c r="P25">
-        <v>696</v>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -7767,84 +7983,90 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T25">
         <v>680</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V25">
-        <v>0.0201729106628242</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>0.002932551319648</v>
+        <v>0.9798270893371758</v>
       </c>
       <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0.997067448680352</v>
       </c>
       <c r="Z25">
-        <v>0.997067448680352</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>0.158113883008393</v>
+        <v>1.002941176470588</v>
       </c>
       <c r="AB25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>0.0110715329473884</v>
+        <v>0.841886116991607</v>
       </c>
       <c r="AD25">
-        <v>0.0336152741989476</v>
+        <v>0.9663847258010524</v>
       </c>
       <c r="AE25">
-        <v>0.0003553430854548</v>
+        <v>0.9889284670526116</v>
       </c>
       <c r="AF25">
-        <v>0.0105528841606226</v>
+        <v>0</v>
       </c>
       <c r="AG25">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH25">
-        <v>1</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK25">
-        <v>0.9930174260597496</v>
+        <v>0.9894471158393772</v>
+      </c>
+      <c r="AI25">
+        <v>0.9996446569145452</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
       </c>
       <c r="AL25">
-        <v>1.001133989322489</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN25">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>113</v>
+        <v>0.998867295152712</v>
+      </c>
+      <c r="AM25">
+        <v>1.00703167311772</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
       </c>
       <c r="AP25" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:43">
+        <v>175</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45">
       <c r="A26" t="s">
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C26" t="s">
         <v>67</v>
@@ -7873,11 +8095,11 @@
       <c r="L26">
         <v>1</v>
       </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <v>696</v>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -7886,84 +8108,90 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T26">
         <v>681</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V26">
-        <v>0.0201438848920863</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>0.001466275659824</v>
+        <v>0.9798561151079136</v>
       </c>
       <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0.998533724340176</v>
       </c>
       <c r="Z26">
-        <v>0.998533724340176</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.025</v>
+        <v>1.001468428781204</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>0.0110555406807255</v>
+        <v>0.975</v>
       </c>
       <c r="AD26">
-        <v>0.0335672394872023</v>
+        <v>0.9664327605127976</v>
       </c>
       <c r="AE26">
-        <v>3.712219656182343E-05</v>
+        <v>0.9889444593192744</v>
       </c>
       <c r="AF26">
-        <v>0.008142236144011</v>
+        <v>0</v>
       </c>
       <c r="AG26">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH26">
-        <v>1</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK26">
-        <v>0.9956661100984956</v>
+        <v>0.9918577638559892</v>
+      </c>
+      <c r="AI26">
+        <v>0.9999628778034382</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
       </c>
       <c r="AL26">
-        <v>1.001409597586914</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN26">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>113</v>
+        <v>0.9985923865815634</v>
+      </c>
+      <c r="AM26">
+        <v>1.004352754259233</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
       </c>
       <c r="AP26" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:43">
+        <v>188</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
@@ -7992,11 +8220,11 @@
       <c r="L27">
         <v>1</v>
       </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <v>696</v>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -8005,84 +8233,87 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T27">
         <v>681</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V27">
-        <v>0.0201438848920863</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>0.001466275659824</v>
+        <v>0.9798561151079136</v>
       </c>
       <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0.998533724340176</v>
       </c>
       <c r="Z27">
-        <v>0.998533724340176</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.025</v>
+        <v>1.001468428781204</v>
       </c>
       <c r="AB27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.0110555406807255</v>
+        <v>0.975</v>
       </c>
       <c r="AD27">
-        <v>0.0335672394872023</v>
+        <v>0.9664327605127976</v>
       </c>
       <c r="AE27">
-        <v>3.712219656182343E-05</v>
+        <v>0.9889444593192744</v>
       </c>
       <c r="AF27">
-        <v>0.008142236144011</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH27">
-        <v>1</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK27">
-        <v>0.9956661100984956</v>
+        <v>0.9918577638559892</v>
+      </c>
+      <c r="AI27">
+        <v>0.9999628778034382</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
       </c>
       <c r="AL27">
-        <v>1.001409597586914</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:43">
+        <v>0.9985923865815634</v>
+      </c>
+      <c r="AM27">
+        <v>1.004352754259233</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45">
       <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -8111,100 +8342,103 @@
       <c r="L28">
         <v>1</v>
       </c>
-      <c r="O28">
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>12</v>
       </c>
-      <c r="P28">
-        <v>696</v>
-      </c>
-      <c r="Q28">
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
         <v>11</v>
-      </c>
-      <c r="R28">
-        <v>1</v>
-      </c>
-      <c r="S28">
-        <v>13</v>
       </c>
       <c r="T28">
         <v>671</v>
       </c>
       <c r="U28">
-        <v>0.9166666666666666</v>
+        <v>13</v>
       </c>
       <c r="V28">
-        <v>0.0190058479532163</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="W28">
-        <v>0.0161290322580645</v>
+        <v>0.9809941520467836</v>
       </c>
       <c r="X28">
-        <v>0.9285714285714286</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Y28">
-        <v>0.2258064516129033</v>
+        <v>0.9838709677419356</v>
       </c>
       <c r="Z28">
-        <v>1.05955334987593</v>
+        <v>4.428571428571432</v>
       </c>
       <c r="AA28">
-        <v>0.6152038348490562</v>
+        <v>0.9437939110070258</v>
       </c>
       <c r="AB28">
-        <v>0.9978924067681384</v>
+        <v>0.0021075932318616</v>
       </c>
       <c r="AC28">
-        <v>0.0101576607310812</v>
+        <v>0.3847961651509438</v>
       </c>
       <c r="AD28">
-        <v>0.0322813010718977</v>
+        <v>0.967718698928102</v>
       </c>
       <c r="AE28">
-        <v>0.008078342116644601</v>
+        <v>0.9898423392689188</v>
       </c>
       <c r="AF28">
-        <v>0.0286756940357265</v>
+        <v>0.0018067806591276</v>
       </c>
       <c r="AG28">
-        <v>0.6613155100681788</v>
+        <v>0.3386844899318212</v>
       </c>
       <c r="AH28">
-        <v>0.9981932193408724</v>
+        <v>0.9713243059642735</v>
       </c>
       <c r="AI28">
-        <v>0.0312537509863036</v>
+        <v>0.9919216578833552</v>
       </c>
       <c r="AJ28">
-        <v>1.631437890842453</v>
+        <v>0.6129562183232206</v>
       </c>
       <c r="AK28">
-        <v>0.9159878415079248</v>
+        <v>31.99615945101221</v>
       </c>
       <c r="AL28">
-        <v>1.225620308873492</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:43">
+        <v>0.8159133728121176</v>
+      </c>
+      <c r="AM28">
+        <v>1.091717547640995</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45">
       <c r="A29" t="s">
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -8233,11 +8467,11 @@
       <c r="L29">
         <v>1</v>
       </c>
-      <c r="O29">
-        <v>4</v>
-      </c>
-      <c r="P29">
-        <v>696</v>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -8246,84 +8480,90 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="T29">
         <v>678</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V29">
-        <v>0.0202312138728323</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>0.0058651026392961</v>
+        <v>0.9797687861271676</v>
       </c>
       <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0.9941348973607038</v>
       </c>
       <c r="Z29">
-        <v>0.9941348973607038</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>0.3976353643835142</v>
+        <v>1.005899705014749</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>0.0111036566862451</v>
+        <v>0.6023646356164858</v>
       </c>
       <c r="AD29">
-        <v>0.0337117572115804</v>
+        <v>0.9662882427884196</v>
       </c>
       <c r="AE29">
-        <v>0.0016002863815347</v>
+        <v>0.9888963433137548</v>
       </c>
       <c r="AF29">
-        <v>0.0149483946724391</v>
+        <v>0</v>
       </c>
       <c r="AG29">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH29">
-        <v>1</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK29">
-        <v>0.9884205688936668</v>
+        <v>0.9850516053275608</v>
+      </c>
+      <c r="AI29">
+        <v>0.9983997136184652</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
       </c>
       <c r="AL29">
-        <v>0.9998822619166861</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29" t="s">
-        <v>113</v>
+        <v>1.000117751947201</v>
+      </c>
+      <c r="AM29">
+        <v>1.011715085127473</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
       </c>
       <c r="AP29" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:43">
+        <v>189</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45">
       <c r="A30" t="s">
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
@@ -8352,11 +8592,11 @@
       <c r="L30">
         <v>1</v>
       </c>
-      <c r="O30">
-        <v>4</v>
-      </c>
-      <c r="P30">
-        <v>696</v>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -8365,84 +8605,90 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="T30">
         <v>678</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V30">
-        <v>0.0202312138728323</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>0.0058651026392961</v>
+        <v>0.9797687861271676</v>
       </c>
       <c r="X30">
-        <v>1</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0.9941348973607038</v>
       </c>
       <c r="Z30">
-        <v>0.9941348973607038</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.3976353643835142</v>
+        <v>1.005899705014749</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>0.0111036566862451</v>
+        <v>0.6023646356164858</v>
       </c>
       <c r="AD30">
-        <v>0.0337117572115804</v>
+        <v>0.9662882427884196</v>
       </c>
       <c r="AE30">
-        <v>0.0016002863815347</v>
+        <v>0.9888963433137548</v>
       </c>
       <c r="AF30">
-        <v>0.0149483946724391</v>
+        <v>0</v>
       </c>
       <c r="AG30">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH30">
-        <v>1</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK30">
-        <v>0.9884205688936668</v>
+        <v>0.9850516053275608</v>
+      </c>
+      <c r="AI30">
+        <v>0.9983997136184652</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
       </c>
       <c r="AL30">
-        <v>0.9998822619166861</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN30">
-        <v>0</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>113</v>
+        <v>1.000117751947201</v>
+      </c>
+      <c r="AM30">
+        <v>1.011715085127473</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
       </c>
       <c r="AP30" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:43">
+        <v>190</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45">
       <c r="A31" t="s">
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
         <v>67</v>
@@ -8471,11 +8717,11 @@
       <c r="L31">
         <v>1</v>
       </c>
-      <c r="O31">
-        <v>5</v>
-      </c>
-      <c r="P31">
-        <v>696</v>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -8484,84 +8730,90 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="T31">
         <v>677</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V31">
-        <v>0.0202604920405209</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>0.0073313782991202</v>
+        <v>0.9797395079594792</v>
       </c>
       <c r="X31">
-        <v>1</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0.9926686217008798</v>
       </c>
       <c r="Z31">
-        <v>0.9926686217008798</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.4781762498950185</v>
+        <v>1.007385524372231</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>0.0111197885629399</v>
+        <v>0.5218237501049814</v>
       </c>
       <c r="AD31">
-        <v>0.0337602067011441</v>
+        <v>0.9662397932988558</v>
       </c>
       <c r="AE31">
-        <v>0.002384638766605</v>
+        <v>0.98888021143706</v>
       </c>
       <c r="AF31">
-        <v>0.0170254830784847</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH31">
-        <v>1</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK31">
-        <v>0.986286706033335</v>
+        <v>0.9829745169215152</v>
+      </c>
+      <c r="AI31">
+        <v>0.9976153612333948</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
       </c>
       <c r="AL31">
-        <v>0.9990918325084062</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN31">
-        <v>0</v>
-      </c>
-      <c r="AO31" t="s">
-        <v>113</v>
+        <v>1.000908993009493</v>
+      </c>
+      <c r="AM31">
+        <v>1.013903963099958</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
       </c>
       <c r="AP31" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:43">
+        <v>181</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45">
       <c r="A32" t="s">
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>67</v>
@@ -8590,11 +8842,11 @@
       <c r="L32">
         <v>1</v>
       </c>
-      <c r="O32">
-        <v>9</v>
-      </c>
-      <c r="P32">
-        <v>696</v>
+      <c r="M32">
+        <v>0.09489697566252275</v>
+      </c>
+      <c r="N32">
+        <v>0.1788443002870621</v>
       </c>
       <c r="Q32">
         <v>9</v>
@@ -8603,84 +8855,90 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T32">
         <v>673</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V32">
-        <v>0.0203784570596797</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>0.0131964809384164</v>
+        <v>0.9796215429403202</v>
       </c>
       <c r="X32">
-        <v>1</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0.9868035190615836</v>
       </c>
       <c r="Z32">
-        <v>0.9868035190615836</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>0.6637328831200571</v>
+        <v>1.013372956909361</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>0.0111847875581726</v>
+        <v>0.3362671168799429</v>
       </c>
       <c r="AD32">
-        <v>0.0339554052425916</v>
+        <v>0.9660445947574084</v>
       </c>
       <c r="AE32">
-        <v>0.0060515491227743</v>
+        <v>0.9888152124418278</v>
       </c>
       <c r="AF32">
-        <v>0.0249026830398206</v>
+        <v>0</v>
       </c>
       <c r="AG32">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH32">
-        <v>1</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK32">
-        <v>0.9782761107539188</v>
+        <v>0.9750973169601794</v>
+      </c>
+      <c r="AI32">
+        <v>0.9939484508772256</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
       </c>
       <c r="AL32">
-        <v>0.9954052588301174</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN32">
-        <v>0</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>113</v>
+        <v>1.00461595026661</v>
+      </c>
+      <c r="AM32">
+        <v>1.022206296368967</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
       </c>
       <c r="AP32" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:43">
+        <v>186</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45">
       <c r="A33" t="s">
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s">
         <v>67</v>
@@ -8709,11 +8967,11 @@
       <c r="L33">
         <v>1</v>
       </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33">
-        <v>696</v>
+      <c r="M33">
+        <v>0.1807376917058775</v>
+      </c>
+      <c r="N33">
+        <v>0.3280054405032592</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -8722,84 +8980,90 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T33">
         <v>681</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V33">
-        <v>0.0201438848920863</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>0.001466275659824</v>
+        <v>0.9798561151079136</v>
       </c>
       <c r="X33">
-        <v>1</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0.998533724340176</v>
       </c>
       <c r="Z33">
-        <v>0.998533724340176</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.025</v>
+        <v>1.001468428781204</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>0.0110555406807255</v>
+        <v>0.975</v>
       </c>
       <c r="AD33">
-        <v>0.0335672394872023</v>
+        <v>0.9664327605127976</v>
       </c>
       <c r="AE33">
-        <v>3.712219656182343E-05</v>
+        <v>0.9889444593192744</v>
       </c>
       <c r="AF33">
-        <v>0.008142236144011</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH33">
-        <v>1</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK33">
-        <v>0.9956661100984956</v>
+        <v>0.9918577638559892</v>
+      </c>
+      <c r="AI33">
+        <v>0.9999628778034382</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
       </c>
       <c r="AL33">
-        <v>1.001409597586914</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN33">
-        <v>0</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>113</v>
+        <v>0.9985923865815634</v>
+      </c>
+      <c r="AM33">
+        <v>1.004352754259233</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
       </c>
       <c r="AP33" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:43">
+        <v>191</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45">
       <c r="A34" t="s">
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
         <v>67</v>
@@ -8828,11 +9092,11 @@
       <c r="L34">
         <v>1</v>
       </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
-      <c r="P34">
-        <v>696</v>
+      <c r="M34">
+        <v>0.4496287989658576</v>
+      </c>
+      <c r="N34">
+        <v>0.6937512192460265</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -8841,84 +9105,90 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T34">
         <v>681</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V34">
-        <v>0.0201438848920863</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>0.001466275659824</v>
+        <v>0.9798561151079136</v>
       </c>
       <c r="X34">
-        <v>1</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0.998533724340176</v>
       </c>
       <c r="Z34">
-        <v>0.998533724340176</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.025</v>
+        <v>1.001468428781204</v>
       </c>
       <c r="AB34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>0.0110555406807255</v>
+        <v>0.975</v>
       </c>
       <c r="AD34">
-        <v>0.0335672394872023</v>
+        <v>0.9664327605127976</v>
       </c>
       <c r="AE34">
-        <v>3.712219656182343E-05</v>
+        <v>0.9889444593192744</v>
       </c>
       <c r="AF34">
-        <v>0.008142236144011</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH34">
-        <v>1</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK34">
-        <v>0.9956661100984956</v>
+        <v>0.9918577638559892</v>
+      </c>
+      <c r="AI34">
+        <v>0.9999628778034382</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
       </c>
       <c r="AL34">
-        <v>1.001409597586914</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN34">
-        <v>0</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>113</v>
+        <v>0.9985923865815634</v>
+      </c>
+      <c r="AM34">
+        <v>1.004352754259233</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
       </c>
       <c r="AP34" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:43">
+        <v>192</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
         <v>67</v>
@@ -8947,11 +9217,11 @@
       <c r="L35">
         <v>1</v>
       </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35">
-        <v>696</v>
+      <c r="M35">
+        <v>0.4582188045715468</v>
+      </c>
+      <c r="N35">
+        <v>0.6937512192460265</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -8960,84 +9230,90 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T35">
         <v>681</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V35">
-        <v>0.0201438848920863</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>0.001466275659824</v>
+        <v>0.9798561151079136</v>
       </c>
       <c r="X35">
-        <v>1</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0.998533724340176</v>
       </c>
       <c r="Z35">
-        <v>0.998533724340176</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>0.025</v>
+        <v>1.001468428781204</v>
       </c>
       <c r="AB35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>0.0110555406807255</v>
+        <v>0.975</v>
       </c>
       <c r="AD35">
-        <v>0.0335672394872023</v>
+        <v>0.9664327605127976</v>
       </c>
       <c r="AE35">
-        <v>3.712219656182343E-05</v>
+        <v>0.9889444593192744</v>
       </c>
       <c r="AF35">
-        <v>0.008142236144011</v>
+        <v>0</v>
       </c>
       <c r="AG35">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH35">
-        <v>1</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK35">
-        <v>0.9956661100984956</v>
+        <v>0.9918577638559892</v>
+      </c>
+      <c r="AI35">
+        <v>0.9999628778034382</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
       </c>
       <c r="AL35">
-        <v>1.001409597586914</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN35">
-        <v>0</v>
-      </c>
-      <c r="AO35" t="s">
-        <v>113</v>
+        <v>0.9985923865815634</v>
+      </c>
+      <c r="AM35">
+        <v>1.004352754259233</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
       </c>
       <c r="AP35" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:43">
+        <v>192</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
         <v>67</v>
@@ -9066,11 +9342,11 @@
       <c r="L36">
         <v>1</v>
       </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36">
-        <v>696</v>
+      <c r="M36">
+        <v>0.4666203174794641</v>
+      </c>
+      <c r="N36">
+        <v>0.6937512192460265</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -9079,84 +9355,90 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T36">
         <v>681</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V36">
-        <v>0.0201438848920863</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>0.001466275659824</v>
+        <v>0.9798561151079136</v>
       </c>
       <c r="X36">
-        <v>1</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0.998533724340176</v>
       </c>
       <c r="Z36">
-        <v>0.998533724340176</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>0.025</v>
+        <v>1.001468428781204</v>
       </c>
       <c r="AB36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>0.0110555406807255</v>
+        <v>0.975</v>
       </c>
       <c r="AD36">
-        <v>0.0335672394872023</v>
+        <v>0.9664327605127976</v>
       </c>
       <c r="AE36">
-        <v>3.712219656182343E-05</v>
+        <v>0.9889444593192744</v>
       </c>
       <c r="AF36">
-        <v>0.008142236144011</v>
+        <v>0</v>
       </c>
       <c r="AG36">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH36">
-        <v>1</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK36">
-        <v>0.9956661100984956</v>
+        <v>0.9918577638559892</v>
+      </c>
+      <c r="AI36">
+        <v>0.9999628778034382</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
       </c>
       <c r="AL36">
-        <v>1.001409597586914</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN36">
-        <v>0</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>113</v>
+        <v>0.9985923865815634</v>
+      </c>
+      <c r="AM36">
+        <v>1.004352754259233</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
       </c>
       <c r="AP36" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:43">
+        <v>192</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45">
       <c r="A37" t="s">
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s">
         <v>67</v>
@@ -9185,11 +9467,11 @@
       <c r="L37">
         <v>1</v>
       </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-      <c r="P37">
-        <v>696</v>
+      <c r="M37">
+        <v>0.4722339296466355</v>
+      </c>
+      <c r="N37">
+        <v>0.6937512192460265</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -9198,84 +9480,90 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T37">
         <v>681</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V37">
-        <v>0.0201438848920863</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>0.001466275659824</v>
+        <v>0.9798561151079136</v>
       </c>
       <c r="X37">
-        <v>1</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0.998533724340176</v>
       </c>
       <c r="Z37">
-        <v>0.998533724340176</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>0.025</v>
+        <v>1.001468428781204</v>
       </c>
       <c r="AB37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC37">
-        <v>0.0110555406807255</v>
+        <v>0.975</v>
       </c>
       <c r="AD37">
-        <v>0.0335672394872023</v>
+        <v>0.9664327605127976</v>
       </c>
       <c r="AE37">
-        <v>3.712219656182343E-05</v>
+        <v>0.9889444593192744</v>
       </c>
       <c r="AF37">
-        <v>0.008142236144011</v>
+        <v>0</v>
       </c>
       <c r="AG37">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH37">
-        <v>1</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK37">
-        <v>0.9956661100984956</v>
+        <v>0.9918577638559892</v>
+      </c>
+      <c r="AI37">
+        <v>0.9999628778034382</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
       </c>
       <c r="AL37">
-        <v>1.001409597586914</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN37">
-        <v>0</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>113</v>
+        <v>0.9985923865815634</v>
+      </c>
+      <c r="AM37">
+        <v>1.004352754259233</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
       </c>
       <c r="AP37" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:43">
+        <v>192</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45">
       <c r="A38" t="s">
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
         <v>67</v>
@@ -9304,11 +9592,11 @@
       <c r="L38">
         <v>1</v>
       </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="P38">
-        <v>696</v>
+      <c r="M38">
+        <v>0.4813783970278551</v>
+      </c>
+      <c r="N38">
+        <v>0.6937512192460265</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -9317,84 +9605,90 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T38">
         <v>681</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V38">
-        <v>0.0201438848920863</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>0.001466275659824</v>
+        <v>0.9798561151079136</v>
       </c>
       <c r="X38">
-        <v>1</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0.998533724340176</v>
       </c>
       <c r="Z38">
-        <v>0.998533724340176</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>0.025</v>
+        <v>1.001468428781204</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>0.0110555406807255</v>
+        <v>0.975</v>
       </c>
       <c r="AD38">
-        <v>0.0335672394872023</v>
+        <v>0.9664327605127976</v>
       </c>
       <c r="AE38">
-        <v>3.712219656182343E-05</v>
+        <v>0.9889444593192744</v>
       </c>
       <c r="AF38">
-        <v>0.008142236144011</v>
+        <v>0</v>
       </c>
       <c r="AG38">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH38">
-        <v>1</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK38">
-        <v>0.9956661100984956</v>
+        <v>0.9918577638559892</v>
+      </c>
+      <c r="AI38">
+        <v>0.9999628778034382</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
       </c>
       <c r="AL38">
-        <v>1.001409597586914</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN38">
-        <v>0</v>
-      </c>
-      <c r="AO38" t="s">
-        <v>113</v>
+        <v>0.9985923865815634</v>
+      </c>
+      <c r="AM38">
+        <v>1.004352754259233</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
       </c>
       <c r="AP38" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:43">
+        <v>193</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45">
       <c r="A39" t="s">
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
         <v>67</v>
@@ -9423,11 +9717,11 @@
       <c r="L39">
         <v>1</v>
       </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39">
-        <v>696</v>
+      <c r="M39">
+        <v>0.4734645476910257</v>
+      </c>
+      <c r="N39">
+        <v>0.6937512192460265</v>
       </c>
       <c r="Q39">
         <v>1</v>
@@ -9436,84 +9730,90 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T39">
         <v>681</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V39">
-        <v>0.0201438848920863</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>0.001466275659824</v>
+        <v>0.9798561151079136</v>
       </c>
       <c r="X39">
-        <v>1</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0.998533724340176</v>
       </c>
       <c r="Z39">
-        <v>0.998533724340176</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>0.025</v>
+        <v>1.001468428781204</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>0.0110555406807255</v>
+        <v>0.975</v>
       </c>
       <c r="AD39">
-        <v>0.0335672394872023</v>
+        <v>0.9664327605127976</v>
       </c>
       <c r="AE39">
-        <v>3.712219656182343E-05</v>
+        <v>0.9889444593192744</v>
       </c>
       <c r="AF39">
-        <v>0.008142236144011</v>
+        <v>0</v>
       </c>
       <c r="AG39">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH39">
-        <v>1</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK39">
-        <v>0.9956661100984956</v>
+        <v>0.9918577638559892</v>
+      </c>
+      <c r="AI39">
+        <v>0.9999628778034382</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
       </c>
       <c r="AL39">
-        <v>1.001409597586914</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN39">
-        <v>0</v>
-      </c>
-      <c r="AO39" t="s">
-        <v>113</v>
+        <v>0.9985923865815634</v>
+      </c>
+      <c r="AM39">
+        <v>1.004352754259233</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
       </c>
       <c r="AP39" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:43">
+        <v>194</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45">
       <c r="A40" t="s">
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
         <v>67</v>
@@ -9542,11 +9842,11 @@
       <c r="L40">
         <v>1</v>
       </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40">
-        <v>696</v>
+      <c r="M40">
+        <v>0.5291480338610421</v>
+      </c>
+      <c r="N40">
+        <v>0.7202292683108629</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -9555,84 +9855,90 @@
         <v>0</v>
       </c>
       <c r="S40">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T40">
         <v>681</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V40">
-        <v>0.0201438848920863</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>0.001466275659824</v>
+        <v>0.9798561151079136</v>
       </c>
       <c r="X40">
-        <v>1</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0.998533724340176</v>
       </c>
       <c r="Z40">
-        <v>0.998533724340176</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>0.025</v>
+        <v>1.001468428781204</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>0.0110555406807255</v>
+        <v>0.975</v>
       </c>
       <c r="AD40">
-        <v>0.0335672394872023</v>
+        <v>0.9664327605127976</v>
       </c>
       <c r="AE40">
-        <v>3.712219656182343E-05</v>
+        <v>0.9889444593192744</v>
       </c>
       <c r="AF40">
-        <v>0.008142236144011</v>
+        <v>0</v>
       </c>
       <c r="AG40">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH40">
-        <v>1</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK40">
-        <v>0.9956661100984956</v>
+        <v>0.9918577638559892</v>
+      </c>
+      <c r="AI40">
+        <v>0.9999628778034382</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
       </c>
       <c r="AL40">
-        <v>1.001409597586914</v>
-      </c>
-      <c r="AM40" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN40">
-        <v>0</v>
-      </c>
-      <c r="AO40" t="s">
-        <v>113</v>
+        <v>0.9985923865815634</v>
+      </c>
+      <c r="AM40">
+        <v>1.004352754259233</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
       </c>
       <c r="AP40" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:43">
+        <v>177</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45">
       <c r="A41" t="s">
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
         <v>67</v>
@@ -9661,11 +9967,11 @@
       <c r="L41">
         <v>1</v>
       </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
-      <c r="P41">
-        <v>696</v>
+      <c r="M41">
+        <v>0.5208704323219757</v>
+      </c>
+      <c r="N41">
+        <v>0.7202292683108629</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -9674,84 +9980,90 @@
         <v>0</v>
       </c>
       <c r="S41">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T41">
         <v>681</v>
       </c>
       <c r="U41">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V41">
-        <v>0.0201438848920863</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>0.001466275659824</v>
+        <v>0.9798561151079136</v>
       </c>
       <c r="X41">
-        <v>1</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0.998533724340176</v>
       </c>
       <c r="Z41">
-        <v>0.998533724340176</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>0.025</v>
+        <v>1.001468428781204</v>
       </c>
       <c r="AB41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>0.0110555406807255</v>
+        <v>0.975</v>
       </c>
       <c r="AD41">
-        <v>0.0335672394872023</v>
+        <v>0.9664327605127976</v>
       </c>
       <c r="AE41">
-        <v>3.712219656182343E-05</v>
+        <v>0.9889444593192744</v>
       </c>
       <c r="AF41">
-        <v>0.008142236144011</v>
+        <v>0</v>
       </c>
       <c r="AG41">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH41">
-        <v>1</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK41">
-        <v>0.9956661100984956</v>
+        <v>0.9918577638559892</v>
+      </c>
+      <c r="AI41">
+        <v>0.9999628778034382</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
       </c>
       <c r="AL41">
-        <v>1.001409597586914</v>
-      </c>
-      <c r="AM41" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN41">
-        <v>0</v>
-      </c>
-      <c r="AO41" t="s">
-        <v>113</v>
+        <v>0.9985923865815634</v>
+      </c>
+      <c r="AM41">
+        <v>1.004352754259233</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
       </c>
       <c r="AP41" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:43">
+        <v>177</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45">
       <c r="A42" t="s">
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9780,11 +10092,11 @@
       <c r="L42">
         <v>1</v>
       </c>
-      <c r="O42">
-        <v>2</v>
-      </c>
-      <c r="P42">
-        <v>696</v>
+      <c r="M42">
+        <v>0.6144177791431045</v>
+      </c>
+      <c r="N42">
+        <v>0.8093955407956692</v>
       </c>
       <c r="Q42">
         <v>2</v>
@@ -9793,84 +10105,90 @@
         <v>0</v>
       </c>
       <c r="S42">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T42">
         <v>680</v>
       </c>
       <c r="U42">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V42">
-        <v>0.0201729106628242</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>0.002932551319648</v>
+        <v>0.9798270893371758</v>
       </c>
       <c r="X42">
-        <v>1</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0.997067448680352</v>
       </c>
       <c r="Z42">
-        <v>0.997067448680352</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>0.158113883008393</v>
+        <v>1.002941176470588</v>
       </c>
       <c r="AB42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>0.0110715329473884</v>
+        <v>0.841886116991607</v>
       </c>
       <c r="AD42">
-        <v>0.0336152741989476</v>
+        <v>0.9663847258010524</v>
       </c>
       <c r="AE42">
-        <v>0.0003553430854548</v>
+        <v>0.9889284670526116</v>
       </c>
       <c r="AF42">
-        <v>0.0105528841606226</v>
+        <v>0</v>
       </c>
       <c r="AG42">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH42">
-        <v>1</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK42">
-        <v>0.9930174260597496</v>
+        <v>0.9894471158393772</v>
+      </c>
+      <c r="AI42">
+        <v>0.9996446569145452</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
       </c>
       <c r="AL42">
-        <v>1.001133989322489</v>
-      </c>
-      <c r="AM42" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN42">
-        <v>0</v>
-      </c>
-      <c r="AO42" t="s">
-        <v>113</v>
+        <v>0.998867295152712</v>
+      </c>
+      <c r="AM42">
+        <v>1.00703167311772</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
       </c>
       <c r="AP42" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:43">
+        <v>192</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45">
       <c r="A43" t="s">
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
         <v>67</v>
@@ -9899,11 +10217,11 @@
       <c r="L43">
         <v>1</v>
       </c>
-      <c r="O43">
-        <v>2</v>
-      </c>
-      <c r="P43">
-        <v>696</v>
+      <c r="M43">
+        <v>0.6276945010252128</v>
+      </c>
+      <c r="N43">
+        <v>0.8093955407956692</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9912,84 +10230,90 @@
         <v>0</v>
       </c>
       <c r="S43">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T43">
         <v>680</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V43">
-        <v>0.0201729106628242</v>
+        <v>0</v>
       </c>
       <c r="W43">
-        <v>0.002932551319648</v>
+        <v>0.9798270893371758</v>
       </c>
       <c r="X43">
-        <v>1</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0.997067448680352</v>
       </c>
       <c r="Z43">
-        <v>0.997067448680352</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>0.158113883008393</v>
+        <v>1.002941176470588</v>
       </c>
       <c r="AB43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC43">
-        <v>0.0110715329473884</v>
+        <v>0.841886116991607</v>
       </c>
       <c r="AD43">
-        <v>0.0336152741989476</v>
+        <v>0.9663847258010524</v>
       </c>
       <c r="AE43">
-        <v>0.0003553430854548</v>
+        <v>0.9889284670526116</v>
       </c>
       <c r="AF43">
-        <v>0.0105528841606226</v>
+        <v>0</v>
       </c>
       <c r="AG43">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH43">
-        <v>1</v>
-      </c>
-      <c r="AJ43" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK43">
-        <v>0.9930174260597496</v>
+        <v>0.9894471158393772</v>
+      </c>
+      <c r="AI43">
+        <v>0.9996446569145452</v>
+      </c>
+      <c r="AJ43">
+        <v>0</v>
       </c>
       <c r="AL43">
-        <v>1.001133989322489</v>
-      </c>
-      <c r="AM43" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN43">
-        <v>0</v>
-      </c>
-      <c r="AO43" t="s">
-        <v>113</v>
+        <v>0.998867295152712</v>
+      </c>
+      <c r="AM43">
+        <v>1.00703167311772</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
       </c>
       <c r="AP43" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:43">
+        <v>195</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45">
       <c r="A44" t="s">
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -10018,11 +10342,11 @@
       <c r="L44">
         <v>1</v>
       </c>
-      <c r="O44">
-        <v>3</v>
-      </c>
-      <c r="P44">
-        <v>696</v>
+      <c r="M44">
+        <v>0.4395352632956651</v>
+      </c>
+      <c r="N44">
+        <v>0.6937512192460265</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10031,84 +10355,90 @@
         <v>0</v>
       </c>
       <c r="S44">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="T44">
         <v>679</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V44">
-        <v>0.0202020202020202</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>0.0043988269794721</v>
+        <v>0.9797979797979798</v>
       </c>
       <c r="X44">
-        <v>1</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0.995601173020528</v>
       </c>
       <c r="Z44">
-        <v>0.995601173020528</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>0.2924017738212867</v>
+        <v>1.004418262150221</v>
       </c>
       <c r="AB44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>0.0110875715486734</v>
+        <v>0.7075982261787133</v>
       </c>
       <c r="AD44">
-        <v>0.0336634465761951</v>
+        <v>0.9663365534238048</v>
       </c>
       <c r="AE44">
-        <v>0.0009080641653364</v>
+        <v>0.9889124284513264</v>
       </c>
       <c r="AF44">
-        <v>0.0128009846942165</v>
+        <v>0</v>
       </c>
       <c r="AG44">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH44">
-        <v>1</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK44">
-        <v>0.9906468510643266</v>
+        <v>0.9871990153057834</v>
+      </c>
+      <c r="AI44">
+        <v>0.9990919358346636</v>
+      </c>
+      <c r="AJ44">
+        <v>0</v>
       </c>
       <c r="AL44">
-        <v>1.000580272026209</v>
-      </c>
-      <c r="AM44" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN44">
-        <v>0</v>
-      </c>
-      <c r="AO44" t="s">
-        <v>113</v>
+        <v>0.9994200644941406</v>
+      </c>
+      <c r="AM44">
+        <v>1.009441456282454</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
       </c>
       <c r="AP44" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:43">
+        <v>188</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45">
       <c r="A45" t="s">
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
         <v>68</v>
@@ -10137,11 +10467,11 @@
       <c r="L45">
         <v>1</v>
       </c>
-      <c r="O45">
-        <v>2</v>
-      </c>
-      <c r="P45">
-        <v>696</v>
+      <c r="M45">
+        <v>0.6821309051005562</v>
+      </c>
+      <c r="N45">
+        <v>0.8177659319148624</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -10150,84 +10480,90 @@
         <v>0</v>
       </c>
       <c r="S45">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T45">
         <v>680</v>
       </c>
       <c r="U45">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V45">
-        <v>0.0201729106628242</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>0.002932551319648</v>
+        <v>0.9798270893371758</v>
       </c>
       <c r="X45">
-        <v>1</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0.997067448680352</v>
       </c>
       <c r="Z45">
-        <v>0.997067448680352</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.158113883008393</v>
+        <v>1.002941176470588</v>
       </c>
       <c r="AB45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC45">
-        <v>0.0110715329473884</v>
+        <v>0.841886116991607</v>
       </c>
       <c r="AD45">
-        <v>0.0336152741989476</v>
+        <v>0.9663847258010524</v>
       </c>
       <c r="AE45">
-        <v>0.0003553430854548</v>
+        <v>0.9889284670526116</v>
       </c>
       <c r="AF45">
-        <v>0.0105528841606226</v>
+        <v>0</v>
       </c>
       <c r="AG45">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH45">
-        <v>1</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK45">
-        <v>0.9930174260597496</v>
+        <v>0.9894471158393772</v>
+      </c>
+      <c r="AI45">
+        <v>0.9996446569145452</v>
+      </c>
+      <c r="AJ45">
+        <v>0</v>
       </c>
       <c r="AL45">
-        <v>1.001133989322489</v>
-      </c>
-      <c r="AM45" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN45">
-        <v>0</v>
-      </c>
-      <c r="AO45" t="s">
-        <v>113</v>
+        <v>0.998867295152712</v>
+      </c>
+      <c r="AM45">
+        <v>1.00703167311772</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
       </c>
       <c r="AP45" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:43">
+        <v>196</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45">
       <c r="A46" t="s">
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
         <v>67</v>
@@ -10256,11 +10592,11 @@
       <c r="L46">
         <v>1</v>
       </c>
-      <c r="O46">
-        <v>2</v>
-      </c>
-      <c r="P46">
-        <v>696</v>
+      <c r="M46">
+        <v>0.6825967879640771</v>
+      </c>
+      <c r="N46">
+        <v>0.8177659319148624</v>
       </c>
       <c r="Q46">
         <v>2</v>
@@ -10269,84 +10605,90 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T46">
         <v>680</v>
       </c>
       <c r="U46">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V46">
-        <v>0.0201729106628242</v>
+        <v>0</v>
       </c>
       <c r="W46">
-        <v>0.002932551319648</v>
+        <v>0.9798270893371758</v>
       </c>
       <c r="X46">
-        <v>1</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0.997067448680352</v>
       </c>
       <c r="Z46">
-        <v>0.997067448680352</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>0.158113883008393</v>
+        <v>1.002941176470588</v>
       </c>
       <c r="AB46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC46">
-        <v>0.0110715329473884</v>
+        <v>0.841886116991607</v>
       </c>
       <c r="AD46">
-        <v>0.0336152741989476</v>
+        <v>0.9663847258010524</v>
       </c>
       <c r="AE46">
-        <v>0.0003553430854548</v>
+        <v>0.9889284670526116</v>
       </c>
       <c r="AF46">
-        <v>0.0105528841606226</v>
+        <v>0</v>
       </c>
       <c r="AG46">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH46">
-        <v>1</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK46">
-        <v>0.9930174260597496</v>
+        <v>0.9894471158393772</v>
+      </c>
+      <c r="AI46">
+        <v>0.9996446569145452</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
       </c>
       <c r="AL46">
-        <v>1.001133989322489</v>
-      </c>
-      <c r="AM46" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN46">
-        <v>0</v>
-      </c>
-      <c r="AO46" t="s">
-        <v>113</v>
+        <v>0.998867295152712</v>
+      </c>
+      <c r="AM46">
+        <v>1.00703167311772</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
       </c>
       <c r="AP46" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:43">
+        <v>177</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45">
       <c r="A47" t="s">
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
         <v>67</v>
@@ -10375,11 +10717,11 @@
       <c r="L47">
         <v>1</v>
       </c>
-      <c r="O47">
-        <v>2</v>
-      </c>
-      <c r="P47">
-        <v>696</v>
+      <c r="M47">
+        <v>0.6842531267042726</v>
+      </c>
+      <c r="N47">
+        <v>0.8177659319148624</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -10388,84 +10730,90 @@
         <v>0</v>
       </c>
       <c r="S47">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T47">
         <v>680</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V47">
-        <v>0.0201729106628242</v>
+        <v>0</v>
       </c>
       <c r="W47">
-        <v>0.002932551319648</v>
+        <v>0.9798270893371758</v>
       </c>
       <c r="X47">
-        <v>1</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0.997067448680352</v>
       </c>
       <c r="Z47">
-        <v>0.997067448680352</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>0.158113883008393</v>
+        <v>1.002941176470588</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC47">
-        <v>0.0110715329473884</v>
+        <v>0.841886116991607</v>
       </c>
       <c r="AD47">
-        <v>0.0336152741989476</v>
+        <v>0.9663847258010524</v>
       </c>
       <c r="AE47">
-        <v>0.0003553430854548</v>
+        <v>0.9889284670526116</v>
       </c>
       <c r="AF47">
-        <v>0.0105528841606226</v>
+        <v>0</v>
       </c>
       <c r="AG47">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH47">
-        <v>1</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK47">
-        <v>0.9930174260597496</v>
+        <v>0.9894471158393772</v>
+      </c>
+      <c r="AI47">
+        <v>0.9996446569145452</v>
+      </c>
+      <c r="AJ47">
+        <v>0</v>
       </c>
       <c r="AL47">
-        <v>1.001133989322489</v>
-      </c>
-      <c r="AM47" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN47">
-        <v>0</v>
-      </c>
-      <c r="AO47" t="s">
-        <v>113</v>
+        <v>0.998867295152712</v>
+      </c>
+      <c r="AM47">
+        <v>1.00703167311772</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
       </c>
       <c r="AP47" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:43">
+        <v>177</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45">
       <c r="A48" t="s">
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
         <v>67</v>
@@ -10494,11 +10842,11 @@
       <c r="L48">
         <v>1</v>
       </c>
-      <c r="O48">
-        <v>33</v>
-      </c>
-      <c r="P48">
-        <v>696</v>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
       </c>
       <c r="Q48">
         <v>33</v>
@@ -10507,84 +10855,87 @@
         <v>0</v>
       </c>
       <c r="S48">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="T48">
         <v>649</v>
       </c>
       <c r="U48">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V48">
-        <v>0.0211161387631975</v>
+        <v>0</v>
       </c>
       <c r="W48">
-        <v>0.0483870967741935</v>
+        <v>0.9788838612368024</v>
       </c>
       <c r="X48">
-        <v>1</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0.9516129032258064</v>
       </c>
       <c r="Z48">
-        <v>0.9516129032258064</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>0.8942371899254208</v>
+        <v>1.050847457627119</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC48">
-        <v>0.0115913193699728</v>
+        <v>0.1057628100745792</v>
       </c>
       <c r="AD48">
-        <v>0.0351756994476313</v>
+        <v>0.9648243005523688</v>
       </c>
       <c r="AE48">
-        <v>0.0335381435768986</v>
+        <v>0.9884086806300272</v>
       </c>
       <c r="AF48">
-        <v>0.0672852556243793</v>
+        <v>0</v>
       </c>
       <c r="AG48">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH48">
-        <v>1</v>
-      </c>
-      <c r="AJ48" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK48">
-        <v>0.9356437776579754</v>
+        <v>0.9327147443756206</v>
+      </c>
+      <c r="AI48">
+        <v>0.9664618564231012</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
       </c>
       <c r="AL48">
-        <v>0.9678545822776562</v>
-      </c>
-      <c r="AM48" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN48">
-        <v>0</v>
-      </c>
-      <c r="AO48" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP48" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:43">
+        <v>1.033213065589559</v>
+      </c>
+      <c r="AM48">
+        <v>1.068782825129363</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:45">
       <c r="A49" t="s">
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
         <v>67</v>
@@ -10613,11 +10964,11 @@
       <c r="L49">
         <v>1</v>
       </c>
-      <c r="O49">
-        <v>3</v>
-      </c>
-      <c r="P49">
-        <v>696</v>
+      <c r="M49">
+        <v>0.7201166821414614</v>
+      </c>
+      <c r="N49">
+        <v>0.8401361291650383</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10626,84 +10977,90 @@
         <v>0</v>
       </c>
       <c r="S49">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="T49">
         <v>679</v>
       </c>
       <c r="U49">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V49">
-        <v>0.0202020202020202</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>0.0043988269794721</v>
+        <v>0.9797979797979798</v>
       </c>
       <c r="X49">
-        <v>1</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0.995601173020528</v>
       </c>
       <c r="Z49">
-        <v>0.995601173020528</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>0.2924017738212867</v>
+        <v>1.004418262150221</v>
       </c>
       <c r="AB49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC49">
-        <v>0.0110875715486734</v>
+        <v>0.7075982261787133</v>
       </c>
       <c r="AD49">
-        <v>0.0336634465761951</v>
+        <v>0.9663365534238048</v>
       </c>
       <c r="AE49">
-        <v>0.0009080641653364</v>
+        <v>0.9889124284513264</v>
       </c>
       <c r="AF49">
-        <v>0.0128009846942165</v>
+        <v>0</v>
       </c>
       <c r="AG49">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH49">
-        <v>1</v>
-      </c>
-      <c r="AJ49" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK49">
-        <v>0.9906468510643266</v>
+        <v>0.9871990153057834</v>
+      </c>
+      <c r="AI49">
+        <v>0.9990919358346636</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
       </c>
       <c r="AL49">
-        <v>1.000580272026209</v>
-      </c>
-      <c r="AM49" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN49">
-        <v>0</v>
-      </c>
-      <c r="AO49" t="s">
-        <v>113</v>
+        <v>0.9994200644941406</v>
+      </c>
+      <c r="AM49">
+        <v>1.009441456282454</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
       </c>
       <c r="AP49" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:43">
+        <v>192</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:45">
       <c r="A50" t="s">
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -10732,11 +11089,11 @@
       <c r="L50">
         <v>1</v>
       </c>
-      <c r="O50">
-        <v>5</v>
-      </c>
-      <c r="P50">
-        <v>696</v>
+      <c r="M50">
+        <v>0.8546540145269776</v>
+      </c>
+      <c r="N50">
+        <v>0.9739080630656257</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10745,79 +11102,85 @@
         <v>0</v>
       </c>
       <c r="S50">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="T50">
         <v>677</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V50">
-        <v>0.0202604920405209</v>
+        <v>0</v>
       </c>
       <c r="W50">
-        <v>0.0073313782991202</v>
+        <v>0.9797395079594792</v>
       </c>
       <c r="X50">
-        <v>1</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>169</v>
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0.9926686217008798</v>
       </c>
       <c r="Z50">
-        <v>0.9926686217008798</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>0.4781762498950185</v>
+        <v>1.007385524372231</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>0.0111197885629399</v>
+        <v>0.5218237501049814</v>
       </c>
       <c r="AD50">
-        <v>0.0337602067011441</v>
+        <v>0.9662397932988558</v>
       </c>
       <c r="AE50">
-        <v>0.002384638766605</v>
+        <v>0.98888021143706</v>
       </c>
       <c r="AF50">
-        <v>0.0170254830784847</v>
+        <v>0</v>
       </c>
       <c r="AG50">
-        <v>0.7683642383498855</v>
+        <v>0.2316357616501144</v>
       </c>
       <c r="AH50">
-        <v>1</v>
-      </c>
-      <c r="AJ50" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK50">
-        <v>0.986286706033335</v>
+        <v>0.9829745169215152</v>
+      </c>
+      <c r="AI50">
+        <v>0.9976153612333948</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
       </c>
       <c r="AL50">
-        <v>0.9990918325084062</v>
-      </c>
-      <c r="AM50" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN50">
-        <v>0</v>
-      </c>
-      <c r="AO50" t="s">
-        <v>113</v>
+        <v>1.000908993009493</v>
+      </c>
+      <c r="AM50">
+        <v>1.013903963099958</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
       </c>
       <c r="AP50" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:43">
+        <v>177</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -10825,7 +11188,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:45">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -10833,15 +11196,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:45">
       <c r="A53" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:45">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -10849,7 +11212,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:45">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -10857,7 +11220,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:45">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -10865,7 +11228,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:45">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -10873,9 +11236,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:45">
       <c r="A58" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C58" t="s">
         <v>69</v>
@@ -10937,13 +11300,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="E2">
         <v>2.00190163147777</v>
@@ -11010,13 +11373,13 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="E4">
         <v>1.372246244547231</v>
@@ -11048,13 +11411,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="E5">
         <v>1.372246244547231</v>
@@ -11159,13 +11522,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="E8">
         <v>1.133093237776414</v>
@@ -11197,13 +11560,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="E9">
         <v>1.070258685387925</v>
@@ -11235,13 +11598,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="E10">
         <v>1.070258685387925</v>
@@ -11273,13 +11636,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="E11">
         <v>1.023711862257942</v>
@@ -11311,13 +11674,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="E12">
         <v>1.023711862257942</v>
@@ -11349,13 +11712,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="E13">
         <v>1.023711862257942</v>
@@ -11387,13 +11750,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="E14">
         <v>1.023711862257942</v>
@@ -11425,13 +11788,13 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="E15">
         <v>1.023711862257942</v>
@@ -11463,13 +11826,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="B16" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="E16">
         <v>1.023711862257942</v>
@@ -11501,13 +11864,13 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="E17">
         <v>1.023711862257942</v>
@@ -11539,13 +11902,13 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="E18">
         <v>1.023711862257942</v>
@@ -11577,13 +11940,13 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>211</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <v>1.023711862257942</v>
@@ -11615,13 +11978,13 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="E20">
         <v>1.023711862257942</v>
@@ -11653,13 +12016,13 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="E21">
         <v>1.023711862257942</v>
@@ -11691,13 +12054,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="E22">
         <v>1.023711862257942</v>
@@ -11767,13 +12130,13 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="E24">
         <v>1.023711862257942</v>
@@ -11805,13 +12168,13 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="E25">
         <v>1.023711862257942</v>
@@ -11843,13 +12206,13 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E26">
         <v>1.023711862257942</v>
@@ -11881,13 +12244,13 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>253</v>
       </c>
       <c r="E27">
         <v>1.023711862257942</v>
@@ -11919,13 +12282,13 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C28" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="E28">
         <v>1.011789608798327</v>
@@ -11957,13 +12320,13 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
         <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E29">
         <v>0.9891020012338828</v>
@@ -11995,13 +12358,13 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E30">
         <v>0.9891020012338828</v>
@@ -12071,13 +12434,13 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="B32" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C32" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="E32">
         <v>0.9845587199600028</v>
@@ -12299,13 +12662,13 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C38" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="E38">
         <v>0.9819891254074437</v>
@@ -12337,13 +12700,13 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="B39" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C39" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="E39">
         <v>0.9818931300988388</v>
@@ -12413,13 +12776,13 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="B41" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C41" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="E41">
         <v>0.9814738071808156</v>
@@ -12489,13 +12852,13 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>221</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>259</v>
       </c>
       <c r="E43">
         <v>0.9811786396179192</v>
@@ -12527,13 +12890,13 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>211</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="E44">
         <v>0.9811786396179192</v>
@@ -12603,13 +12966,13 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="B46" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C46" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="E46">
         <v>0.9786276979381388</v>
@@ -12641,13 +13004,13 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="B47" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C47" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="E47">
         <v>0.9784371119403452</v>
@@ -12828,13 +13191,13 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="B52" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C52" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="E52">
         <v>0.970234482970305</v>
@@ -12866,13 +13229,13 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="B53" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C53" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="E53">
         <v>0.969744372275914</v>
@@ -13018,13 +13381,13 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="B57" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C57" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="E57">
         <v>0.95997330778013</v>
@@ -13170,13 +13533,13 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="B61" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C61" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="E61">
         <v>0.95299315742568</v>
@@ -13208,13 +13571,13 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="B62" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C62" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="E62">
         <v>0.9471254837358872</v>
@@ -13322,13 +13685,13 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="B65" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C65" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="E65">
         <v>0.9437582764996264</v>
@@ -13360,13 +13723,13 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="B66" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C66" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="E66">
         <v>0.9399801400405408</v>
@@ -13398,13 +13761,13 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="B67" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C67" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="E67">
         <v>0.9380951293329836</v>
@@ -13436,13 +13799,13 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="B68" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C68" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="E68">
         <v>0.931524255345324</v>
@@ -13550,13 +13913,13 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="B71" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C71" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="E71">
         <v>0.9057499251097804</v>
@@ -13816,13 +14179,13 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="B78" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C78" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="E78">
         <v>0.8763241381557848</v>
@@ -13968,13 +14331,13 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="B82" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C82" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="E82">
         <v>0.8694183635310787</v>

--- a/results/BINARY/Pretomanid.xlsx
+++ b/results/BINARY/Pretomanid.xlsx
@@ -10915,7 +10915,7 @@
         <v>1.068782825129363</v>
       </c>
       <c r="AN48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AO48">
         <v>0</v>

--- a/results/BINARY/Pretomanid.xlsx
+++ b/results/BINARY/Pretomanid.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="261">
   <si>
     <t>mutation</t>
   </si>
@@ -63,16 +63,16 @@
     <t>Num_Isolates</t>
   </si>
   <si>
-    <t>Mut_R</t>
-  </si>
-  <si>
-    <t>Mut_S</t>
-  </si>
-  <si>
-    <t>NoMut_S</t>
-  </si>
-  <si>
-    <t>NoMut_R</t>
+    <t>Present_R</t>
+  </si>
+  <si>
+    <t>Present_S</t>
+  </si>
+  <si>
+    <t>Absent_S</t>
+  </si>
+  <si>
+    <t>Absent_R</t>
   </si>
   <si>
     <t>PPV</t>
@@ -150,9 +150,6 @@
     <t>single_lineage</t>
   </si>
   <si>
-    <t>Initial_Confidence_Grading</t>
-  </si>
-  <si>
     <t>Phenos</t>
   </si>
   <si>
@@ -540,9 +537,6 @@
     <t>1.2.1</t>
   </si>
   <si>
-    <t>3) Uncertain significance</t>
-  </si>
-  <si>
     <t>WHO</t>
   </si>
   <si>
@@ -805,9 +799,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>5) Not assoc w R</t>
   </si>
 </sst>
 </file>
@@ -1165,13 +1156,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT50"/>
+  <dimension ref="A1:AS50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,22 +1298,19 @@
       <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:46">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2">
         <v>1.694641637565141</v>
@@ -1379,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y2">
         <v>0.8</v>
@@ -1409,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="AI2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AJ2">
         <v>0.5868177012338136</v>
@@ -1418,13 +1406,13 @@
         <v>1.090628313792116</v>
       </c>
       <c r="AL2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="s">
         <v>150</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>151</v>
       </c>
       <c r="AO2">
         <v>0.3387333890909767</v>
@@ -1436,24 +1424,21 @@
         <v>0</v>
       </c>
       <c r="AS2" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:45">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>1.473009105033125</v>
@@ -1510,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y3">
         <v>0.9</v>
@@ -1540,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="AI3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AJ3">
         <v>0.7320116427439927</v>
@@ -1549,13 +1534,13 @@
         <v>1.106539777104723</v>
       </c>
       <c r="AL3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="s">
         <v>150</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>151</v>
       </c>
       <c r="AO3">
         <v>0.255868240990465</v>
@@ -1567,27 +1552,24 @@
         <v>0</v>
       </c>
       <c r="AR3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AS3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:45">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4">
         <v>1.46243671184745</v>
@@ -1644,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="X4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y4">
         <v>0.9</v>
@@ -1674,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="AI4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AJ4">
         <v>0.7320116427439927</v>
@@ -1683,13 +1665,13 @@
         <v>1.106539777104723</v>
       </c>
       <c r="AL4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="s">
         <v>150</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>151</v>
       </c>
       <c r="AO4">
         <v>0.2179706389751113</v>
@@ -1701,27 +1683,24 @@
         <v>0</v>
       </c>
       <c r="AR4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AS4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:45">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5">
         <v>1.458793558671009</v>
@@ -1778,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="X5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y5">
         <v>0.9</v>
@@ -1808,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="AI5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AJ5">
         <v>0.7320116427439927</v>
@@ -1817,13 +1796,13 @@
         <v>1.106539777104723</v>
       </c>
       <c r="AL5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="s">
         <v>150</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>151</v>
       </c>
       <c r="AO5">
         <v>0.2085230505179962</v>
@@ -1835,27 +1814,24 @@
         <v>0</v>
       </c>
       <c r="AR5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AS5" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:45">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6">
         <v>1.450391914181331</v>
@@ -1912,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="X6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y6">
         <v>0.9</v>
@@ -1942,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AI6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AJ6">
         <v>0.7320116427439927</v>
@@ -1951,13 +1927,13 @@
         <v>1.106539777104723</v>
       </c>
       <c r="AL6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="s">
         <v>150</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>151</v>
       </c>
       <c r="AO6">
         <v>0.2078460495506812</v>
@@ -1969,27 +1945,24 @@
         <v>0</v>
       </c>
       <c r="AR6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AS6" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:45">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7">
         <v>1.442554706945259</v>
@@ -2046,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="X7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y7">
         <v>0.9</v>
@@ -2076,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AJ7">
         <v>0.7320116427439927</v>
@@ -2085,13 +2058,13 @@
         <v>1.106539777104723</v>
       </c>
       <c r="AL7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="s">
         <v>150</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>151</v>
       </c>
       <c r="AO7">
         <v>0.2265071702847451</v>
@@ -2103,27 +2076,24 @@
         <v>0</v>
       </c>
       <c r="AR7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AS7" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:45">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8">
         <v>1.079911840361068</v>
@@ -2222,13 +2192,13 @@
         <v>1.108196697017925</v>
       </c>
       <c r="AL8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="s">
         <v>150</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>151</v>
       </c>
       <c r="AO8">
         <v>0.0421795093414044</v>
@@ -2240,24 +2210,21 @@
         <v>0</v>
       </c>
       <c r="AS8" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:45">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9">
         <v>1.079911840361068</v>
@@ -2356,13 +2323,13 @@
         <v>1.108196697017925</v>
       </c>
       <c r="AL9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="s">
         <v>150</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>151</v>
       </c>
       <c r="AO9">
         <v>0.0421795093414036</v>
@@ -2374,24 +2341,21 @@
         <v>0</v>
       </c>
       <c r="AS9" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:45">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10">
         <v>1.079911840361068</v>
@@ -2490,13 +2454,13 @@
         <v>1.108196697017925</v>
       </c>
       <c r="AL10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="s">
         <v>150</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>151</v>
       </c>
       <c r="AO10">
         <v>0.0421795093414044</v>
@@ -2508,24 +2472,21 @@
         <v>0</v>
       </c>
       <c r="AS10" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:45">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F11">
         <v>1.079911840361068</v>
@@ -2624,13 +2585,13 @@
         <v>1.108196697017925</v>
       </c>
       <c r="AL11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="s">
         <v>150</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>151</v>
       </c>
       <c r="AO11">
         <v>0.0421795093414039</v>
@@ -2642,24 +2603,21 @@
         <v>0</v>
       </c>
       <c r="AS11" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:45">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F12">
         <v>1.079911840361068</v>
@@ -2758,13 +2716,13 @@
         <v>1.108196697017925</v>
       </c>
       <c r="AL12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="s">
         <v>150</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>151</v>
       </c>
       <c r="AO12">
         <v>0.042179509341404</v>
@@ -2776,24 +2734,21 @@
         <v>0</v>
       </c>
       <c r="AS12" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:45">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F13">
         <v>0.9987011357652646</v>
@@ -2892,13 +2847,13 @@
         <v>1.121632758828183</v>
       </c>
       <c r="AL13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM13">
         <v>0</v>
       </c>
       <c r="AN13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AO13">
         <v>-0.0472735098968578</v>
@@ -2910,27 +2865,24 @@
         <v>0</v>
       </c>
       <c r="AR13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AS13" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:45">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14">
         <v>0.9956575120508324</v>
@@ -3026,13 +2978,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="s">
         <v>150</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>151</v>
       </c>
       <c r="AO14">
         <v>-0.0075557533188244</v>
@@ -3044,27 +2996,24 @@
         <v>0</v>
       </c>
       <c r="AR14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AS14" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:45">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F15">
         <v>0.9950999194321012</v>
@@ -3160,13 +3109,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="s">
         <v>150</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>151</v>
       </c>
       <c r="AO15">
         <v>0.0116968106444941</v>
@@ -3178,27 +3127,24 @@
         <v>0</v>
       </c>
       <c r="AR15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AS15" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:45">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16">
         <v>0.9950348885184024</v>
@@ -3294,13 +3240,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="s">
         <v>150</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>151</v>
       </c>
       <c r="AO16">
         <v>0.0147227675795061</v>
@@ -3312,27 +3258,24 @@
         <v>0</v>
       </c>
       <c r="AR16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AS16" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:46">
+    <row r="17" spans="1:45">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F17">
         <v>0.9943728368732652</v>
@@ -3428,13 +3371,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="s">
         <v>150</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>151</v>
       </c>
       <c r="AO17">
         <v>-0.0018757274855151</v>
@@ -3446,27 +3389,24 @@
         <v>0</v>
       </c>
       <c r="AR17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AS17" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:46">
+    <row r="18" spans="1:45">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F18">
         <v>0.9940948178796108</v>
@@ -3562,13 +3502,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="s">
         <v>150</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>151</v>
       </c>
       <c r="AO18">
         <v>-0.0480714673943139</v>
@@ -3580,27 +3520,24 @@
         <v>0</v>
       </c>
       <c r="AR18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AS18" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:46">
+    <row r="19" spans="1:45">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19">
         <v>0.9930870187977816</v>
@@ -3696,13 +3633,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="s">
         <v>150</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>151</v>
       </c>
       <c r="AO19">
         <v>0.0006164183346615</v>
@@ -3714,27 +3651,24 @@
         <v>0</v>
       </c>
       <c r="AR19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AS19" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:46">
+    <row r="20" spans="1:45">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F20">
         <v>0.9930870187977816</v>
@@ -3830,13 +3764,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="s">
         <v>150</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>151</v>
       </c>
       <c r="AO20">
         <v>0.0006164183346615</v>
@@ -3848,27 +3782,24 @@
         <v>0</v>
       </c>
       <c r="AR20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AS20" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:46">
+    <row r="21" spans="1:45">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F21">
         <v>0.9918346216857098</v>
@@ -3964,13 +3895,13 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="s">
         <v>150</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>151</v>
       </c>
       <c r="AO21">
         <v>0.0045767730448877</v>
@@ -3982,27 +3913,24 @@
         <v>0</v>
       </c>
       <c r="AR21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AS21" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:46">
+    <row r="22" spans="1:45">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22">
         <v>0.9903282979185434</v>
@@ -4098,13 +4026,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL22" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="s">
         <v>150</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>151</v>
       </c>
       <c r="AO22">
         <v>-0.0054980690380745</v>
@@ -4116,27 +4044,24 @@
         <v>0</v>
       </c>
       <c r="AR22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AS22" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:46">
+    <row r="23" spans="1:45">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F23">
         <v>0.989605796694226</v>
@@ -4232,13 +4157,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="s">
         <v>150</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>151</v>
       </c>
       <c r="AO23">
         <v>0.0022951012854454</v>
@@ -4250,27 +4175,24 @@
         <v>0</v>
       </c>
       <c r="AR23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AS23" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:46">
+    <row r="24" spans="1:45">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F24">
         <v>0.9891459226467882</v>
@@ -4366,13 +4288,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL24" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="s">
         <v>150</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>151</v>
       </c>
       <c r="AO24">
         <v>-0.06284544516707739</v>
@@ -4384,24 +4306,21 @@
         <v>0</v>
       </c>
       <c r="AS24" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:46">
+    <row r="25" spans="1:45">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F25">
         <v>0.9887933318936512</v>
@@ -4497,13 +4416,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL25" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="s">
         <v>150</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>151</v>
       </c>
       <c r="AO25">
         <v>-0.005947265263568</v>
@@ -4515,27 +4434,24 @@
         <v>0</v>
       </c>
       <c r="AR25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AS25" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:46">
+    <row r="26" spans="1:45">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F26">
         <v>0.9886710536728824</v>
@@ -4631,13 +4547,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL26" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="s">
         <v>150</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>151</v>
       </c>
       <c r="AO26">
         <v>-0.0040528456452427</v>
@@ -4649,27 +4565,24 @@
         <v>0</v>
       </c>
       <c r="AR26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AS26" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:46">
+    <row r="27" spans="1:45">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F27">
         <v>0.988486870524215</v>
@@ -4765,13 +4678,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="s">
         <v>150</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>151</v>
       </c>
       <c r="AO27">
         <v>-0.0183146160278452</v>
@@ -4783,27 +4696,24 @@
         <v>0</v>
       </c>
       <c r="AR27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AS27" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:46">
+    <row r="28" spans="1:45">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F28">
         <v>0.988347260052571</v>
@@ -4899,13 +4809,13 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL28" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="s">
         <v>150</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>151</v>
       </c>
       <c r="AO28">
         <v>0.0103841324673318</v>
@@ -4917,27 +4827,24 @@
         <v>0</v>
       </c>
       <c r="AR28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AS28" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:46">
+    <row r="29" spans="1:45">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F29">
         <v>0.9883177721472824</v>
@@ -5033,13 +4940,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL29" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="s">
         <v>150</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>151</v>
       </c>
       <c r="AO29">
         <v>0.022176667177339</v>
@@ -5051,27 +4958,24 @@
         <v>0</v>
       </c>
       <c r="AR29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AS29" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:46">
+    <row r="30" spans="1:45">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30">
         <v>0.9881570920304168</v>
@@ -5167,13 +5071,13 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL30" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="s">
         <v>150</v>
-      </c>
-      <c r="AM30">
-        <v>0</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>151</v>
       </c>
       <c r="AO30">
         <v>-0.0784873283910599</v>
@@ -5185,27 +5089,24 @@
         <v>0</v>
       </c>
       <c r="AR30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AS30" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:46">
+    <row r="31" spans="1:45">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F31">
         <v>0.9881282789774234</v>
@@ -5301,13 +5202,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="s">
         <v>150</v>
-      </c>
-      <c r="AM31">
-        <v>0</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>151</v>
       </c>
       <c r="AO31">
         <v>-0.0019421399845012</v>
@@ -5319,27 +5220,24 @@
         <v>0</v>
       </c>
       <c r="AR31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AS31" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:46">
+    <row r="32" spans="1:45">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F32">
         <v>0.9879577509447351</v>
@@ -5435,7 +5333,7 @@
         <v>1.013986870030706</v>
       </c>
       <c r="AL32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM32">
         <v>0</v>
@@ -5453,27 +5351,24 @@
         <v>0</v>
       </c>
       <c r="AR32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AS32" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:46">
+    <row r="33" spans="1:45">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F33">
         <v>0.98777033095005</v>
@@ -5569,13 +5464,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL33" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="s">
         <v>150</v>
-      </c>
-      <c r="AM33">
-        <v>0</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>151</v>
       </c>
       <c r="AO33">
         <v>0.00976263071263</v>
@@ -5587,27 +5482,24 @@
         <v>0</v>
       </c>
       <c r="AR33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AS33" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:46">
+    <row r="34" spans="1:45">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F34">
         <v>0.9873776451827808</v>
@@ -5703,13 +5595,13 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL34" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="s">
         <v>150</v>
-      </c>
-      <c r="AM34">
-        <v>0</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>151</v>
       </c>
       <c r="AO34">
         <v>0.0381845824486514</v>
@@ -5721,27 +5613,24 @@
         <v>0</v>
       </c>
       <c r="AR34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AS34" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:46">
+    <row r="35" spans="1:45">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F35">
         <v>0.9864254351606082</v>
@@ -5837,13 +5726,13 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL35" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="s">
         <v>150</v>
-      </c>
-      <c r="AM35">
-        <v>0</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>151</v>
       </c>
       <c r="AO35">
         <v>0.0195244925739845</v>
@@ -5855,27 +5744,24 @@
         <v>0</v>
       </c>
       <c r="AR35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AS35" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:46">
+    <row r="36" spans="1:45">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F36">
         <v>0.9846690224926312</v>
@@ -5971,13 +5857,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL36" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="s">
         <v>150</v>
-      </c>
-      <c r="AM36">
-        <v>0</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>151</v>
       </c>
       <c r="AO36">
         <v>0.0242839307095804</v>
@@ -5989,27 +5875,24 @@
         <v>0</v>
       </c>
       <c r="AR36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AS36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:46">
+    <row r="37" spans="1:45">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F37">
         <v>0.9838599542333424</v>
@@ -6105,13 +5988,13 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL37" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="s">
         <v>150</v>
-      </c>
-      <c r="AM37">
-        <v>0</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>151</v>
       </c>
       <c r="AO37">
         <v>0.0225405515668308</v>
@@ -6123,27 +6006,24 @@
         <v>0</v>
       </c>
       <c r="AR37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AS37" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:46">
+    <row r="38" spans="1:45">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F38">
         <v>0.9805599212064554</v>
@@ -6239,13 +6119,13 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL38" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="s">
         <v>150</v>
-      </c>
-      <c r="AM38">
-        <v>0</v>
-      </c>
-      <c r="AN38" t="s">
-        <v>151</v>
       </c>
       <c r="AO38">
         <v>0.0151148048393362</v>
@@ -6257,27 +6137,24 @@
         <v>0</v>
       </c>
       <c r="AR38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AS38" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:46">
+    <row r="39" spans="1:45">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F39">
         <v>0.9782129548004936</v>
@@ -6373,13 +6250,13 @@
         <v>1.01178481253522</v>
       </c>
       <c r="AL39" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="s">
         <v>150</v>
-      </c>
-      <c r="AM39">
-        <v>0</v>
-      </c>
-      <c r="AN39" t="s">
-        <v>151</v>
       </c>
       <c r="AO39">
         <v>0.0154852649787547</v>
@@ -6391,27 +6268,24 @@
         <v>0</v>
       </c>
       <c r="AR39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS39" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT39" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:46">
+    <row r="40" spans="1:45">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F40">
         <v>0.9761514222955076</v>
@@ -6507,7 +6381,7 @@
         <v>1.022339649381213</v>
       </c>
       <c r="AL40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM40">
         <v>0</v>
@@ -6525,27 +6399,24 @@
         <v>0</v>
       </c>
       <c r="AR40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AS40" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="41" spans="1:46">
+    <row r="41" spans="1:45">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F41">
         <v>0.973679234822787</v>
@@ -6641,13 +6512,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL41" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="s">
         <v>150</v>
-      </c>
-      <c r="AM41">
-        <v>0</v>
-      </c>
-      <c r="AN41" t="s">
-        <v>151</v>
       </c>
       <c r="AO41">
         <v>0.0026608691139785</v>
@@ -6659,27 +6530,24 @@
         <v>0</v>
       </c>
       <c r="AR41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AS41" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:46">
+    <row r="42" spans="1:45">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F42">
         <v>0.965493599880532</v>
@@ -6775,13 +6643,13 @@
         <v>1.013986870030706</v>
       </c>
       <c r="AL42" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="s">
         <v>150</v>
-      </c>
-      <c r="AM42">
-        <v>0</v>
-      </c>
-      <c r="AN42" t="s">
-        <v>151</v>
       </c>
       <c r="AO42">
         <v>0.06720510422583501</v>
@@ -6793,27 +6661,24 @@
         <v>0</v>
       </c>
       <c r="AR42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AS42" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT42" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:46">
+    <row r="43" spans="1:45">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F43">
         <v>0.958469593758034</v>
@@ -6909,13 +6774,13 @@
         <v>1.01178481253522</v>
       </c>
       <c r="AL43" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="s">
         <v>150</v>
-      </c>
-      <c r="AM43">
-        <v>0</v>
-      </c>
-      <c r="AN43" t="s">
-        <v>151</v>
       </c>
       <c r="AO43">
         <v>-0.0006413771170054</v>
@@ -6927,27 +6792,24 @@
         <v>0</v>
       </c>
       <c r="AR43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AS43" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:46">
+    <row r="44" spans="1:45">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F44">
         <v>0.9385771561287792</v>
@@ -7043,7 +6905,7 @@
         <v>1.069213019489775</v>
       </c>
       <c r="AL44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM44">
         <v>0</v>
@@ -7061,24 +6923,21 @@
         <v>0</v>
       </c>
       <c r="AS44" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT44" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:46">
+    <row r="45" spans="1:45">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F45">
         <v>0.8956706223158238</v>
@@ -7174,13 +7033,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL45" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="s">
         <v>150</v>
-      </c>
-      <c r="AM45">
-        <v>0</v>
-      </c>
-      <c r="AN45" t="s">
-        <v>151</v>
       </c>
       <c r="AO45">
         <v>0.0182384186565656</v>
@@ -7192,27 +7051,24 @@
         <v>0</v>
       </c>
       <c r="AR45" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS45" t="s">
         <v>173</v>
       </c>
-      <c r="AS45" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT45" t="s">
-        <v>175</v>
-      </c>
     </row>
-    <row r="46" spans="1:46">
+    <row r="46" spans="1:45">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F46">
         <v>0.8805156653330068</v>
@@ -7308,13 +7164,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="s">
         <v>150</v>
-      </c>
-      <c r="AM46">
-        <v>0</v>
-      </c>
-      <c r="AN46" t="s">
-        <v>151</v>
       </c>
       <c r="AO46">
         <v>-0.0152405002219274</v>
@@ -7326,27 +7182,24 @@
         <v>0</v>
       </c>
       <c r="AR46" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS46" t="s">
         <v>173</v>
       </c>
-      <c r="AS46" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT46" t="s">
-        <v>175</v>
-      </c>
     </row>
-    <row r="47" spans="1:46">
+    <row r="47" spans="1:45">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F47">
         <v>0.8764684522264287</v>
@@ -7442,13 +7295,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL47" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="s">
         <v>150</v>
-      </c>
-      <c r="AM47">
-        <v>0</v>
-      </c>
-      <c r="AN47" t="s">
-        <v>151</v>
       </c>
       <c r="AO47">
         <v>0.0538391398445663</v>
@@ -7460,27 +7313,24 @@
         <v>0</v>
       </c>
       <c r="AR47" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS47" t="s">
         <v>173</v>
       </c>
-      <c r="AS47" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT47" t="s">
-        <v>175</v>
-      </c>
     </row>
-    <row r="48" spans="1:46">
+    <row r="48" spans="1:45">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F48">
         <v>0.8724308083773236</v>
@@ -7576,13 +7426,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL48" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="s">
         <v>150</v>
-      </c>
-      <c r="AM48">
-        <v>0</v>
-      </c>
-      <c r="AN48" t="s">
-        <v>151</v>
       </c>
       <c r="AO48">
         <v>0.0193425502561062</v>
@@ -7594,27 +7444,24 @@
         <v>0</v>
       </c>
       <c r="AR48" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS48" t="s">
         <v>173</v>
       </c>
-      <c r="AS48" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT48" t="s">
-        <v>175</v>
-      </c>
     </row>
-    <row r="49" spans="1:46">
+    <row r="49" spans="1:45">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F49">
         <v>0.8373603971558966</v>
@@ -7710,13 +7557,13 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL49" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="s">
         <v>150</v>
-      </c>
-      <c r="AM49">
-        <v>0</v>
-      </c>
-      <c r="AN49" t="s">
-        <v>151</v>
       </c>
       <c r="AO49">
         <v>-0.06898568905484</v>
@@ -7728,27 +7575,24 @@
         <v>0</v>
       </c>
       <c r="AR49" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS49" t="s">
         <v>173</v>
       </c>
-      <c r="AS49" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT49" t="s">
-        <v>175</v>
-      </c>
     </row>
-    <row r="50" spans="1:46">
+    <row r="50" spans="1:45">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F50">
         <v>0.8326820985943296</v>
@@ -7844,13 +7688,13 @@
         <v>1.009497546097611</v>
       </c>
       <c r="AL50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="s">
         <v>150</v>
-      </c>
-      <c r="AM50">
-        <v>0</v>
-      </c>
-      <c r="AN50" t="s">
-        <v>151</v>
       </c>
       <c r="AO50">
         <v>-0.0036142100483617</v>
@@ -7862,13 +7706,10 @@
         <v>0</v>
       </c>
       <c r="AR50" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS50" t="s">
         <v>173</v>
-      </c>
-      <c r="AS50" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT50" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -7878,13 +7719,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT4"/>
+  <dimension ref="A1:AS4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8020,19 +7861,16 @@
       <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F2">
         <v>2.321789905069681</v>
@@ -8050,10 +7888,10 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2.231635813044358E-69</v>
+        <v>2.231635813086233E-69</v>
       </c>
       <c r="L2">
-        <v>6.694907439133074E-69</v>
+        <v>1.026552474019667E-67</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -8089,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y2">
         <v>0.5</v>
@@ -8119,7 +7957,7 @@
         <v>1</v>
       </c>
       <c r="AI2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AJ2">
         <v>0.2690273550635447</v>
@@ -8128,13 +7966,13 @@
         <v>0.9292735303476836</v>
       </c>
       <c r="AL2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AO2">
         <v>0.5179876199855844</v>
@@ -8146,21 +7984,18 @@
         <v>0</v>
       </c>
       <c r="AS2" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="A3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="3" spans="1:46">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>177</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>179</v>
       </c>
       <c r="F3">
         <v>1.459943903674587</v>
@@ -8178,10 +8013,10 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>3.087166331970848E-19</v>
+        <v>3.087166331963205E-19</v>
       </c>
       <c r="L3">
-        <v>4.630749497956272E-19</v>
+        <v>7.100482563515372E-18</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -8217,7 +8052,7 @@
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y3">
         <v>0.9</v>
@@ -8247,7 +8082,7 @@
         <v>1</v>
       </c>
       <c r="AI3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AJ3">
         <v>0.7320116427439927</v>
@@ -8256,13 +8091,13 @@
         <v>1.106539777104723</v>
       </c>
       <c r="AL3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AO3">
         <v>0.2090257619180223</v>
@@ -8274,24 +8109,21 @@
         <v>0</v>
       </c>
       <c r="AR3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AS3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:45">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F4">
         <v>0.9881283038603894</v>
@@ -8309,16 +8141,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9958358833316472</v>
+        <v>0.9958358832425728</v>
       </c>
       <c r="L4">
-        <v>0.9958358833316472</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0041641166683528</v>
+        <v>0.0041641167574273</v>
       </c>
       <c r="N4">
-        <v>0.0124923500050584</v>
+        <v>0.01473456698781968</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -8387,13 +8219,13 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AO4">
         <v>-0.0019583828993608</v>
@@ -8405,13 +8237,10 @@
         <v>0</v>
       </c>
       <c r="AR4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AS4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -8421,13 +8250,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT39"/>
+  <dimension ref="A1:AS39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8563,22 +8392,19 @@
       <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F2">
         <v>1.194466261364978</v>
@@ -8605,7 +8431,7 @@
         <v>0.6910216473222804</v>
       </c>
       <c r="N2">
-        <v>0.6910216473222804</v>
+        <v>0.7609985230004861</v>
       </c>
       <c r="O2">
         <v>27</v>
@@ -8677,13 +8503,13 @@
         <v>1.151433773146992</v>
       </c>
       <c r="AL2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="s">
         <v>150</v>
-      </c>
-      <c r="AM2">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>151</v>
       </c>
       <c r="AO2">
         <v>0.0891136506450171</v>
@@ -8695,27 +8521,24 @@
         <v>0</v>
       </c>
       <c r="AR2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS2" t="s">
         <v>173</v>
       </c>
-      <c r="AS2" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>175</v>
-      </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:45">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" t="s">
         <v>220</v>
-      </c>
-      <c r="D3" t="s">
-        <v>222</v>
       </c>
       <c r="F3">
         <v>1.194466261364978</v>
@@ -8742,7 +8565,7 @@
         <v>0.6910216473216626</v>
       </c>
       <c r="N3">
-        <v>0.6910216473222804</v>
+        <v>0.7609985230004861</v>
       </c>
       <c r="O3">
         <v>27</v>
@@ -8814,13 +8637,13 @@
         <v>1.151433773146992</v>
       </c>
       <c r="AL3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="s">
         <v>150</v>
-      </c>
-      <c r="AM3">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>151</v>
       </c>
       <c r="AO3">
         <v>0.0891136506450181</v>
@@ -8832,27 +8655,24 @@
         <v>0</v>
       </c>
       <c r="AR3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS3" t="s">
         <v>173</v>
       </c>
-      <c r="AS3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>175</v>
-      </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:45">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F4">
         <v>1.126452883372995</v>
@@ -8879,7 +8699,7 @@
         <v>0.5617978185153945</v>
       </c>
       <c r="N4">
-        <v>0.6099519172452854</v>
+        <v>0.6788390307061016</v>
       </c>
       <c r="O4">
         <v>355</v>
@@ -8951,13 +8771,13 @@
         <v>1.422908009991355</v>
       </c>
       <c r="AL4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="s">
         <v>150</v>
-      </c>
-      <c r="AM4">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>151</v>
       </c>
       <c r="AO4">
         <v>0.1722404122801303</v>
@@ -8969,24 +8789,21 @@
         <v>0</v>
       </c>
       <c r="AS4" t="s">
-        <v>263</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:45">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F5">
         <v>1.115862095586755</v>
@@ -9013,7 +8830,7 @@
         <v>0.6517445327122747</v>
       </c>
       <c r="N5">
-        <v>0.6879525623074011</v>
+        <v>0.7609985230004861</v>
       </c>
       <c r="O5">
         <v>2</v>
@@ -9085,13 +8902,13 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="s">
         <v>150</v>
-      </c>
-      <c r="AM5">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>151</v>
       </c>
       <c r="AO5">
         <v>0.0515515979202667</v>
@@ -9103,27 +8920,24 @@
         <v>0</v>
       </c>
       <c r="AR5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AS5" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:45">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F6">
         <v>1.056593274171426</v>
@@ -9150,7 +8964,7 @@
         <v>0.2973865063406794</v>
       </c>
       <c r="N6">
-        <v>0.3323731541454653</v>
+        <v>0.364403183825903</v>
       </c>
       <c r="O6">
         <v>3</v>
@@ -9222,13 +9036,13 @@
         <v>1.109868565865976</v>
       </c>
       <c r="AL6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="s">
         <v>150</v>
-      </c>
-      <c r="AM6">
-        <v>1</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>151</v>
       </c>
       <c r="AO6">
         <v>0.0090987614396815</v>
@@ -9240,27 +9054,24 @@
         <v>0</v>
       </c>
       <c r="AR6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS6" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:45">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F7">
         <v>1.056593274171426</v>
@@ -9287,7 +9098,7 @@
         <v>0.2973865063392713</v>
       </c>
       <c r="N7">
-        <v>0.3323731541454653</v>
+        <v>0.364403183825903</v>
       </c>
       <c r="O7">
         <v>3</v>
@@ -9359,13 +9170,13 @@
         <v>1.109868565865976</v>
       </c>
       <c r="AL7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="s">
         <v>150</v>
-      </c>
-      <c r="AM7">
-        <v>1</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>151</v>
       </c>
       <c r="AO7">
         <v>0.0090987614396813</v>
@@ -9377,27 +9188,24 @@
         <v>0</v>
       </c>
       <c r="AR7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS7" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:45">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F8">
         <v>1.02004805769283</v>
@@ -9424,7 +9232,7 @@
         <v>0.1096744423684857</v>
       </c>
       <c r="N8">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O8">
         <v>2</v>
@@ -9496,13 +9304,13 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="s">
         <v>150</v>
-      </c>
-      <c r="AM8">
-        <v>1</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>151</v>
       </c>
       <c r="AO8">
         <v>0.0140953415322656</v>
@@ -9514,24 +9322,21 @@
         <v>0</v>
       </c>
       <c r="AS8" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:45">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F9">
         <v>1.02004805769283</v>
@@ -9558,7 +9363,7 @@
         <v>0.1096744423836354</v>
       </c>
       <c r="N9">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O9">
         <v>2</v>
@@ -9630,13 +9435,13 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9" t="s">
         <v>150</v>
-      </c>
-      <c r="AM9">
-        <v>1</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>151</v>
       </c>
       <c r="AO9">
         <v>0.014095341532266</v>
@@ -9648,24 +9453,21 @@
         <v>0</v>
       </c>
       <c r="AS9" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:45">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F10">
         <v>1.02004805769283</v>
@@ -9692,7 +9494,7 @@
         <v>0.109674442223749</v>
       </c>
       <c r="N10">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O10">
         <v>2</v>
@@ -9764,13 +9566,13 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10" t="s">
         <v>150</v>
-      </c>
-      <c r="AM10">
-        <v>1</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>151</v>
       </c>
       <c r="AO10">
         <v>0.0140953415322658</v>
@@ -9782,24 +9584,21 @@
         <v>0</v>
       </c>
       <c r="AS10" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:45">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F11">
         <v>1.02004805769283</v>
@@ -9826,7 +9625,7 @@
         <v>0.109674442223749</v>
       </c>
       <c r="N11">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O11">
         <v>2</v>
@@ -9898,13 +9697,13 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11" t="s">
         <v>150</v>
-      </c>
-      <c r="AM11">
-        <v>1</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>151</v>
       </c>
       <c r="AO11">
         <v>0.0140953415322658</v>
@@ -9916,24 +9715,21 @@
         <v>0</v>
       </c>
       <c r="AS11" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:45">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F12">
         <v>1.02004805769283</v>
@@ -9960,7 +9756,7 @@
         <v>0.1096744425874235</v>
       </c>
       <c r="N12">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O12">
         <v>2</v>
@@ -10032,13 +9828,13 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12" t="s">
         <v>150</v>
-      </c>
-      <c r="AM12">
-        <v>1</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>151</v>
       </c>
       <c r="AO12">
         <v>0.0140953415322657</v>
@@ -10050,24 +9846,21 @@
         <v>0</v>
       </c>
       <c r="AS12" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:45">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F13">
         <v>1.02004805769283</v>
@@ -10094,7 +9887,7 @@
         <v>0.109674442353336</v>
       </c>
       <c r="N13">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O13">
         <v>2</v>
@@ -10166,13 +9959,13 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL13" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13" t="s">
         <v>150</v>
-      </c>
-      <c r="AM13">
-        <v>1</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>151</v>
       </c>
       <c r="AO13">
         <v>0.0140953415322656</v>
@@ -10184,24 +9977,21 @@
         <v>0</v>
       </c>
       <c r="AS13" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:45">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F14">
         <v>1.02004805769283</v>
@@ -10228,7 +10018,7 @@
         <v>0.1096744422844293</v>
       </c>
       <c r="N14">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O14">
         <v>2</v>
@@ -10300,13 +10090,13 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14" t="s">
         <v>150</v>
-      </c>
-      <c r="AM14">
-        <v>1</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>151</v>
       </c>
       <c r="AO14">
         <v>0.0140953415322657</v>
@@ -10318,24 +10108,21 @@
         <v>0</v>
       </c>
       <c r="AS14" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:45">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F15">
         <v>1.02004805769283</v>
@@ -10362,7 +10149,7 @@
         <v>0.109674442353336</v>
       </c>
       <c r="N15">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O15">
         <v>2</v>
@@ -10434,13 +10221,13 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="s">
         <v>150</v>
-      </c>
-      <c r="AM15">
-        <v>1</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>151</v>
       </c>
       <c r="AO15">
         <v>0.0140953415322656</v>
@@ -10452,24 +10239,21 @@
         <v>0</v>
       </c>
       <c r="AS15" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:45">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F16">
         <v>1.02004805769283</v>
@@ -10496,7 +10280,7 @@
         <v>0.1096744421572857</v>
       </c>
       <c r="N16">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O16">
         <v>2</v>
@@ -10568,13 +10352,13 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16" t="s">
         <v>150</v>
-      </c>
-      <c r="AM16">
-        <v>1</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>151</v>
       </c>
       <c r="AO16">
         <v>0.014095341532266</v>
@@ -10586,24 +10370,21 @@
         <v>0</v>
       </c>
       <c r="AS16" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:46">
+    <row r="17" spans="1:45">
       <c r="A17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F17">
         <v>1.02004805769283</v>
@@ -10630,7 +10411,7 @@
         <v>0.1096744421572857</v>
       </c>
       <c r="N17">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O17">
         <v>2</v>
@@ -10702,13 +10483,13 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17" t="s">
         <v>150</v>
-      </c>
-      <c r="AM17">
-        <v>1</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>151</v>
       </c>
       <c r="AO17">
         <v>0.014095341532266</v>
@@ -10720,24 +10501,21 @@
         <v>0</v>
       </c>
       <c r="AS17" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:46">
+    <row r="18" spans="1:45">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F18">
         <v>1.02004805769283</v>
@@ -10764,7 +10542,7 @@
         <v>0.1096744423684857</v>
       </c>
       <c r="N18">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O18">
         <v>2</v>
@@ -10836,13 +10614,13 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="s">
         <v>150</v>
-      </c>
-      <c r="AM18">
-        <v>1</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>151</v>
       </c>
       <c r="AO18">
         <v>0.0140953415322656</v>
@@ -10854,24 +10632,21 @@
         <v>0</v>
       </c>
       <c r="AS18" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:46">
+    <row r="19" spans="1:45">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F19">
         <v>1.02004805769283</v>
@@ -10898,7 +10673,7 @@
         <v>0.1096744422222014</v>
       </c>
       <c r="N19">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O19">
         <v>2</v>
@@ -10970,13 +10745,13 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19" t="s">
         <v>150</v>
-      </c>
-      <c r="AM19">
-        <v>1</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>151</v>
       </c>
       <c r="AO19">
         <v>0.0140953415322654</v>
@@ -10988,24 +10763,21 @@
         <v>0</v>
       </c>
       <c r="AS19" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:46">
+    <row r="20" spans="1:45">
       <c r="A20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F20">
         <v>1.012753833340836</v>
@@ -11032,7 +10804,7 @@
         <v>0.0897519827407154</v>
       </c>
       <c r="N20">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O20">
         <v>3</v>
@@ -11104,13 +10876,13 @@
         <v>1.109868565865976</v>
       </c>
       <c r="AL20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20" t="s">
         <v>150</v>
-      </c>
-      <c r="AM20">
-        <v>1</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>151</v>
       </c>
       <c r="AO20">
         <v>-0.0210380827496821</v>
@@ -11122,27 +10894,24 @@
         <v>0</v>
       </c>
       <c r="AR20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AS20" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:46">
+    <row r="21" spans="1:45">
       <c r="A21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F21">
         <v>0.9960444492191682</v>
@@ -11169,7 +10938,7 @@
         <v>0.0918659345787123</v>
       </c>
       <c r="N21">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -11238,13 +11007,13 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21" t="s">
         <v>150</v>
-      </c>
-      <c r="AM21">
-        <v>1</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>151</v>
       </c>
       <c r="AO21">
         <v>-0.025570419822241</v>
@@ -11256,27 +11025,24 @@
         <v>0</v>
       </c>
       <c r="AR21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AS21" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:46">
+    <row r="22" spans="1:45">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F22">
         <v>0.9956356627087248</v>
@@ -11303,7 +11069,7 @@
         <v>0.0930162892071755</v>
       </c>
       <c r="N22">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -11372,13 +11138,13 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL22" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="s">
         <v>150</v>
-      </c>
-      <c r="AM22">
-        <v>1</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>151</v>
       </c>
       <c r="AO22">
         <v>-0.0086947696942436</v>
@@ -11390,27 +11156,24 @@
         <v>0</v>
       </c>
       <c r="AR22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AS22" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:46">
+    <row r="23" spans="1:45">
       <c r="A23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F23">
         <v>0.9955745921547524</v>
@@ -11437,7 +11200,7 @@
         <v>0.0932655493589698</v>
       </c>
       <c r="N23">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -11506,13 +11269,13 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="s">
         <v>150</v>
-      </c>
-      <c r="AM23">
-        <v>1</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>151</v>
       </c>
       <c r="AO23">
         <v>-0.009402377006454099</v>
@@ -11524,27 +11287,24 @@
         <v>0</v>
       </c>
       <c r="AR23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AS23" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:46">
+    <row r="24" spans="1:45">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F24">
         <v>0.9952880329088488</v>
@@ -11571,7 +11331,7 @@
         <v>0.0928148652635387</v>
       </c>
       <c r="N24">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -11640,13 +11400,13 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL24" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="s">
         <v>150</v>
-      </c>
-      <c r="AM24">
-        <v>1</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>151</v>
       </c>
       <c r="AO24">
         <v>-0.0282462549280952</v>
@@ -11658,27 +11418,24 @@
         <v>0</v>
       </c>
       <c r="AR24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AS24" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:46">
+    <row r="25" spans="1:45">
       <c r="A25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F25">
         <v>0.9950621158558792</v>
@@ -11705,7 +11462,7 @@
         <v>0.09522513699314029</v>
       </c>
       <c r="N25">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -11774,13 +11531,13 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL25" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="s">
         <v>150</v>
-      </c>
-      <c r="AM25">
-        <v>1</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>151</v>
       </c>
       <c r="AO25">
         <v>0.0440968338747182</v>
@@ -11792,27 +11549,24 @@
         <v>0</v>
       </c>
       <c r="AR25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AS25" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:46">
+    <row r="26" spans="1:45">
       <c r="A26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F26">
         <v>0.9949203308329048</v>
@@ -11839,7 +11593,7 @@
         <v>0.0918058123624176</v>
       </c>
       <c r="N26">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -11908,13 +11662,13 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL26" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="s">
         <v>150</v>
-      </c>
-      <c r="AM26">
-        <v>1</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>151</v>
       </c>
       <c r="AO26">
         <v>0.0020134268383163</v>
@@ -11926,27 +11680,24 @@
         <v>0</v>
       </c>
       <c r="AR26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AS26" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:46">
+    <row r="27" spans="1:45">
       <c r="A27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F27">
         <v>0.9941198229372316</v>
@@ -11973,7 +11724,7 @@
         <v>0.0977527949970888</v>
       </c>
       <c r="N27">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -12042,13 +11793,13 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27" t="s">
         <v>150</v>
-      </c>
-      <c r="AM27">
-        <v>1</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>151</v>
       </c>
       <c r="AO27">
         <v>0.0133476137212195</v>
@@ -12060,27 +11811,24 @@
         <v>0</v>
       </c>
       <c r="AR27" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AS27" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:46">
+    <row r="28" spans="1:45">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F28">
         <v>0.993629834552358</v>
@@ -12107,7 +11855,7 @@
         <v>0.0955750036270035</v>
       </c>
       <c r="N28">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O28">
         <v>2</v>
@@ -12176,13 +11924,13 @@
         <v>1.007094398189811</v>
       </c>
       <c r="AL28" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28" t="s">
         <v>150</v>
-      </c>
-      <c r="AM28">
-        <v>1</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>151</v>
       </c>
       <c r="AO28">
         <v>-0.0134819914090808</v>
@@ -12194,27 +11942,24 @@
         <v>0</v>
       </c>
       <c r="AR28" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AS28" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:46">
+    <row r="29" spans="1:45">
       <c r="A29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F29">
         <v>0.9935313397329736</v>
@@ -12241,7 +11986,7 @@
         <v>0.09796262863099731</v>
       </c>
       <c r="N29">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -12310,13 +12055,13 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL29" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29" t="s">
         <v>150</v>
-      </c>
-      <c r="AM29">
-        <v>1</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>151</v>
       </c>
       <c r="AO29">
         <v>-0.0065598602662432</v>
@@ -12328,27 +12073,24 @@
         <v>0</v>
       </c>
       <c r="AR29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AS29" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:46">
+    <row r="30" spans="1:45">
       <c r="A30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F30">
         <v>0.9931741218573716</v>
@@ -12375,7 +12117,7 @@
         <v>0.1000632204747639</v>
       </c>
       <c r="N30">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -12444,13 +12186,13 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL30" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30" t="s">
         <v>150</v>
-      </c>
-      <c r="AM30">
-        <v>1</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>151</v>
       </c>
       <c r="AO30">
         <v>0.0153353345227267</v>
@@ -12462,27 +12204,24 @@
         <v>0</v>
       </c>
       <c r="AR30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AS30" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:46">
+    <row r="31" spans="1:45">
       <c r="A31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F31">
         <v>0.9931268276102648</v>
@@ -12509,7 +12248,7 @@
         <v>0.09941205117683211</v>
       </c>
       <c r="N31">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -12578,13 +12317,13 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31" t="s">
         <v>150</v>
-      </c>
-      <c r="AM31">
-        <v>1</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>151</v>
       </c>
       <c r="AO31">
         <v>-0.0300331390645142</v>
@@ -12596,27 +12335,24 @@
         <v>0</v>
       </c>
       <c r="AR31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AS31" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:46">
+    <row r="32" spans="1:45">
       <c r="A32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F32">
         <v>0.9918354785115864</v>
@@ -12643,7 +12379,7 @@
         <v>0.092848664399766</v>
       </c>
       <c r="N32">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O32">
         <v>2</v>
@@ -12712,13 +12448,13 @@
         <v>1.007094398189811</v>
       </c>
       <c r="AL32" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32" t="s">
         <v>150</v>
-      </c>
-      <c r="AM32">
-        <v>1</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>151</v>
       </c>
       <c r="AO32">
         <v>0.0223168535666334</v>
@@ -12730,27 +12466,24 @@
         <v>0</v>
       </c>
       <c r="AR32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AS32" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:46">
+    <row r="33" spans="1:45">
       <c r="A33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F33">
         <v>0.9906919449532976</v>
@@ -12777,7 +12510,7 @@
         <v>0.1064003727538249</v>
       </c>
       <c r="N33">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O33">
         <v>2</v>
@@ -12846,13 +12579,13 @@
         <v>1.007094398189811</v>
       </c>
       <c r="AL33" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33" t="s">
         <v>150</v>
-      </c>
-      <c r="AM33">
-        <v>1</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>151</v>
       </c>
       <c r="AO33">
         <v>-0.0261173396904371</v>
@@ -12864,27 +12597,24 @@
         <v>0</v>
       </c>
       <c r="AR33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AS33" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:46">
+    <row r="34" spans="1:45">
       <c r="A34" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F34">
         <v>0.9895331395755976</v>
@@ -12911,7 +12641,7 @@
         <v>0.1203518485462991</v>
       </c>
       <c r="N34">
-        <v>0.1524456748253122</v>
+        <v>0.1636032941176253</v>
       </c>
       <c r="O34">
         <v>2</v>
@@ -12980,13 +12710,13 @@
         <v>1.007094398189811</v>
       </c>
       <c r="AL34" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34" t="s">
         <v>150</v>
-      </c>
-      <c r="AM34">
-        <v>1</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>151</v>
       </c>
       <c r="AO34">
         <v>0.008510675376070099</v>
@@ -12998,27 +12728,24 @@
         <v>0</v>
       </c>
       <c r="AR34" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AS34" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:46">
+    <row r="35" spans="1:45">
       <c r="A35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D35" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F35">
         <v>0.9885610199149532</v>
@@ -13045,7 +12772,7 @@
         <v>0.1083343280399481</v>
       </c>
       <c r="N35">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O35">
         <v>3</v>
@@ -13114,13 +12841,13 @@
         <v>1.009525841662229</v>
       </c>
       <c r="AL35" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35" t="s">
         <v>150</v>
-      </c>
-      <c r="AM35">
-        <v>1</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>151</v>
       </c>
       <c r="AO35">
         <v>-0.0105632701642349</v>
@@ -13132,27 +12859,24 @@
         <v>0</v>
       </c>
       <c r="AR35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AS35" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:46">
+    <row r="36" spans="1:45">
       <c r="A36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D36" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F36">
         <v>0.9868934836198452</v>
@@ -13179,7 +12903,7 @@
         <v>0.1079464689357112</v>
       </c>
       <c r="N36">
-        <v>0.1488438863686462</v>
+        <v>0.1538980081468684</v>
       </c>
       <c r="O36">
         <v>8</v>
@@ -13248,7 +12972,7 @@
         <v>1.020358949003822</v>
       </c>
       <c r="AL36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -13266,27 +12990,24 @@
         <v>0</v>
       </c>
       <c r="AR36" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AS36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:46">
+    <row r="37" spans="1:45">
       <c r="A37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F37">
         <v>0.9864197177533276</v>
@@ -13313,7 +13034,7 @@
         <v>0.1307379626183808</v>
       </c>
       <c r="N37">
-        <v>0.1553827923002075</v>
+        <v>0.1699079709492328</v>
       </c>
       <c r="O37">
         <v>4</v>
@@ -13382,13 +13103,13 @@
         <v>1.011819988425393</v>
       </c>
       <c r="AL37" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37" t="s">
         <v>150</v>
-      </c>
-      <c r="AM37">
-        <v>1</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>151</v>
       </c>
       <c r="AO37">
         <v>-0.0017015993654165</v>
@@ -13400,27 +13121,24 @@
         <v>0</v>
       </c>
       <c r="AR37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AS37" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:46">
+    <row r="38" spans="1:45">
       <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>218</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>220</v>
-      </c>
       <c r="D38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F38">
         <v>0.9852996726139758</v>
@@ -13447,7 +13165,7 @@
         <v>0.1308486672001747</v>
       </c>
       <c r="N38">
-        <v>0.1553827923002075</v>
+        <v>0.1699079709492328</v>
       </c>
       <c r="O38">
         <v>5</v>
@@ -13516,13 +13234,13 @@
         <v>1.014028695370705</v>
       </c>
       <c r="AL38" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38" t="s">
         <v>150</v>
-      </c>
-      <c r="AM38">
-        <v>1</v>
-      </c>
-      <c r="AN38" t="s">
-        <v>151</v>
       </c>
       <c r="AO38">
         <v>0.0354036549011216</v>
@@ -13534,27 +13252,24 @@
         <v>0</v>
       </c>
       <c r="AR38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AS38" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:46">
+    <row r="39" spans="1:45">
       <c r="A39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D39" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F39">
         <v>0.9828106639971363</v>
@@ -13581,7 +13296,7 @@
         <v>0.1172521242369253</v>
       </c>
       <c r="N39">
-        <v>0.1524456748253122</v>
+        <v>0.1619196001367064</v>
       </c>
       <c r="O39">
         <v>15</v>
@@ -13650,7 +13365,7 @@
         <v>1.034372627655284</v>
       </c>
       <c r="AL39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM39">
         <v>1</v>
@@ -13668,13 +13383,10 @@
         <v>0</v>
       </c>
       <c r="AR39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AS39" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT39" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/results/BINARY/Pretomanid.xlsx
+++ b/results/BINARY/Pretomanid.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="258">
   <si>
     <t>mutation</t>
   </si>
@@ -136,15 +136,6 @@
   </si>
   <si>
     <t>regression_confidence</t>
-  </si>
-  <si>
-    <t>MIC_coef</t>
-  </si>
-  <si>
-    <t>BH_MIC_pval</t>
-  </si>
-  <si>
-    <t>Use_MIC_Evidence</t>
   </si>
   <si>
     <t>single_lineage</t>
@@ -1156,13 +1147,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS50"/>
+  <dimension ref="A1:AP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,28 +1280,19 @@
       <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:42">
+      <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F2">
         <v>1.694641637565141</v>
@@ -1367,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Y2">
         <v>0.8</v>
@@ -1397,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="AI2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AJ2">
         <v>0.5868177012338136</v>
@@ -1406,39 +1388,30 @@
         <v>1.090628313792116</v>
       </c>
       <c r="AL2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO2">
-        <v>0.3387333890909767</v>
-      </c>
-      <c r="AP2">
-        <v>0.009900000000000001</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F3">
         <v>1.473009105033125</v>
@@ -1495,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Y3">
         <v>0.9</v>
@@ -1525,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="AI3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AJ3">
         <v>0.7320116427439927</v>
@@ -1534,42 +1507,33 @@
         <v>1.106539777104723</v>
       </c>
       <c r="AL3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO3" t="s">
         <v>149</v>
       </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO3">
-        <v>0.255868240990465</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>173</v>
+      <c r="AP3" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:42">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F4">
         <v>1.46243671184745</v>
@@ -1626,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="X4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Y4">
         <v>0.9</v>
@@ -1656,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="AI4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AJ4">
         <v>0.7320116427439927</v>
@@ -1665,42 +1629,33 @@
         <v>1.106539777104723</v>
       </c>
       <c r="AL4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO4" t="s">
         <v>150</v>
       </c>
-      <c r="AO4">
-        <v>0.2179706389751113</v>
-      </c>
-      <c r="AP4">
-        <v>0.04455</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>173</v>
+      <c r="AP4" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:42">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F5">
         <v>1.458793558671009</v>
@@ -1757,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="X5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Y5">
         <v>0.9</v>
@@ -1787,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="AI5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AJ5">
         <v>0.7320116427439927</v>
@@ -1796,42 +1751,33 @@
         <v>1.106539777104723</v>
       </c>
       <c r="AL5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO5" t="s">
         <v>150</v>
       </c>
-      <c r="AO5">
-        <v>0.2085230505179962</v>
-      </c>
-      <c r="AP5">
-        <v>0.0385</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>173</v>
+      <c r="AP5" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:42">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <v>1.450391914181331</v>
@@ -1888,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="X6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Y6">
         <v>0.9</v>
@@ -1918,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="AI6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AJ6">
         <v>0.7320116427439927</v>
@@ -1927,42 +1873,33 @@
         <v>1.106539777104723</v>
       </c>
       <c r="AL6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM6">
         <v>0</v>
       </c>
       <c r="AN6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO6" t="s">
         <v>150</v>
       </c>
-      <c r="AO6">
-        <v>0.2078460495506812</v>
-      </c>
-      <c r="AP6">
-        <v>0.063</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>173</v>
+      <c r="AP6" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:42">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F7">
         <v>1.442554706945259</v>
@@ -2019,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="X7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Y7">
         <v>0.9</v>
@@ -2049,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AJ7">
         <v>0.7320116427439927</v>
@@ -2058,42 +1995,33 @@
         <v>1.106539777104723</v>
       </c>
       <c r="AL7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM7">
         <v>0</v>
       </c>
       <c r="AN7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO7">
-        <v>0.2265071702847451</v>
-      </c>
-      <c r="AP7">
-        <v>0.0385</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>154</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:42">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F8">
         <v>1.079911840361068</v>
@@ -2192,39 +2120,30 @@
         <v>1.108196697017925</v>
       </c>
       <c r="AL8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM8">
         <v>0</v>
       </c>
       <c r="AN8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO8">
-        <v>0.0421795093414044</v>
-      </c>
-      <c r="AP8">
-        <v>0.0197999999999999</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:42">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F9">
         <v>1.079911840361068</v>
@@ -2323,39 +2242,30 @@
         <v>1.108196697017925</v>
       </c>
       <c r="AL9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM9">
         <v>0</v>
       </c>
       <c r="AN9" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO9">
-        <v>0.0421795093414036</v>
-      </c>
-      <c r="AP9">
-        <v>0.0197999999999999</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:42">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F10">
         <v>1.079911840361068</v>
@@ -2454,39 +2364,30 @@
         <v>1.108196697017925</v>
       </c>
       <c r="AL10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM10">
         <v>0</v>
       </c>
       <c r="AN10" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO10">
-        <v>0.0421795093414044</v>
-      </c>
-      <c r="AP10">
-        <v>0.0197999999999999</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:42">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F11">
         <v>1.079911840361068</v>
@@ -2585,39 +2486,30 @@
         <v>1.108196697017925</v>
       </c>
       <c r="AL11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM11">
         <v>0</v>
       </c>
       <c r="AN11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO11">
-        <v>0.0421795093414039</v>
-      </c>
-      <c r="AP11">
-        <v>0.0197999999999999</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:42">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F12">
         <v>1.079911840361068</v>
@@ -2716,39 +2608,30 @@
         <v>1.108196697017925</v>
       </c>
       <c r="AL12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM12">
         <v>0</v>
       </c>
       <c r="AN12" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO12">
-        <v>0.042179509341404</v>
-      </c>
-      <c r="AP12">
-        <v>0.0197999999999999</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:42">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F13">
         <v>0.9987011357652646</v>
@@ -2847,42 +2730,33 @@
         <v>1.121632758828183</v>
       </c>
       <c r="AL13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM13">
         <v>0</v>
       </c>
       <c r="AN13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO13">
-        <v>-0.0472735098968578</v>
-      </c>
-      <c r="AP13">
-        <v>0.3637173913043479</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>173</v>
+        <v>148</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:42">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F14">
         <v>0.9956575120508324</v>
@@ -2978,42 +2852,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM14">
         <v>0</v>
       </c>
       <c r="AN14" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO14">
-        <v>-0.0075557533188244</v>
-      </c>
-      <c r="AP14">
-        <v>0.5898315789473684</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:42">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F15">
         <v>0.9950999194321012</v>
@@ -3109,42 +2974,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM15">
         <v>0</v>
       </c>
       <c r="AN15" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO15">
-        <v>0.0116968106444941</v>
-      </c>
-      <c r="AP15">
-        <v>0.4344179104477611</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:42">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F16">
         <v>0.9950348885184024</v>
@@ -3240,42 +3096,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM16">
         <v>0</v>
       </c>
       <c r="AN16" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO16">
-        <v>0.0147227675795061</v>
-      </c>
-      <c r="AP16">
-        <v>0.4468378378378378</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>158</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:42">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F17">
         <v>0.9943728368732652</v>
@@ -3371,42 +3218,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM17">
         <v>0</v>
       </c>
       <c r="AN17" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO17">
-        <v>-0.0018757274855151</v>
-      </c>
-      <c r="AP17">
-        <v>0.5929897959183673</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>159</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:42">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F18">
         <v>0.9940948178796108</v>
@@ -3502,42 +3340,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM18">
         <v>0</v>
       </c>
       <c r="AN18" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO18">
-        <v>-0.0480714673943139</v>
-      </c>
-      <c r="AP18">
-        <v>0.231</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>160</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:42">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F19">
         <v>0.9930870187977816</v>
@@ -3633,42 +3462,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL19" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO19" t="s">
         <v>149</v>
       </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO19">
-        <v>0.0006164183346615</v>
-      </c>
-      <c r="AP19">
-        <v>0.4868470588235294</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>173</v>
+      <c r="AP19" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:42">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F20">
         <v>0.9930870187977816</v>
@@ -3764,42 +3584,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO20" t="s">
         <v>149</v>
       </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO20">
-        <v>0.0006164183346615</v>
-      </c>
-      <c r="AP20">
-        <v>0.4868470588235294</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>173</v>
+      <c r="AP20" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:42">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F21">
         <v>0.9918346216857098</v>
@@ -3895,42 +3706,33 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM21">
         <v>0</v>
       </c>
       <c r="AN21" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO21">
-        <v>0.0045767730448877</v>
-      </c>
-      <c r="AP21">
-        <v>0.4868470588235294</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>161</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:42">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F22">
         <v>0.9903282979185434</v>
@@ -4026,42 +3828,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM22">
         <v>0</v>
       </c>
       <c r="AN22" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO22">
-        <v>-0.0054980690380745</v>
-      </c>
-      <c r="AP22">
-        <v>0.5929897959183673</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:42">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F23">
         <v>0.989605796694226</v>
@@ -4157,42 +3950,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM23">
         <v>0</v>
       </c>
       <c r="AN23" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO23">
-        <v>0.0022951012854454</v>
-      </c>
-      <c r="AP23">
-        <v>0.4868470588235294</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>163</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:42">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F24">
         <v>0.9891459226467882</v>
@@ -4288,39 +4072,30 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM24">
         <v>0</v>
       </c>
       <c r="AN24" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO24">
-        <v>-0.06284544516707739</v>
-      </c>
-      <c r="AP24">
-        <v>0.0565714285714285</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:42">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F25">
         <v>0.9887933318936512</v>
@@ -4416,42 +4191,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM25">
         <v>0</v>
       </c>
       <c r="AN25" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO25">
-        <v>-0.005947265263568</v>
-      </c>
-      <c r="AP25">
-        <v>0.5929897959183673</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:42">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F26">
         <v>0.9886710536728824</v>
@@ -4547,42 +4313,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM26">
         <v>0</v>
       </c>
       <c r="AN26" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO26" t="s">
         <v>150</v>
       </c>
-      <c r="AO26">
-        <v>-0.0040528456452427</v>
-      </c>
-      <c r="AP26">
-        <v>0.5898315789473684</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>173</v>
+      <c r="AP26" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:42">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F27">
         <v>0.988486870524215</v>
@@ -4678,42 +4435,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL27" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM27">
         <v>0</v>
       </c>
       <c r="AN27" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO27" t="s">
         <v>150</v>
       </c>
-      <c r="AO27">
-        <v>-0.0183146160278452</v>
-      </c>
-      <c r="AP27">
-        <v>0.4344179104477611</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>173</v>
+      <c r="AP27" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:42">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F28">
         <v>0.988347260052571</v>
@@ -4809,42 +4557,33 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO28" t="s">
         <v>149</v>
       </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO28">
-        <v>0.0103841324673318</v>
-      </c>
-      <c r="AP28">
-        <v>0.4715526315789474</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>173</v>
+      <c r="AP28" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:42">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F29">
         <v>0.9883177721472824</v>
@@ -4940,42 +4679,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM29">
         <v>0</v>
       </c>
       <c r="AN29" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO29">
-        <v>0.022176667177339</v>
-      </c>
-      <c r="AP29">
-        <v>0.4344179104477611</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:42">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F30">
         <v>0.9881570920304168</v>
@@ -5071,42 +4801,33 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM30">
         <v>0</v>
       </c>
       <c r="AN30" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO30">
-        <v>-0.0784873283910599</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30" t="s">
-        <v>160</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:45">
+    <row r="31" spans="1:42">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F31">
         <v>0.9881282789774234</v>
@@ -5202,42 +4923,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL31" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM31">
         <v>0</v>
       </c>
       <c r="AN31" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO31">
-        <v>-0.0019421399845012</v>
-      </c>
-      <c r="AP31">
-        <v>0.595</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:42">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F32">
         <v>0.9879577509447351</v>
@@ -5333,42 +5045,33 @@
         <v>1.013986870030706</v>
       </c>
       <c r="AL32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM32">
         <v>0</v>
       </c>
       <c r="AN32" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO32">
-        <v>-0.0413788397048936</v>
-      </c>
-      <c r="AP32">
-        <v>0.3350769230769231</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>158</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>173</v>
+        <v>148</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:45">
+    <row r="33" spans="1:42">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F33">
         <v>0.98777033095005</v>
@@ -5464,42 +5167,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM33">
         <v>0</v>
       </c>
       <c r="AN33" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO33">
-        <v>0.00976263071263</v>
-      </c>
-      <c r="AP33">
-        <v>0.4468378378378378</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:45">
+    <row r="34" spans="1:42">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F34">
         <v>0.9873776451827808</v>
@@ -5595,42 +5289,33 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL34" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM34">
         <v>0</v>
       </c>
       <c r="AN34" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO34">
-        <v>0.0381845824486514</v>
-      </c>
-      <c r="AP34">
-        <v>0.3476</v>
-      </c>
-      <c r="AQ34">
-        <v>0</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>166</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:45">
+    <row r="35" spans="1:42">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F35">
         <v>0.9864254351606082</v>
@@ -5726,42 +5411,33 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM35">
         <v>0</v>
       </c>
       <c r="AN35" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO35" t="s">
         <v>150</v>
       </c>
-      <c r="AO35">
-        <v>0.0195244925739845</v>
-      </c>
-      <c r="AP35">
-        <v>0.4344179104477611</v>
-      </c>
-      <c r="AQ35">
-        <v>0</v>
-      </c>
-      <c r="AR35" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>173</v>
+      <c r="AP35" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:45">
+    <row r="36" spans="1:42">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F36">
         <v>0.9846690224926312</v>
@@ -5857,42 +5533,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM36">
         <v>0</v>
       </c>
       <c r="AN36" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO36">
-        <v>0.0242839307095804</v>
-      </c>
-      <c r="AP36">
-        <v>0.4197599999999999</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:45">
+    <row r="37" spans="1:42">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F37">
         <v>0.9838599542333424</v>
@@ -5988,42 +5655,33 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM37">
         <v>0</v>
       </c>
       <c r="AN37" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO37" t="s">
         <v>150</v>
       </c>
-      <c r="AO37">
-        <v>0.0225405515668308</v>
-      </c>
-      <c r="AP37">
-        <v>0.4344179104477611</v>
-      </c>
-      <c r="AQ37">
-        <v>0</v>
-      </c>
-      <c r="AR37" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS37" t="s">
-        <v>173</v>
+      <c r="AP37" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:45">
+    <row r="38" spans="1:42">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F38">
         <v>0.9805599212064554</v>
@@ -6119,42 +5777,33 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL38" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM38">
         <v>0</v>
       </c>
       <c r="AN38" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO38">
-        <v>0.0151148048393362</v>
-      </c>
-      <c r="AP38">
-        <v>0.4468378378378378</v>
-      </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
-      <c r="AR38" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS38" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:45">
+    <row r="39" spans="1:42">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F39">
         <v>0.9782129548004936</v>
@@ -6250,42 +5899,33 @@
         <v>1.01178481253522</v>
       </c>
       <c r="AL39" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM39">
         <v>0</v>
       </c>
       <c r="AN39" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO39">
-        <v>0.0154852649787547</v>
-      </c>
-      <c r="AP39">
-        <v>0.4468378378378378</v>
-      </c>
-      <c r="AQ39">
-        <v>0</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS39" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:45">
+    <row r="40" spans="1:42">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F40">
         <v>0.9761514222955076</v>
@@ -6381,42 +6021,33 @@
         <v>1.022339649381213</v>
       </c>
       <c r="AL40" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM40">
         <v>0</v>
       </c>
       <c r="AN40" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO40">
-        <v>0.0763697908789274</v>
-      </c>
-      <c r="AP40">
-        <v>0.2284615384615384</v>
-      </c>
-      <c r="AQ40">
-        <v>0</v>
-      </c>
-      <c r="AR40" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS40" t="s">
-        <v>173</v>
+        <v>148</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:45">
+    <row r="41" spans="1:42">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F41">
         <v>0.973679234822787</v>
@@ -6512,42 +6143,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL41" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM41">
         <v>0</v>
       </c>
       <c r="AN41" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO41">
-        <v>0.0026608691139785</v>
-      </c>
-      <c r="AP41">
-        <v>0.4868470588235294</v>
-      </c>
-      <c r="AQ41">
-        <v>0</v>
-      </c>
-      <c r="AR41" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP41" t="s">
         <v>170</v>
       </c>
-      <c r="AS41" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="42" spans="1:45">
+    <row r="42" spans="1:42">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F42">
         <v>0.965493599880532</v>
@@ -6643,42 +6265,33 @@
         <v>1.013986870030706</v>
       </c>
       <c r="AL42" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM42">
         <v>0</v>
       </c>
       <c r="AN42" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO42" t="s">
         <v>150</v>
       </c>
-      <c r="AO42">
-        <v>0.06720510422583501</v>
-      </c>
-      <c r="AP42">
-        <v>0.319</v>
-      </c>
-      <c r="AQ42">
-        <v>0</v>
-      </c>
-      <c r="AR42" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS42" t="s">
-        <v>173</v>
+      <c r="AP42" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:45">
+    <row r="43" spans="1:42">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F43">
         <v>0.958469593758034</v>
@@ -6774,42 +6387,33 @@
         <v>1.01178481253522</v>
       </c>
       <c r="AL43" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM43">
         <v>0</v>
       </c>
       <c r="AN43" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO43">
-        <v>-0.0006413771170054</v>
-      </c>
-      <c r="AP43">
-        <v>0.5556774193548387</v>
-      </c>
-      <c r="AQ43">
-        <v>0</v>
-      </c>
-      <c r="AR43" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS43" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:45">
+    <row r="44" spans="1:42">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F44">
         <v>0.9385771561287792</v>
@@ -6905,39 +6509,30 @@
         <v>1.069213019489775</v>
       </c>
       <c r="AL44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM44">
         <v>0</v>
       </c>
       <c r="AN44" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO44">
-        <v>-0.0482686946389527</v>
-      </c>
-      <c r="AP44">
-        <v>0.2178</v>
-      </c>
-      <c r="AQ44">
-        <v>0</v>
-      </c>
-      <c r="AS44" t="s">
-        <v>173</v>
+        <v>148</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:45">
+    <row r="45" spans="1:42">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F45">
         <v>0.8956706223158238</v>
@@ -7033,42 +6628,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM45">
         <v>0</v>
       </c>
       <c r="AN45" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO45">
-        <v>0.0182384186565656</v>
-      </c>
-      <c r="AP45">
-        <v>0.4344179104477611</v>
-      </c>
-      <c r="AQ45">
-        <v>0</v>
-      </c>
-      <c r="AR45" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS45" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:45">
+    <row r="46" spans="1:42">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F46">
         <v>0.8805156653330068</v>
@@ -7164,42 +6750,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL46" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM46">
         <v>0</v>
       </c>
       <c r="AN46" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO46">
-        <v>-0.0152405002219274</v>
-      </c>
-      <c r="AP46">
-        <v>0.4868470588235294</v>
-      </c>
-      <c r="AQ46">
-        <v>0</v>
-      </c>
-      <c r="AR46" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS46" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:45">
+    <row r="47" spans="1:42">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F47">
         <v>0.8764684522264287</v>
@@ -7295,42 +6872,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL47" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM47">
         <v>0</v>
       </c>
       <c r="AN47" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO47">
-        <v>0.0538391398445663</v>
-      </c>
-      <c r="AP47">
-        <v>0.294</v>
-      </c>
-      <c r="AQ47">
-        <v>0</v>
-      </c>
-      <c r="AR47" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS47" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:45">
+    <row r="48" spans="1:42">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F48">
         <v>0.8724308083773236</v>
@@ -7426,42 +6994,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL48" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM48">
         <v>0</v>
       </c>
       <c r="AN48" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO48">
-        <v>0.0193425502561062</v>
-      </c>
-      <c r="AP48">
-        <v>0.4344179104477611</v>
-      </c>
-      <c r="AQ48">
-        <v>0</v>
-      </c>
-      <c r="AR48" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS48" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:45">
+    <row r="49" spans="1:42">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F49">
         <v>0.8373603971558966</v>
@@ -7557,42 +7116,33 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL49" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM49">
         <v>0</v>
       </c>
       <c r="AN49" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO49">
-        <v>-0.06898568905484</v>
-      </c>
-      <c r="AP49">
-        <v>0.103125</v>
-      </c>
-      <c r="AQ49">
-        <v>0</v>
-      </c>
-      <c r="AR49" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS49" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:45">
+    <row r="50" spans="1:42">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F50">
         <v>0.8326820985943296</v>
@@ -7688,28 +7238,19 @@
         <v>1.009497546097611</v>
       </c>
       <c r="AL50" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM50">
         <v>0</v>
       </c>
       <c r="AN50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO50">
-        <v>-0.0036142100483617</v>
-      </c>
-      <c r="AP50">
-        <v>0.5541847826086956</v>
-      </c>
-      <c r="AQ50">
-        <v>0</v>
-      </c>
-      <c r="AR50" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS50" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -7719,13 +7260,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS4"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7852,25 +7393,16 @@
       <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:42">
       <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>174</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>177</v>
       </c>
       <c r="F2">
         <v>2.321789905069681</v>
@@ -7927,7 +7459,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Y2">
         <v>0.5</v>
@@ -7957,7 +7489,7 @@
         <v>1</v>
       </c>
       <c r="AI2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AJ2">
         <v>0.2690273550635447</v>
@@ -7966,36 +7498,27 @@
         <v>0.9292735303476836</v>
       </c>
       <c r="AL2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AO2">
-        <v>0.5179876199855844</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>173</v>
+        <v>176</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F3">
         <v>1.459943903674587</v>
@@ -8052,7 +7575,7 @@
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Y3">
         <v>0.9</v>
@@ -8082,7 +7605,7 @@
         <v>1</v>
       </c>
       <c r="AI3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AJ3">
         <v>0.7320116427439927</v>
@@ -8091,39 +7614,30 @@
         <v>1.106539777104723</v>
       </c>
       <c r="AL3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO3" t="s">
         <v>150</v>
       </c>
-      <c r="AO3">
-        <v>0.2090257619180223</v>
-      </c>
-      <c r="AP3">
-        <v>0.0746666666666666</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS3" t="s">
+      <c r="AP3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="4" spans="1:45">
-      <c r="A4" t="s">
-        <v>176</v>
-      </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F4">
         <v>0.9881283038603894</v>
@@ -8219,28 +7733,19 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO4">
-        <v>-0.0019583828993608</v>
-      </c>
-      <c r="AP4">
-        <v>0.5885217391304347</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -8250,13 +7755,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS39"/>
+  <dimension ref="A1:AP39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8383,28 +7888,19 @@
       <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:42">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F2">
         <v>1.194466261364978</v>
@@ -8503,42 +7999,33 @@
         <v>1.151433773146992</v>
       </c>
       <c r="AL2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM2">
         <v>1</v>
       </c>
       <c r="AN2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO2">
-        <v>0.0891136506450171</v>
-      </c>
-      <c r="AP2">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F3">
         <v>1.194466261364978</v>
@@ -8637,42 +8124,33 @@
         <v>1.151433773146992</v>
       </c>
       <c r="AL3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM3">
         <v>1</v>
       </c>
       <c r="AN3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO3">
-        <v>0.0891136506450181</v>
-      </c>
-      <c r="AP3">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:42">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" t="s">
         <v>218</v>
-      </c>
-      <c r="D4" t="s">
-        <v>221</v>
       </c>
       <c r="F4">
         <v>1.126452883372995</v>
@@ -8771,39 +8249,30 @@
         <v>1.422908009991355</v>
       </c>
       <c r="AL4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM4">
         <v>1</v>
       </c>
       <c r="AN4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO4">
-        <v>0.1722404122801303</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:42">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F5">
         <v>1.115862095586755</v>
@@ -8902,42 +8371,33 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO5" t="s">
         <v>149</v>
       </c>
-      <c r="AM5">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO5">
-        <v>0.0515515979202667</v>
-      </c>
-      <c r="AP5">
-        <v>0.3033571428571429</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>173</v>
+      <c r="AP5" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:42">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F6">
         <v>1.056593274171426</v>
@@ -9036,42 +8496,33 @@
         <v>1.109868565865976</v>
       </c>
       <c r="AL6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM6">
         <v>1</v>
       </c>
       <c r="AN6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO6">
-        <v>0.0090987614396815</v>
-      </c>
-      <c r="AP6">
-        <v>0.4740199999999999</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:42">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F7">
         <v>1.056593274171426</v>
@@ -9170,42 +8621,33 @@
         <v>1.109868565865976</v>
       </c>
       <c r="AL7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM7">
         <v>1</v>
       </c>
       <c r="AN7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO7">
-        <v>0.0090987614396813</v>
-      </c>
-      <c r="AP7">
-        <v>0.4740199999999999</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:42">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F8">
         <v>1.02004805769283</v>
@@ -9304,39 +8746,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM8">
         <v>1</v>
       </c>
       <c r="AN8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO8">
-        <v>0.0140953415322656</v>
-      </c>
-      <c r="AP8">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:42">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F9">
         <v>1.02004805769283</v>
@@ -9435,39 +8868,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM9">
         <v>1</v>
       </c>
       <c r="AN9" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO9">
-        <v>0.014095341532266</v>
-      </c>
-      <c r="AP9">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:42">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F10">
         <v>1.02004805769283</v>
@@ -9566,39 +8990,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM10">
         <v>1</v>
       </c>
       <c r="AN10" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO10">
-        <v>0.0140953415322658</v>
-      </c>
-      <c r="AP10">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:42">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F11">
         <v>1.02004805769283</v>
@@ -9697,39 +9112,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM11">
         <v>1</v>
       </c>
       <c r="AN11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO11">
-        <v>0.0140953415322658</v>
-      </c>
-      <c r="AP11">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:42">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F12">
         <v>1.02004805769283</v>
@@ -9828,39 +9234,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM12">
         <v>1</v>
       </c>
       <c r="AN12" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO12">
-        <v>0.0140953415322657</v>
-      </c>
-      <c r="AP12">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:42">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F13">
         <v>1.02004805769283</v>
@@ -9959,39 +9356,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM13">
         <v>1</v>
       </c>
       <c r="AN13" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO13">
-        <v>0.0140953415322656</v>
-      </c>
-      <c r="AP13">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:42">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F14">
         <v>1.02004805769283</v>
@@ -10090,39 +9478,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM14">
         <v>1</v>
       </c>
       <c r="AN14" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO14">
-        <v>0.0140953415322657</v>
-      </c>
-      <c r="AP14">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:42">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F15">
         <v>1.02004805769283</v>
@@ -10221,39 +9600,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM15">
         <v>1</v>
       </c>
       <c r="AN15" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO15">
-        <v>0.0140953415322656</v>
-      </c>
-      <c r="AP15">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:42">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F16">
         <v>1.02004805769283</v>
@@ -10352,39 +9722,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM16">
         <v>1</v>
       </c>
       <c r="AN16" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO16">
-        <v>0.014095341532266</v>
-      </c>
-      <c r="AP16">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:42">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F17">
         <v>1.02004805769283</v>
@@ -10483,39 +9844,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM17">
         <v>1</v>
       </c>
       <c r="AN17" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO17">
-        <v>0.014095341532266</v>
-      </c>
-      <c r="AP17">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:42">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F18">
         <v>1.02004805769283</v>
@@ -10614,39 +9966,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM18">
         <v>1</v>
       </c>
       <c r="AN18" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO18">
-        <v>0.0140953415322656</v>
-      </c>
-      <c r="AP18">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:42">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F19">
         <v>1.02004805769283</v>
@@ -10745,39 +10088,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM19">
         <v>1</v>
       </c>
       <c r="AN19" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO19">
-        <v>0.0140953415322654</v>
-      </c>
-      <c r="AP19">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:42">
       <c r="A20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F20">
         <v>1.012753833340836</v>
@@ -10876,42 +10210,33 @@
         <v>1.109868565865976</v>
       </c>
       <c r="AL20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM20">
         <v>1</v>
       </c>
       <c r="AN20" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO20">
-        <v>-0.0210380827496821</v>
-      </c>
-      <c r="AP20">
-        <v>0.4740199999999999</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>166</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:42">
       <c r="A21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D21" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F21">
         <v>0.9960444492191682</v>
@@ -11007,42 +10332,33 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM21">
         <v>1</v>
       </c>
       <c r="AN21" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO21">
-        <v>-0.025570419822241</v>
-      </c>
-      <c r="AP21">
-        <v>0.456109756097561</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>158</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:42">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D22" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F22">
         <v>0.9956356627087248</v>
@@ -11138,42 +10454,33 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM22">
         <v>1</v>
       </c>
       <c r="AN22" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO22">
-        <v>-0.0086947696942436</v>
-      </c>
-      <c r="AP22">
-        <v>0.52608</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>256</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:42">
       <c r="A23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F23">
         <v>0.9955745921547524</v>
@@ -11269,42 +10576,33 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM23">
         <v>1</v>
       </c>
       <c r="AN23" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO23">
-        <v>-0.009402377006454099</v>
-      </c>
-      <c r="AP23">
-        <v>0.5360396825396826</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>256</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:42">
       <c r="A24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F24">
         <v>0.9952880329088488</v>
@@ -11400,42 +10698,33 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM24">
         <v>1</v>
       </c>
       <c r="AN24" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO24">
-        <v>-0.0282462549280952</v>
-      </c>
-      <c r="AP24">
-        <v>0.2218095238095238</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>160</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:42">
       <c r="A25" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F25">
         <v>0.9950621158558792</v>
@@ -11531,42 +10820,33 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL25" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO25" t="s">
         <v>149</v>
       </c>
-      <c r="AM25">
-        <v>1</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO25">
-        <v>0.0440968338747182</v>
-      </c>
-      <c r="AP25">
-        <v>0.3033571428571429</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>173</v>
+      <c r="AP25" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:42">
       <c r="A26" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F26">
         <v>0.9949203308329048</v>
@@ -11662,42 +10942,33 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM26">
         <v>1</v>
       </c>
       <c r="AN26" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO26">
-        <v>0.0020134268383163</v>
-      </c>
-      <c r="AP26">
-        <v>0.4859401709401709</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:42">
       <c r="A27" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D27" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F27">
         <v>0.9941198229372316</v>
@@ -11793,42 +11064,33 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL27" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM27">
         <v>1</v>
       </c>
       <c r="AN27" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO27">
-        <v>0.0133476137212195</v>
-      </c>
-      <c r="AP27">
-        <v>0.4740199999999999</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>257</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>254</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:42">
       <c r="A28" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D28" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F28">
         <v>0.993629834552358</v>
@@ -11924,42 +11186,33 @@
         <v>1.007094398189811</v>
       </c>
       <c r="AL28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM28">
         <v>1</v>
       </c>
       <c r="AN28" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO28">
-        <v>-0.0134819914090808</v>
-      </c>
-      <c r="AP28">
-        <v>0.4859401709401709</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>256</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:42">
       <c r="A29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F29">
         <v>0.9935313397329736</v>
@@ -12055,42 +11308,33 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM29">
         <v>1</v>
       </c>
       <c r="AN29" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO29">
-        <v>-0.0065598602662432</v>
-      </c>
-      <c r="AP29">
-        <v>0.537296875</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:42">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F30">
         <v>0.9931741218573716</v>
@@ -12186,42 +11430,33 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM30">
         <v>1</v>
       </c>
       <c r="AN30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO30" t="s">
         <v>150</v>
       </c>
-      <c r="AO30">
-        <v>0.0153353345227267</v>
-      </c>
-      <c r="AP30">
-        <v>0.4740199999999999</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>173</v>
+      <c r="AP30" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:45">
+    <row r="31" spans="1:42">
       <c r="A31" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D31" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F31">
         <v>0.9931268276102648</v>
@@ -12317,42 +11552,33 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL31" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM31">
         <v>1</v>
       </c>
       <c r="AN31" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO31" t="s">
         <v>150</v>
       </c>
-      <c r="AO31">
-        <v>-0.0300331390645142</v>
-      </c>
-      <c r="AP31">
-        <v>0.3680597014925373</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>173</v>
+      <c r="AP31" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:42">
       <c r="A32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D32" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F32">
         <v>0.9918354785115864</v>
@@ -12448,42 +11674,33 @@
         <v>1.007094398189811</v>
       </c>
       <c r="AL32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM32">
         <v>1</v>
       </c>
       <c r="AN32" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO32">
-        <v>0.0223168535666334</v>
-      </c>
-      <c r="AP32">
-        <v>0.4731279069767442</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:45">
+    <row r="33" spans="1:42">
       <c r="A33" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D33" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F33">
         <v>0.9906919449532976</v>
@@ -12579,42 +11796,33 @@
         <v>1.007094398189811</v>
       </c>
       <c r="AL33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM33">
         <v>1</v>
       </c>
       <c r="AN33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO33" t="s">
         <v>150</v>
       </c>
-      <c r="AO33">
-        <v>-0.0261173396904371</v>
-      </c>
-      <c r="AP33">
-        <v>0.4303205128205128</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>173</v>
+      <c r="AP33" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:45">
+    <row r="34" spans="1:42">
       <c r="A34" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D34" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F34">
         <v>0.9895331395755976</v>
@@ -12710,42 +11918,33 @@
         <v>1.007094398189811</v>
       </c>
       <c r="AL34" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM34">
         <v>1</v>
       </c>
       <c r="AN34" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO34">
-        <v>0.008510675376070099</v>
-      </c>
-      <c r="AP34">
-        <v>0.4775428571428571</v>
-      </c>
-      <c r="AQ34">
-        <v>0</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>258</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:45">
+    <row r="35" spans="1:42">
       <c r="A35" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D35" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F35">
         <v>0.9885610199149532</v>
@@ -12841,42 +12040,33 @@
         <v>1.009525841662229</v>
       </c>
       <c r="AL35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM35">
         <v>1</v>
       </c>
       <c r="AN35" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO35">
-        <v>-0.0105632701642349</v>
-      </c>
-      <c r="AP35">
-        <v>0.4859401709401709</v>
-      </c>
-      <c r="AQ35">
-        <v>0</v>
-      </c>
-      <c r="AR35" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:45">
+    <row r="36" spans="1:42">
       <c r="A36" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D36" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F36">
         <v>0.9868934836198452</v>
@@ -12972,42 +12162,33 @@
         <v>1.020358949003822</v>
       </c>
       <c r="AL36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM36">
         <v>1</v>
       </c>
       <c r="AN36" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO36">
-        <v>-0.0495571779339777</v>
-      </c>
-      <c r="AP36">
-        <v>0.327515625</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>259</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>173</v>
+        <v>148</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>256</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:45">
+    <row r="37" spans="1:42">
       <c r="A37" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
         <v>215</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>218</v>
-      </c>
       <c r="D37" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F37">
         <v>0.9864197177533276</v>
@@ -13103,42 +12284,33 @@
         <v>1.011819988425393</v>
       </c>
       <c r="AL37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM37">
         <v>1</v>
       </c>
       <c r="AN37" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO37">
-        <v>-0.0017015993654165</v>
-      </c>
-      <c r="AP37">
-        <v>0.52608</v>
-      </c>
-      <c r="AQ37">
-        <v>0</v>
-      </c>
-      <c r="AR37" t="s">
-        <v>260</v>
-      </c>
-      <c r="AS37" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:45">
+    <row r="38" spans="1:42">
       <c r="A38" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D38" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F38">
         <v>0.9852996726139758</v>
@@ -13234,42 +12406,33 @@
         <v>1.014028695370705</v>
       </c>
       <c r="AL38" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM38">
         <v>1</v>
       </c>
       <c r="AN38" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO38" t="s">
         <v>150</v>
       </c>
-      <c r="AO38">
-        <v>0.0354036549011216</v>
-      </c>
-      <c r="AP38">
-        <v>0.2877</v>
-      </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
-      <c r="AR38" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS38" t="s">
-        <v>173</v>
+      <c r="AP38" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:45">
+    <row r="39" spans="1:42">
       <c r="A39" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D39" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F39">
         <v>0.9828106639971363</v>
@@ -13365,28 +12528,19 @@
         <v>1.034372627655284</v>
       </c>
       <c r="AL39" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM39">
         <v>1</v>
       </c>
       <c r="AN39" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO39">
-        <v>0.0363653097384573</v>
-      </c>
-      <c r="AP39">
-        <v>0.4303205128205128</v>
-      </c>
-      <c r="AQ39">
-        <v>0</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS39" t="s">
-        <v>173</v>
+        <v>148</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/results/BINARY/Pretomanid.xlsx
+++ b/results/BINARY/Pretomanid.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP50"/>
+  <dimension ref="A1:AO50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Num_Isolates</t>
+          <t>Present_SR</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -637,11 +637,6 @@
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>single_lineage</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Phenos</t>
         </is>
@@ -778,8 +773,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -918,11 +912,6 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>4.3.4.2.1</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -1060,11 +1049,6 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -1202,11 +1186,6 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -1344,11 +1323,6 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -1486,11 +1460,6 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>2.2.2</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -1624,8 +1593,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -1760,8 +1728,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -1896,8 +1863,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -2032,8 +1998,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -2168,8 +2133,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -2306,11 +2270,6 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -2444,11 +2403,6 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>3.1.1</t>
-        </is>
-      </c>
-      <c r="AP14" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -2582,11 +2536,6 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>1.1.3</t>
-        </is>
-      </c>
-      <c r="AP15" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -2720,11 +2669,6 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>4.1.1.1</t>
-        </is>
-      </c>
-      <c r="AP16" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -2858,11 +2802,6 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>4.3.2.1</t>
-        </is>
-      </c>
-      <c r="AP17" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -2996,11 +2935,6 @@
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>BOV_AFRI</t>
-        </is>
-      </c>
-      <c r="AP18" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -3134,11 +3068,6 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>4.3.4.2.1</t>
-        </is>
-      </c>
-      <c r="AP19" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -3272,11 +3201,6 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>4.3.4.2.1</t>
-        </is>
-      </c>
-      <c r="AP20" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -3410,11 +3334,6 @@
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>2.2.1.1</t>
-        </is>
-      </c>
-      <c r="AP21" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -3548,11 +3467,6 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>4.3.3</t>
-        </is>
-      </c>
-      <c r="AP22" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -3686,11 +3600,6 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>4.3.2</t>
-        </is>
-      </c>
-      <c r="AP23" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -3822,8 +3731,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="inlineStr">
+      <c r="AO24" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -3958,11 +3866,6 @@
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>4.3.3</t>
-        </is>
-      </c>
-      <c r="AP25" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -4096,11 +3999,6 @@
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP26" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -4234,11 +4132,6 @@
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP27" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -4372,11 +4265,6 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>4.3.4.2.1</t>
-        </is>
-      </c>
-      <c r="AP28" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -4510,11 +4398,6 @@
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="AP29" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -4648,11 +4531,6 @@
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>BOV_AFRI</t>
-        </is>
-      </c>
-      <c r="AP30" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -4786,11 +4664,6 @@
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>3.1.2.1</t>
-        </is>
-      </c>
-      <c r="AP31" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -4924,11 +4797,6 @@
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>4.1.1.1</t>
-        </is>
-      </c>
-      <c r="AP32" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -5062,11 +4930,6 @@
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>4.6.2</t>
-        </is>
-      </c>
-      <c r="AP33" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -5200,11 +5063,6 @@
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="AP34" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -5338,11 +5196,6 @@
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP35" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -5476,11 +5329,6 @@
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>1.2.2</t>
-        </is>
-      </c>
-      <c r="AP36" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -5614,11 +5462,6 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP37" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -5752,11 +5595,6 @@
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>1.1.2</t>
-        </is>
-      </c>
-      <c r="AP38" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -5890,11 +5728,6 @@
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>4.4.1.1</t>
-        </is>
-      </c>
-      <c r="AP39" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -6028,11 +5861,6 @@
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>4.3.3</t>
-        </is>
-      </c>
-      <c r="AP40" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -6166,11 +5994,6 @@
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="AP41" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -6304,11 +6127,6 @@
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP42" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -6442,11 +6260,6 @@
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>4.1.2</t>
-        </is>
-      </c>
-      <c r="AP43" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -6578,8 +6391,7 @@
           <t>Neutral</t>
         </is>
       </c>
-      <c r="AO44" t="inlineStr"/>
-      <c r="AP44" t="inlineStr">
+      <c r="AO44" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -6714,11 +6526,6 @@
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>1.2.1</t>
-        </is>
-      </c>
-      <c r="AP45" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -6852,11 +6659,6 @@
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>1.2.1</t>
-        </is>
-      </c>
-      <c r="AP46" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -6990,11 +6792,6 @@
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>1.2.1</t>
-        </is>
-      </c>
-      <c r="AP47" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -7128,11 +6925,6 @@
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>1.2.1</t>
-        </is>
-      </c>
-      <c r="AP48" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -7266,11 +7058,6 @@
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>1.2.1</t>
-        </is>
-      </c>
-      <c r="AP49" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -7403,11 +7190,6 @@
         </is>
       </c>
       <c r="AO50" t="inlineStr">
-        <is>
-          <t>1.2.1</t>
-        </is>
-      </c>
-      <c r="AP50" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -7424,7 +7206,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7505,7 +7287,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Num_Isolates</t>
+          <t>Present_SR</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -7634,11 +7416,6 @@
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>single_lineage</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Phenos</t>
         </is>
@@ -7771,8 +7548,7 @@
           <t>Assoc w R</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -7905,8 +7681,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -8035,8 +7810,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -8053,7 +7827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP39"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8134,7 +7908,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Num_Isolates</t>
+          <t>Present_SR</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -8263,11 +8037,6 @@
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>single_lineage</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Phenos</t>
         </is>
@@ -8404,11 +8173,6 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1.2.1</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -8544,11 +8308,6 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1.2.1</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -8682,8 +8441,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -8820,11 +8578,6 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>4.3.4.2.1</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -8960,11 +8713,6 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>4.4.1.1</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -9100,11 +8848,6 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>4.4.1.1</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -9238,8 +8981,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -9374,8 +9116,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -9510,8 +9251,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -9646,8 +9386,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -9782,8 +9521,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -9918,8 +9656,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -10054,8 +9791,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -10190,8 +9926,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -10326,8 +10061,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -10462,8 +10196,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr">
+      <c r="AO17" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -10598,8 +10331,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -10734,8 +10466,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr">
+      <c r="AO19" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -10872,11 +10603,6 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="AP20" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -11010,11 +10736,6 @@
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>4.1.1.1</t>
-        </is>
-      </c>
-      <c r="AP21" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -11148,11 +10869,6 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>4.1.1.3</t>
-        </is>
-      </c>
-      <c r="AP22" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -11286,11 +11002,6 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>4.1.1.3</t>
-        </is>
-      </c>
-      <c r="AP23" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -11424,11 +11135,6 @@
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>BOV_AFRI</t>
-        </is>
-      </c>
-      <c r="AP24" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -11562,11 +11268,6 @@
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>4.3.4.2.1</t>
-        </is>
-      </c>
-      <c r="AP25" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -11700,11 +11401,6 @@
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>1.1.3</t>
-        </is>
-      </c>
-      <c r="AP26" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -11838,11 +11534,6 @@
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>4.6.2.2</t>
-        </is>
-      </c>
-      <c r="AP27" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -11976,11 +11667,6 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>4.1.1.3</t>
-        </is>
-      </c>
-      <c r="AP28" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -12114,11 +11800,6 @@
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>1.1.2</t>
-        </is>
-      </c>
-      <c r="AP29" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -12252,11 +11933,6 @@
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP30" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -12390,11 +12066,6 @@
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP31" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -12528,11 +12199,6 @@
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>1.1.3</t>
-        </is>
-      </c>
-      <c r="AP32" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -12666,11 +12332,6 @@
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP33" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -12804,11 +12465,6 @@
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>4.1.1</t>
-        </is>
-      </c>
-      <c r="AP34" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -12942,11 +12598,6 @@
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>1.1.2</t>
-        </is>
-      </c>
-      <c r="AP35" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -13080,11 +12731,6 @@
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>4.2.1</t>
-        </is>
-      </c>
-      <c r="AP36" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -13218,11 +12864,6 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AP37" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -13356,11 +12997,6 @@
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP38" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -13493,11 +13129,6 @@
         </is>
       </c>
       <c r="AO39" t="inlineStr">
-        <is>
-          <t>4.3.3</t>
-        </is>
-      </c>
-      <c r="AP39" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
